--- a/BackTest/2019-10-31 BackTest CHR.xlsx
+++ b/BackTest/2019-10-31 BackTest CHR.xlsx
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -3846,13 +3846,17 @@
         <v>26.90000000000003</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K99" t="n">
+        <v>27.2</v>
+      </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
@@ -3881,14 +3885,22 @@
         <v>26.60000000000003</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K100" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3916,14 +3928,22 @@
         <v>26.53333333333336</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K101" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3951,14 +3971,22 @@
         <v>26.83333333333337</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>27</v>
+      </c>
+      <c r="K102" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3986,14 +4014,22 @@
         <v>27.03333333333336</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K103" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4027,8 +4063,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4062,8 +4104,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4091,18 +4139,20 @@
         <v>26.60000000000003</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>26.6</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="L106" t="inlineStr"/>
+        <v>27.2</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4130,20 +4180,18 @@
         <v>26.53333333333336</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M107" t="n">
@@ -4173,16 +4221,14 @@
         <v>26.40000000000003</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4216,16 +4262,14 @@
         <v>26.50000000000003</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4259,16 +4303,14 @@
         <v>26.70000000000003</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4302,16 +4344,14 @@
         <v>26.63333333333337</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4345,16 +4385,14 @@
         <v>26.5666666666667</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4388,16 +4426,14 @@
         <v>26.63333333333336</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>26.6</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4431,16 +4467,14 @@
         <v>26.90000000000003</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4474,16 +4508,14 @@
         <v>26.80000000000004</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4517,16 +4549,14 @@
         <v>26.60000000000003</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4560,16 +4590,14 @@
         <v>26.53333333333337</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>26.6</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4603,24 +4631,22 @@
         <v>26.60000000000003</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/BackTest/2019-10-31 BackTest CHR.xlsx
+++ b/BackTest/2019-10-31 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="C2" t="n">
         <v>28.5</v>
       </c>
       <c r="D2" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E2" t="n">
         <v>28.5</v>
       </c>
       <c r="F2" t="n">
-        <v>29069.7728</v>
+        <v>48993.2445</v>
       </c>
       <c r="G2" t="n">
-        <v>28.80000000000001</v>
+        <v>28.40500000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28.3</v>
+        <v>29.1</v>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="D3" t="n">
-        <v>28.3</v>
+        <v>29.1</v>
       </c>
       <c r="E3" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="F3" t="n">
-        <v>1860.571</v>
+        <v>29069.7728</v>
       </c>
       <c r="G3" t="n">
-        <v>28.33333333333334</v>
+        <v>28.44166666666668</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.8</v>
+        <v>28.3</v>
       </c>
       <c r="C4" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="E4" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="F4" t="n">
-        <v>8516.968000000001</v>
+        <v>1860.571</v>
       </c>
       <c r="G4" t="n">
-        <v>28.36666666666667</v>
+        <v>28.47333333333335</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="C5" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="D5" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="E5" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="F5" t="n">
-        <v>5277.0462</v>
+        <v>8516.968000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>28.30000000000001</v>
+        <v>28.51666666666668</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>28.6</v>
+        <v>28.1</v>
       </c>
       <c r="C6" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="D6" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="E6" t="n">
-        <v>28.6</v>
+        <v>28.1</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>5277.0462</v>
       </c>
       <c r="G6" t="n">
-        <v>28.50000000000001</v>
+        <v>28.53666666666668</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28</v>
+        <v>28.6</v>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>28.6</v>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>28.6</v>
       </c>
       <c r="E7" t="n">
-        <v>28</v>
+        <v>28.6</v>
       </c>
       <c r="F7" t="n">
-        <v>3008.2163</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>28.30000000000001</v>
+        <v>28.56500000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
         <v>28</v>
@@ -652,13 +652,13 @@
         <v>28</v>
       </c>
       <c r="E8" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="F8" t="n">
-        <v>270.8249</v>
+        <v>3008.2163</v>
       </c>
       <c r="G8" t="n">
-        <v>28.20000000000001</v>
+        <v>28.58500000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>27.9</v>
       </c>
       <c r="C9" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
         <v>27.9</v>
       </c>
       <c r="F9" t="n">
-        <v>4355.198</v>
+        <v>270.8249</v>
       </c>
       <c r="G9" t="n">
-        <v>27.96666666666668</v>
+        <v>28.61833333333334</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C10" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="D10" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="E10" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="F10" t="n">
-        <v>38439.7858</v>
+        <v>4355.198</v>
       </c>
       <c r="G10" t="n">
-        <v>27.96666666666668</v>
+        <v>28.63333333333334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>27.8</v>
       </c>
       <c r="C11" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="E11" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F11" t="n">
-        <v>72053.5961</v>
+        <v>38439.7858</v>
       </c>
       <c r="G11" t="n">
-        <v>27.90000000000001</v>
+        <v>28.64666666666668</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C12" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="D12" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E12" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="F12" t="n">
-        <v>1671.4815</v>
+        <v>72053.5961</v>
       </c>
       <c r="G12" t="n">
-        <v>27.80000000000001</v>
+        <v>28.65500000000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C13" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="D13" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E13" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F13" t="n">
-        <v>2096.7127</v>
+        <v>1671.4815</v>
       </c>
       <c r="G13" t="n">
-        <v>27.73333333333334</v>
+        <v>28.65666666666668</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="C14" t="n">
         <v>27.8</v>
@@ -862,13 +862,13 @@
         <v>27.8</v>
       </c>
       <c r="E14" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="F14" t="n">
-        <v>47</v>
+        <v>2096.7127</v>
       </c>
       <c r="G14" t="n">
-        <v>27.73333333333334</v>
+        <v>28.66000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C15" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="D15" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E15" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="F15" t="n">
-        <v>1613.4815</v>
+        <v>47</v>
       </c>
       <c r="G15" t="n">
-        <v>27.73333333333335</v>
+        <v>28.67833333333334</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>27.6</v>
       </c>
       <c r="F16" t="n">
-        <v>4132.3492</v>
+        <v>1613.4815</v>
       </c>
       <c r="G16" t="n">
-        <v>27.66666666666668</v>
+        <v>28.69333333333334</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="C17" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="D17" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E17" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>4132.3492</v>
       </c>
       <c r="G17" t="n">
-        <v>27.66666666666668</v>
+        <v>28.70833333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>27.8</v>
       </c>
       <c r="F18" t="n">
-        <v>5814.964</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>27.73333333333335</v>
+        <v>28.71833333333334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="C19" t="n">
         <v>27.8</v>
@@ -1037,22 +1037,26 @@
         <v>27.8</v>
       </c>
       <c r="E19" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F19" t="n">
-        <v>540.4498</v>
+        <v>5814.964</v>
       </c>
       <c r="G19" t="n">
-        <v>27.80000000000001</v>
+        <v>28.73166666666667</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K19" t="n">
+        <v>27.8</v>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
@@ -1063,32 +1067,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="C20" t="n">
-        <v>28.6</v>
+        <v>27.8</v>
       </c>
       <c r="D20" t="n">
-        <v>28.6</v>
+        <v>27.8</v>
       </c>
       <c r="E20" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="F20" t="n">
-        <v>983.21678321</v>
+        <v>540.4498</v>
       </c>
       <c r="G20" t="n">
-        <v>28.06666666666668</v>
+        <v>28.75166666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K20" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1098,32 +1110,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="C21" t="n">
-        <v>27.3</v>
+        <v>28.6</v>
       </c>
       <c r="D21" t="n">
-        <v>27.5</v>
+        <v>28.6</v>
       </c>
       <c r="E21" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="F21" t="n">
-        <v>28256.0736</v>
+        <v>983.21678321</v>
       </c>
       <c r="G21" t="n">
-        <v>27.90000000000001</v>
+        <v>28.77333333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,22 +1153,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C22" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="D22" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E22" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>28256.0736</v>
       </c>
       <c r="G22" t="n">
-        <v>27.86666666666668</v>
+        <v>28.76833333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,8 +1177,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>28.3</v>
+        <v>27.7</v>
       </c>
       <c r="C23" t="n">
-        <v>28.3</v>
+        <v>27.7</v>
       </c>
       <c r="D23" t="n">
-        <v>28.3</v>
+        <v>27.7</v>
       </c>
       <c r="E23" t="n">
-        <v>28.3</v>
+        <v>27.7</v>
       </c>
       <c r="F23" t="n">
         <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>27.76666666666668</v>
+        <v>28.77</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,8 +1218,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,22 +1235,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>27.5</v>
+        <v>28.3</v>
       </c>
       <c r="C24" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="D24" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="E24" t="n">
-        <v>27.3</v>
+        <v>28.3</v>
       </c>
       <c r="F24" t="n">
-        <v>51828.5707</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>28.06666666666668</v>
+        <v>28.78</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,8 +1259,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,22 +1276,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C25" t="n">
-        <v>27.6</v>
+        <v>28.2</v>
       </c>
       <c r="D25" t="n">
-        <v>27.6</v>
+        <v>28.2</v>
       </c>
       <c r="E25" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F25" t="n">
-        <v>2082.4772</v>
+        <v>51828.5707</v>
       </c>
       <c r="G25" t="n">
-        <v>28.03333333333335</v>
+        <v>28.78833333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,8 +1300,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1285,10 +1329,10 @@
         <v>27.6</v>
       </c>
       <c r="F26" t="n">
-        <v>917.5228</v>
+        <v>2082.4772</v>
       </c>
       <c r="G26" t="n">
-        <v>27.80000000000001</v>
+        <v>28.78666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,8 +1341,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,22 +1358,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="C27" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D27" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="E27" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>917.5228</v>
       </c>
       <c r="G27" t="n">
-        <v>27.50000000000001</v>
+        <v>28.785</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,8 +1382,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,22 +1399,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C28" t="n">
-        <v>26.6</v>
+        <v>27.3</v>
       </c>
       <c r="D28" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E28" t="n">
-        <v>26.6</v>
+        <v>27.3</v>
       </c>
       <c r="F28" t="n">
-        <v>248260.9812</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>27.16666666666669</v>
+        <v>28.75</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,8 +1423,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1378,22 +1440,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C29" t="n">
-        <v>27.3</v>
+        <v>26.6</v>
       </c>
       <c r="D29" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E29" t="n">
-        <v>27.3</v>
+        <v>26.6</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>248260.9812</v>
       </c>
       <c r="G29" t="n">
-        <v>27.06666666666668</v>
+        <v>28.70333333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,8 +1464,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1481,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="C30" t="n">
-        <v>26.7</v>
+        <v>27.3</v>
       </c>
       <c r="D30" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="E30" t="n">
-        <v>26.7</v>
+        <v>27.3</v>
       </c>
       <c r="F30" t="n">
-        <v>13799.9862</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>26.86666666666668</v>
+        <v>28.66666666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,8 +1505,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,22 +1522,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="C31" t="n">
         <v>26.7</v>
       </c>
       <c r="D31" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="E31" t="n">
         <v>26.7</v>
       </c>
       <c r="F31" t="n">
-        <v>7037.1287</v>
+        <v>13799.9862</v>
       </c>
       <c r="G31" t="n">
-        <v>26.90000000000002</v>
+        <v>28.61499999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,8 +1546,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1483,22 +1563,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C32" t="n">
         <v>26.7</v>
       </c>
-      <c r="C32" t="n">
-        <v>26.9</v>
-      </c>
       <c r="D32" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="E32" t="n">
         <v>26.7</v>
       </c>
       <c r="F32" t="n">
-        <v>15502.2939</v>
+        <v>7037.1287</v>
       </c>
       <c r="G32" t="n">
-        <v>26.76666666666668</v>
+        <v>28.56333333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,8 +1587,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1521,19 +1607,19 @@
         <v>26.7</v>
       </c>
       <c r="C33" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="D33" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="E33" t="n">
         <v>26.7</v>
       </c>
       <c r="F33" t="n">
-        <v>3809.9863</v>
+        <v>15502.2939</v>
       </c>
       <c r="G33" t="n">
-        <v>26.86666666666668</v>
+        <v>28.515</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,8 +1628,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,22 +1645,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="C34" t="n">
-        <v>28.1</v>
+        <v>27</v>
       </c>
       <c r="D34" t="n">
-        <v>28.2</v>
+        <v>27</v>
       </c>
       <c r="E34" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="F34" t="n">
-        <v>308482.332</v>
+        <v>3809.9863</v>
       </c>
       <c r="G34" t="n">
-        <v>27.33333333333335</v>
+        <v>28.46833333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,8 +1669,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,22 +1686,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>28.1</v>
+        <v>26.9</v>
       </c>
       <c r="C35" t="n">
         <v>28.1</v>
       </c>
       <c r="D35" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="E35" t="n">
-        <v>28.1</v>
+        <v>26.9</v>
       </c>
       <c r="F35" t="n">
-        <v>42835.8932</v>
+        <v>308482.332</v>
       </c>
       <c r="G35" t="n">
-        <v>27.73333333333335</v>
+        <v>28.44</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,8 +1710,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1727,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="C36" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="D36" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="E36" t="n">
-        <v>27.8</v>
+        <v>28.1</v>
       </c>
       <c r="F36" t="n">
-        <v>6358.5073</v>
+        <v>42835.8932</v>
       </c>
       <c r="G36" t="n">
-        <v>28.13333333333335</v>
+        <v>28.41166666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,8 +1751,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1667,13 +1777,13 @@
         <v>28.2</v>
       </c>
       <c r="E37" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="F37" t="n">
-        <v>52.1428</v>
+        <v>6358.5073</v>
       </c>
       <c r="G37" t="n">
-        <v>28.16666666666669</v>
+        <v>28.38833333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,8 +1792,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,22 +1809,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="C38" t="n">
-        <v>27.2</v>
+        <v>28.2</v>
       </c>
       <c r="D38" t="n">
-        <v>27.2</v>
+        <v>28.2</v>
       </c>
       <c r="E38" t="n">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="F38" t="n">
-        <v>16458.6822</v>
+        <v>52.1428</v>
       </c>
       <c r="G38" t="n">
-        <v>27.86666666666668</v>
+        <v>28.365</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,8 +1833,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,22 +1850,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>28.1</v>
+        <v>27.2</v>
       </c>
       <c r="C39" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="D39" t="n">
-        <v>28.1</v>
+        <v>27.2</v>
       </c>
       <c r="E39" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F39" t="n">
-        <v>14688.7681</v>
+        <v>16458.6822</v>
       </c>
       <c r="G39" t="n">
-        <v>27.66666666666668</v>
+        <v>28.32166666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,8 +1874,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1766,19 +1894,19 @@
         <v>28.1</v>
       </c>
       <c r="C40" t="n">
-        <v>28.1</v>
+        <v>27.6</v>
       </c>
       <c r="D40" t="n">
         <v>28.1</v>
       </c>
       <c r="E40" t="n">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="F40" t="n">
-        <v>45.97</v>
+        <v>14688.7681</v>
       </c>
       <c r="G40" t="n">
-        <v>27.63333333333335</v>
+        <v>28.285</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,8 +1915,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +1932,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>27</v>
+        <v>28.1</v>
       </c>
       <c r="C41" t="n">
-        <v>27</v>
+        <v>28.1</v>
       </c>
       <c r="D41" t="n">
-        <v>27</v>
+        <v>28.1</v>
       </c>
       <c r="E41" t="n">
         <v>27</v>
       </c>
       <c r="F41" t="n">
-        <v>20000</v>
+        <v>45.97</v>
       </c>
       <c r="G41" t="n">
-        <v>27.56666666666668</v>
+        <v>28.25833333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,8 +1956,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +1973,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="C42" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="D42" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="E42" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>20000</v>
       </c>
       <c r="G42" t="n">
-        <v>27.46666666666668</v>
+        <v>28.22333333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,8 +1997,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,22 +2014,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="C43" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="D43" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="E43" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F43" t="n">
         <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>27.30000000000001</v>
+        <v>28.18333333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1892,8 +2038,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1906,19 +2058,19 @@
         <v>27.6</v>
       </c>
       <c r="C44" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="D44" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="E44" t="n">
         <v>27.6</v>
       </c>
       <c r="F44" t="n">
-        <v>392.8571</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>27.63333333333334</v>
+        <v>28.17</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,8 +2079,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +2096,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C45" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="D45" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="E45" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F45" t="n">
-        <v>12748.072</v>
+        <v>392.8571</v>
       </c>
       <c r="G45" t="n">
-        <v>27.76666666666668</v>
+        <v>28.14166666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1962,8 +2120,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +2137,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="C46" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D46" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E46" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F46" t="n">
-        <v>10</v>
+        <v>12748.072</v>
       </c>
       <c r="G46" t="n">
-        <v>27.83333333333334</v>
+        <v>28.12333333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1997,8 +2161,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2178,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C47" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D47" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E47" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F47" t="n">
-        <v>1152.5736</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>27.73333333333334</v>
+        <v>28.09833333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,8 +2202,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +2219,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="C48" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="D48" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="E48" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="F48" t="n">
-        <v>442</v>
+        <v>1152.5736</v>
       </c>
       <c r="G48" t="n">
-        <v>27.83333333333334</v>
+        <v>28.07166666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,8 +2243,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2260,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C49" t="n">
         <v>28</v>
       </c>
-      <c r="C49" t="n">
-        <v>28.1</v>
-      </c>
       <c r="D49" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="E49" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="F49" t="n">
-        <v>22673.9093</v>
+        <v>442</v>
       </c>
       <c r="G49" t="n">
-        <v>27.93333333333334</v>
+        <v>28.045</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,8 +2284,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2301,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="C50" t="n">
-        <v>29.1</v>
+        <v>28.1</v>
       </c>
       <c r="D50" t="n">
-        <v>29.6</v>
+        <v>28.1</v>
       </c>
       <c r="E50" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="F50" t="n">
-        <v>83923.245</v>
+        <v>22673.9093</v>
       </c>
       <c r="G50" t="n">
-        <v>28.40000000000001</v>
+        <v>28.025</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,8 +2325,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2342,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="C51" t="n">
-        <v>29.6</v>
+        <v>29.1</v>
       </c>
       <c r="D51" t="n">
         <v>29.6</v>
       </c>
       <c r="E51" t="n">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="F51" t="n">
-        <v>1284.3592</v>
+        <v>83923.245</v>
       </c>
       <c r="G51" t="n">
-        <v>28.93333333333335</v>
+        <v>28.02166666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,8 +2366,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2186,19 +2386,19 @@
         <v>28.5</v>
       </c>
       <c r="C52" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="D52" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="E52" t="n">
         <v>28.5</v>
       </c>
       <c r="F52" t="n">
-        <v>1316.3512</v>
+        <v>1284.3592</v>
       </c>
       <c r="G52" t="n">
-        <v>29.36666666666668</v>
+        <v>28.02166666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,8 +2407,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2424,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>29.5</v>
+        <v>28.5</v>
       </c>
       <c r="C53" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="D53" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="E53" t="n">
-        <v>29.5</v>
+        <v>28.5</v>
       </c>
       <c r="F53" t="n">
-        <v>16001.9321</v>
+        <v>1316.3512</v>
       </c>
       <c r="G53" t="n">
-        <v>29.50000000000002</v>
+        <v>28.025</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,8 +2448,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2465,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>28.6</v>
+        <v>29.5</v>
       </c>
       <c r="C54" t="n">
-        <v>28.6</v>
+        <v>29.5</v>
       </c>
       <c r="D54" t="n">
-        <v>28.6</v>
+        <v>29.5</v>
       </c>
       <c r="E54" t="n">
-        <v>28.6</v>
+        <v>29.5</v>
       </c>
       <c r="F54" t="n">
-        <v>13650.7057</v>
+        <v>16001.9321</v>
       </c>
       <c r="G54" t="n">
-        <v>29.16666666666669</v>
+        <v>28.035</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,8 +2489,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2291,29 +2509,35 @@
         <v>28.6</v>
       </c>
       <c r="C55" t="n">
-        <v>29.3</v>
+        <v>28.6</v>
       </c>
       <c r="D55" t="n">
-        <v>29.4</v>
+        <v>28.6</v>
       </c>
       <c r="E55" t="n">
         <v>28.6</v>
       </c>
       <c r="F55" t="n">
-        <v>26278.2847</v>
+        <v>13650.7057</v>
       </c>
       <c r="G55" t="n">
-        <v>29.13333333333335</v>
+        <v>28.02833333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2547,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C56" t="n">
         <v>29.3</v>
       </c>
-      <c r="C56" t="n">
-        <v>29.5</v>
-      </c>
       <c r="D56" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="E56" t="n">
-        <v>29.3</v>
+        <v>28.6</v>
       </c>
       <c r="F56" t="n">
-        <v>65605.7038</v>
+        <v>26278.2847</v>
       </c>
       <c r="G56" t="n">
-        <v>29.13333333333335</v>
+        <v>28.03499999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,8 +2571,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2588,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>28.3</v>
+        <v>29.3</v>
       </c>
       <c r="C57" t="n">
-        <v>27.9</v>
+        <v>29.5</v>
       </c>
       <c r="D57" t="n">
-        <v>28.3</v>
+        <v>29.5</v>
       </c>
       <c r="E57" t="n">
-        <v>27.9</v>
+        <v>29.3</v>
       </c>
       <c r="F57" t="n">
-        <v>40845.1435</v>
+        <v>65605.7038</v>
       </c>
       <c r="G57" t="n">
-        <v>28.90000000000002</v>
+        <v>28.04499999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,8 +2612,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,34 +2629,40 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>27.6</v>
+        <v>28.3</v>
       </c>
       <c r="C58" t="n">
-        <v>28.6</v>
+        <v>27.9</v>
       </c>
       <c r="D58" t="n">
-        <v>29.3</v>
+        <v>28.3</v>
       </c>
       <c r="E58" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="F58" t="n">
-        <v>41147.4683</v>
+        <v>40845.1435</v>
       </c>
       <c r="G58" t="n">
-        <v>28.66666666666669</v>
+        <v>28.01833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>0.9985971223021582</v>
       </c>
     </row>
     <row r="59">
@@ -2428,22 +2670,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C59" t="n">
         <v>28.6</v>
       </c>
-      <c r="C59" t="n">
-        <v>27.8</v>
-      </c>
       <c r="D59" t="n">
-        <v>28.6</v>
+        <v>29.3</v>
       </c>
       <c r="E59" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="F59" t="n">
-        <v>17092.2837</v>
+        <v>41147.4683</v>
       </c>
       <c r="G59" t="n">
-        <v>28.10000000000002</v>
+        <v>28.00499999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2705,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C60" t="n">
-        <v>28.5</v>
+        <v>27.8</v>
       </c>
       <c r="D60" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="E60" t="n">
-        <v>28.5</v>
+        <v>27.8</v>
       </c>
       <c r="F60" t="n">
-        <v>11</v>
+        <v>17092.2837</v>
       </c>
       <c r="G60" t="n">
-        <v>28.30000000000002</v>
+        <v>27.98666666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,7 +2740,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="C61" t="n">
         <v>28.5</v>
@@ -2507,13 +2749,13 @@
         <v>28.5</v>
       </c>
       <c r="E61" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="F61" t="n">
-        <v>30516.0825</v>
+        <v>11</v>
       </c>
       <c r="G61" t="n">
-        <v>28.26666666666669</v>
+        <v>27.97166666666665</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2775,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="C62" t="n">
-        <v>27.6</v>
+        <v>28.5</v>
       </c>
       <c r="D62" t="n">
-        <v>27.7</v>
+        <v>28.5</v>
       </c>
       <c r="E62" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="F62" t="n">
-        <v>13963.8671</v>
+        <v>30516.0825</v>
       </c>
       <c r="G62" t="n">
-        <v>28.20000000000002</v>
+        <v>27.97166666666665</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2810,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C63" t="n">
         <v>27.6</v>
       </c>
       <c r="D63" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E63" t="n">
         <v>27.6</v>
       </c>
       <c r="F63" t="n">
-        <v>31907.5937</v>
+        <v>13963.8671</v>
       </c>
       <c r="G63" t="n">
-        <v>27.90000000000002</v>
+        <v>27.95666666666665</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2845,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="C64" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="D64" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="E64" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="F64" t="n">
-        <v>28.8642</v>
+        <v>31907.5937</v>
       </c>
       <c r="G64" t="n">
-        <v>27.73333333333336</v>
+        <v>27.94999999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2880,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="C65" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="D65" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="E65" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="F65" t="n">
-        <v>1486.9565</v>
+        <v>28.8642</v>
       </c>
       <c r="G65" t="n">
-        <v>28.06666666666669</v>
+        <v>27.93999999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2676,19 +2918,19 @@
         <v>27.6</v>
       </c>
       <c r="C66" t="n">
-        <v>27.6</v>
+        <v>28.6</v>
       </c>
       <c r="D66" t="n">
-        <v>27.6</v>
+        <v>28.6</v>
       </c>
       <c r="E66" t="n">
         <v>27.6</v>
       </c>
       <c r="F66" t="n">
-        <v>5441.2619</v>
+        <v>1486.9565</v>
       </c>
       <c r="G66" t="n">
-        <v>28.06666666666669</v>
+        <v>27.94499999999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2711,19 +2953,19 @@
         <v>27.6</v>
       </c>
       <c r="C67" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="D67" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="E67" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F67" t="n">
-        <v>31861.0096</v>
+        <v>5441.2619</v>
       </c>
       <c r="G67" t="n">
-        <v>28.26666666666669</v>
+        <v>27.92833333333332</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2985,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>28.7</v>
+        <v>27.6</v>
       </c>
       <c r="C68" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D68" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E68" t="n">
-        <v>28.7</v>
+        <v>27.5</v>
       </c>
       <c r="F68" t="n">
-        <v>11</v>
+        <v>31861.0096</v>
       </c>
       <c r="G68" t="n">
-        <v>28.30000000000002</v>
+        <v>27.93833333333332</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +3020,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>28</v>
+        <v>28.7</v>
       </c>
       <c r="C69" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D69" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E69" t="n">
-        <v>28</v>
+        <v>28.7</v>
       </c>
       <c r="F69" t="n">
-        <v>3325.1577</v>
+        <v>11</v>
       </c>
       <c r="G69" t="n">
-        <v>28.63333333333335</v>
+        <v>27.94999999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,7 +3055,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="C70" t="n">
         <v>28.6</v>
@@ -2822,13 +3064,13 @@
         <v>28.6</v>
       </c>
       <c r="E70" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="F70" t="n">
-        <v>598.8111</v>
+        <v>3325.1577</v>
       </c>
       <c r="G70" t="n">
-        <v>28.63333333333335</v>
+        <v>27.96166666666665</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +3090,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>27.8</v>
+        <v>28.6</v>
       </c>
       <c r="C71" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="D71" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="E71" t="n">
-        <v>27.8</v>
+        <v>28.6</v>
       </c>
       <c r="F71" t="n">
-        <v>2974.968</v>
+        <v>598.8111</v>
       </c>
       <c r="G71" t="n">
-        <v>28.56666666666669</v>
+        <v>27.97166666666665</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2886,19 +3128,19 @@
         <v>27.8</v>
       </c>
       <c r="C72" t="n">
-        <v>28.1</v>
+        <v>28.5</v>
       </c>
       <c r="D72" t="n">
-        <v>28.1</v>
+        <v>28.5</v>
       </c>
       <c r="E72" t="n">
         <v>27.8</v>
       </c>
       <c r="F72" t="n">
-        <v>22</v>
+        <v>2974.968</v>
       </c>
       <c r="G72" t="n">
-        <v>28.40000000000002</v>
+        <v>27.98333333333331</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +3160,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C73" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="D73" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="E73" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F73" t="n">
-        <v>1381.9813</v>
+        <v>22</v>
       </c>
       <c r="G73" t="n">
-        <v>28.1666666666667</v>
+        <v>27.99166666666665</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +3195,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="C74" t="n">
-        <v>28.2</v>
+        <v>27.9</v>
       </c>
       <c r="D74" t="n">
-        <v>28.2</v>
+        <v>27.9</v>
       </c>
       <c r="E74" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="F74" t="n">
-        <v>21</v>
+        <v>1381.9813</v>
       </c>
       <c r="G74" t="n">
-        <v>28.06666666666669</v>
+        <v>27.99333333333332</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3230,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="C75" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="D75" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="E75" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G75" t="n">
-        <v>28.13333333333336</v>
+        <v>27.99999999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3265,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="C76" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="D76" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="E76" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="F76" t="n">
-        <v>4293.9013</v>
+        <v>10</v>
       </c>
       <c r="G76" t="n">
-        <v>28.13333333333336</v>
+        <v>28.01166666666665</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3300,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C77" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="D77" t="n">
-        <v>27.8</v>
+        <v>28.2</v>
       </c>
       <c r="E77" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="F77" t="n">
-        <v>34270.1896</v>
+        <v>4293.9013</v>
       </c>
       <c r="G77" t="n">
-        <v>27.9666666666667</v>
+        <v>28.01666666666666</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3096,19 +3338,19 @@
         <v>27.8</v>
       </c>
       <c r="C78" t="n">
-        <v>28.2</v>
+        <v>27.7</v>
       </c>
       <c r="D78" t="n">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
       <c r="E78" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F78" t="n">
-        <v>44394.1552</v>
+        <v>34270.1896</v>
       </c>
       <c r="G78" t="n">
-        <v>27.93333333333337</v>
+        <v>28.01499999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3370,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="C79" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="D79" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="E79" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>44394.1552</v>
       </c>
       <c r="G79" t="n">
-        <v>28.0666666666667</v>
+        <v>28.02166666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3405,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="C80" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="D80" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="E80" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="F80" t="n">
-        <v>2824.5874</v>
+        <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>28.13333333333337</v>
+        <v>28.02999999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3440,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C81" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="D81" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E81" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="F81" t="n">
-        <v>7954.8972</v>
+        <v>2824.5874</v>
       </c>
       <c r="G81" t="n">
-        <v>28.00000000000003</v>
+        <v>28.01833333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3236,19 +3478,19 @@
         <v>27.8</v>
       </c>
       <c r="C82" t="n">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
       <c r="D82" t="n">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
       <c r="E82" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F82" t="n">
-        <v>13114.6062</v>
+        <v>7954.8972</v>
       </c>
       <c r="G82" t="n">
-        <v>27.9666666666667</v>
+        <v>28.02666666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3510,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C83" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="D83" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="E83" t="n">
         <v>27.7</v>
       </c>
       <c r="F83" t="n">
-        <v>34004.1239</v>
+        <v>13114.6062</v>
       </c>
       <c r="G83" t="n">
-        <v>28.03333333333337</v>
+        <v>28.03499999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3306,19 +3548,19 @@
         <v>27.7</v>
       </c>
       <c r="C84" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="D84" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="E84" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F84" t="n">
-        <v>160011</v>
+        <v>34004.1239</v>
       </c>
       <c r="G84" t="n">
-        <v>28.10000000000004</v>
+        <v>28.03166666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3580,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C85" t="n">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="D85" t="n">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="E85" t="n">
         <v>27.5</v>
       </c>
       <c r="F85" t="n">
-        <v>5344.2333</v>
+        <v>160011</v>
       </c>
       <c r="G85" t="n">
-        <v>27.8666666666667</v>
+        <v>28.02833333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3615,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="C86" t="n">
-        <v>28.1</v>
+        <v>27.5</v>
       </c>
       <c r="D86" t="n">
-        <v>28.1</v>
+        <v>27.5</v>
       </c>
       <c r="E86" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F86" t="n">
-        <v>452</v>
+        <v>5344.2333</v>
       </c>
       <c r="G86" t="n">
-        <v>27.8666666666667</v>
+        <v>28.02666666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3650,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="C87" t="n">
-        <v>27</v>
+        <v>28.1</v>
       </c>
       <c r="D87" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="E87" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="F87" t="n">
-        <v>30139.32199068</v>
+        <v>452</v>
       </c>
       <c r="G87" t="n">
-        <v>27.53333333333337</v>
+        <v>28.03499999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,10 +3685,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C88" t="n">
         <v>27</v>
-      </c>
-      <c r="C88" t="n">
-        <v>27.9</v>
       </c>
       <c r="D88" t="n">
         <v>27.9</v>
@@ -3455,10 +3697,10 @@
         <v>27</v>
       </c>
       <c r="F88" t="n">
-        <v>10020</v>
+        <v>30139.32199068</v>
       </c>
       <c r="G88" t="n">
-        <v>27.6666666666667</v>
+        <v>28.02999999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3720,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>27.8</v>
+        <v>27</v>
       </c>
       <c r="C89" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="D89" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E89" t="n">
-        <v>27.8</v>
+        <v>27</v>
       </c>
       <c r="F89" t="n">
-        <v>34</v>
+        <v>10020</v>
       </c>
       <c r="G89" t="n">
-        <v>27.5666666666667</v>
+        <v>28.05166666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3755,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C90" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="D90" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E90" t="n">
-        <v>26.7</v>
+        <v>27.8</v>
       </c>
       <c r="F90" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="G90" t="n">
-        <v>27.8666666666667</v>
+        <v>28.06</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,7 +3790,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>26.8</v>
+        <v>27.9</v>
       </c>
       <c r="C91" t="n">
         <v>27.9</v>
@@ -3557,13 +3799,13 @@
         <v>27.9</v>
       </c>
       <c r="E91" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="F91" t="n">
-        <v>40010</v>
+        <v>80</v>
       </c>
       <c r="G91" t="n">
-        <v>27.8666666666667</v>
+        <v>28.08</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3586,19 +3828,19 @@
         <v>26.8</v>
       </c>
       <c r="C92" t="n">
-        <v>26.3</v>
+        <v>27.9</v>
       </c>
       <c r="D92" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E92" t="n">
         <v>26.8</v>
       </c>
-      <c r="E92" t="n">
-        <v>26.3</v>
-      </c>
       <c r="F92" t="n">
-        <v>199200.8637</v>
+        <v>40010</v>
       </c>
       <c r="G92" t="n">
-        <v>27.3666666666667</v>
+        <v>28.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3860,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="C93" t="n">
-        <v>27.7</v>
+        <v>26.3</v>
       </c>
       <c r="D93" t="n">
-        <v>27.7</v>
+        <v>26.8</v>
       </c>
       <c r="E93" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="F93" t="n">
-        <v>3467.7132</v>
+        <v>199200.8637</v>
       </c>
       <c r="G93" t="n">
-        <v>27.30000000000004</v>
+        <v>28.09</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3895,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>27.4</v>
+        <v>26.4</v>
       </c>
       <c r="C94" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="D94" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="E94" t="n">
-        <v>27.4</v>
+        <v>26.4</v>
       </c>
       <c r="F94" t="n">
-        <v>6094.27</v>
+        <v>3467.7132</v>
       </c>
       <c r="G94" t="n">
-        <v>27.13333333333337</v>
+        <v>28.10166666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3930,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>26.4</v>
+        <v>27.4</v>
       </c>
       <c r="C95" t="n">
-        <v>26</v>
+        <v>27.4</v>
       </c>
       <c r="D95" t="n">
-        <v>26.4</v>
+        <v>27.4</v>
       </c>
       <c r="E95" t="n">
-        <v>26</v>
+        <v>27.4</v>
       </c>
       <c r="F95" t="n">
-        <v>160115.8836</v>
+        <v>6094.27</v>
       </c>
       <c r="G95" t="n">
-        <v>27.03333333333337</v>
+        <v>28.09</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3965,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>27.3</v>
+        <v>26.4</v>
       </c>
       <c r="C96" t="n">
-        <v>26.9</v>
+        <v>26</v>
       </c>
       <c r="D96" t="n">
-        <v>27.3</v>
+        <v>26.4</v>
       </c>
       <c r="E96" t="n">
         <v>26</v>
       </c>
       <c r="F96" t="n">
-        <v>213721.6489</v>
+        <v>160115.8836</v>
       </c>
       <c r="G96" t="n">
-        <v>26.7666666666667</v>
+        <v>28.055</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +4000,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>26.1</v>
+        <v>27.3</v>
       </c>
       <c r="C97" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="D97" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E97" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="F97" t="n">
-        <v>4607.2653</v>
+        <v>213721.6489</v>
       </c>
       <c r="G97" t="n">
-        <v>26.70000000000003</v>
+        <v>28.03333333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,7 +4035,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="C98" t="n">
         <v>27.2</v>
@@ -3802,13 +4044,13 @@
         <v>27.2</v>
       </c>
       <c r="E98" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="F98" t="n">
-        <v>11177.5563</v>
+        <v>4607.2653</v>
       </c>
       <c r="G98" t="n">
-        <v>27.10000000000004</v>
+        <v>28.01666666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3831,32 +4073,28 @@
         <v>26.3</v>
       </c>
       <c r="C99" t="n">
-        <v>26.3</v>
+        <v>27.2</v>
       </c>
       <c r="D99" t="n">
-        <v>26.3</v>
+        <v>27.2</v>
       </c>
       <c r="E99" t="n">
         <v>26.3</v>
       </c>
       <c r="F99" t="n">
-        <v>11728.8442</v>
+        <v>11177.5563</v>
       </c>
       <c r="G99" t="n">
-        <v>26.90000000000003</v>
+        <v>28.01666666666667</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K99" t="n">
-        <v>27.2</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
@@ -3867,40 +4105,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="C100" t="n">
         <v>26.3</v>
       </c>
       <c r="D100" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="E100" t="n">
         <v>26.3</v>
       </c>
       <c r="F100" t="n">
-        <v>5104.3689</v>
+        <v>11728.8442</v>
       </c>
       <c r="G100" t="n">
-        <v>26.60000000000003</v>
+        <v>27.995</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K100" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3910,40 +4140,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="C101" t="n">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="D101" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="E101" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="F101" t="n">
-        <v>22</v>
+        <v>5104.3689</v>
       </c>
       <c r="G101" t="n">
-        <v>26.53333333333336</v>
+        <v>27.96500000000001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K101" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3953,40 +4175,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="C102" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="D102" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="E102" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="F102" t="n">
-        <v>7347</v>
+        <v>22</v>
       </c>
       <c r="G102" t="n">
-        <v>26.83333333333337</v>
+        <v>27.96500000000001</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>27</v>
-      </c>
-      <c r="K102" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3996,40 +4210,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="C103" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="D103" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="E103" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="F103" t="n">
-        <v>6281</v>
+        <v>7347</v>
       </c>
       <c r="G103" t="n">
-        <v>27.03333333333336</v>
+        <v>27.96333333333334</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K103" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4039,22 +4245,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="C104" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="D104" t="n">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="E104" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="F104" t="n">
-        <v>32662.1649</v>
+        <v>6281</v>
       </c>
       <c r="G104" t="n">
-        <v>26.8666666666667</v>
+        <v>27.95166666666668</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4063,14 +4269,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4080,22 +4280,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="C105" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="D105" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="E105" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="F105" t="n">
-        <v>2288</v>
+        <v>32662.1649</v>
       </c>
       <c r="G105" t="n">
-        <v>26.70000000000003</v>
+        <v>27.92666666666668</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4104,14 +4304,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4121,22 +4315,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="C106" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="D106" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="E106" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="F106" t="n">
-        <v>4623.5831</v>
+        <v>2288</v>
       </c>
       <c r="G106" t="n">
-        <v>26.60000000000003</v>
+        <v>27.91000000000001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4145,14 +4339,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4162,22 +4350,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="C107" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="D107" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="E107" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="F107" t="n">
-        <v>11139.6374</v>
+        <v>4623.5831</v>
       </c>
       <c r="G107" t="n">
-        <v>26.53333333333336</v>
+        <v>27.89000000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4186,14 +4374,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4203,22 +4385,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="C108" t="n">
         <v>26.3</v>
       </c>
       <c r="D108" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="E108" t="n">
         <v>26.3</v>
       </c>
       <c r="F108" t="n">
-        <v>837.9124</v>
+        <v>11139.6374</v>
       </c>
       <c r="G108" t="n">
-        <v>26.40000000000003</v>
+        <v>27.86666666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4227,14 +4409,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4244,22 +4420,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="C109" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="D109" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="E109" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="F109" t="n">
-        <v>11</v>
+        <v>837.9124</v>
       </c>
       <c r="G109" t="n">
-        <v>26.50000000000003</v>
+        <v>27.83833333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4268,14 +4444,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4285,7 +4455,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>26.3</v>
+        <v>26.9</v>
       </c>
       <c r="C110" t="n">
         <v>26.9</v>
@@ -4294,13 +4464,13 @@
         <v>26.9</v>
       </c>
       <c r="E110" t="n">
-        <v>26.2</v>
+        <v>26.9</v>
       </c>
       <c r="F110" t="n">
-        <v>4832.9573</v>
+        <v>11</v>
       </c>
       <c r="G110" t="n">
-        <v>26.70000000000003</v>
+        <v>27.81833333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4309,14 +4479,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4326,22 +4490,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C111" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D111" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E111" t="n">
         <v>26.2</v>
       </c>
-      <c r="C111" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D111" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E111" t="n">
-        <v>26.1</v>
-      </c>
       <c r="F111" t="n">
-        <v>29222.2723</v>
+        <v>4832.9573</v>
       </c>
       <c r="G111" t="n">
-        <v>26.63333333333337</v>
+        <v>27.78166666666668</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4350,14 +4514,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4367,22 +4525,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C112" t="n">
         <v>26.1</v>
       </c>
-      <c r="C112" t="n">
-        <v>26.7</v>
-      </c>
       <c r="D112" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="E112" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="F112" t="n">
-        <v>29233.2723</v>
+        <v>29222.2723</v>
       </c>
       <c r="G112" t="n">
-        <v>26.5666666666667</v>
+        <v>27.72333333333335</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4391,14 +4549,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4408,22 +4560,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="C113" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="D113" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="E113" t="n">
-        <v>26.6</v>
+        <v>25.9</v>
       </c>
       <c r="F113" t="n">
-        <v>47856.9107</v>
+        <v>29233.2723</v>
       </c>
       <c r="G113" t="n">
-        <v>26.63333333333336</v>
+        <v>27.67833333333335</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4432,14 +4584,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4449,22 +4595,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="C114" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="D114" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="E114" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="F114" t="n">
-        <v>5724.409</v>
+        <v>47856.9107</v>
       </c>
       <c r="G114" t="n">
-        <v>26.90000000000003</v>
+        <v>27.63833333333334</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4473,14 +4619,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4493,19 +4633,19 @@
         <v>26.4</v>
       </c>
       <c r="C115" t="n">
-        <v>26.4</v>
+        <v>26.9</v>
       </c>
       <c r="D115" t="n">
-        <v>26.4</v>
+        <v>26.9</v>
       </c>
       <c r="E115" t="n">
         <v>26.4</v>
       </c>
       <c r="F115" t="n">
-        <v>17351.8087</v>
+        <v>5724.409</v>
       </c>
       <c r="G115" t="n">
-        <v>26.80000000000004</v>
+        <v>27.61000000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4514,14 +4654,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4531,22 +4665,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="C116" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="D116" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="E116" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="F116" t="n">
-        <v>11</v>
+        <v>17351.8087</v>
       </c>
       <c r="G116" t="n">
-        <v>26.60000000000003</v>
+        <v>27.56166666666668</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4555,14 +4689,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4572,22 +4700,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="C117" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="D117" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="E117" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="F117" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G117" t="n">
-        <v>26.53333333333337</v>
+        <v>27.51166666666668</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4596,14 +4724,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4613,39 +4735,68 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C118" t="n">
         <v>26.7</v>
-      </c>
-      <c r="C118" t="n">
-        <v>26.6</v>
       </c>
       <c r="D118" t="n">
         <v>26.7</v>
       </c>
       <c r="E118" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F118" t="n">
+        <v>22</v>
+      </c>
+      <c r="G118" t="n">
+        <v>27.49166666666668</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C119" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D119" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E119" t="n">
         <v>26.1</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>10528.9406</v>
       </c>
-      <c r="G118" t="n">
-        <v>26.60000000000003</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="G119" t="n">
+        <v>27.45833333333335</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-31 BackTest CHR.xlsx
+++ b/BackTest/2019-10-31 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28.7</v>
+        <v>29.8</v>
       </c>
       <c r="C2" t="n">
-        <v>28.5</v>
+        <v>29.8</v>
       </c>
       <c r="D2" t="n">
-        <v>29.2</v>
+        <v>29.8</v>
       </c>
       <c r="E2" t="n">
-        <v>28.5</v>
+        <v>29.8</v>
       </c>
       <c r="F2" t="n">
-        <v>48993.2445</v>
+        <v>329985.46293757</v>
       </c>
       <c r="G2" t="n">
-        <v>29.17999999999999</v>
+        <v>3151274.63283182</v>
       </c>
       <c r="H2" t="n">
-        <v>28.40500000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29.1</v>
+        <v>29.8</v>
       </c>
       <c r="C3" t="n">
-        <v>28.5</v>
+        <v>29.8</v>
       </c>
       <c r="D3" t="n">
-        <v>29.1</v>
+        <v>29.8</v>
       </c>
       <c r="E3" t="n">
-        <v>28.5</v>
+        <v>29.8</v>
       </c>
       <c r="F3" t="n">
-        <v>29069.7728</v>
+        <v>253707.9194</v>
       </c>
       <c r="G3" t="n">
-        <v>29.12666666666665</v>
+        <v>3151274.63283182</v>
       </c>
       <c r="H3" t="n">
-        <v>28.44166666666668</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28.3</v>
+        <v>29.8</v>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>29.8</v>
       </c>
       <c r="D4" t="n">
-        <v>28.3</v>
+        <v>29.8</v>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
+        <v>29.8</v>
       </c>
       <c r="F4" t="n">
-        <v>1860.571</v>
+        <v>833364.70086243</v>
       </c>
       <c r="G4" t="n">
-        <v>29.01999999999999</v>
+        <v>3151274.63283182</v>
       </c>
       <c r="H4" t="n">
-        <v>28.47333333333335</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.8</v>
+        <v>29.8</v>
       </c>
       <c r="C5" t="n">
-        <v>28.6</v>
+        <v>29.8</v>
       </c>
       <c r="D5" t="n">
-        <v>28.6</v>
+        <v>29.8</v>
       </c>
       <c r="E5" t="n">
-        <v>27.8</v>
+        <v>29.8</v>
       </c>
       <c r="F5" t="n">
-        <v>8516.968000000001</v>
+        <v>820714.19973757</v>
       </c>
       <c r="G5" t="n">
-        <v>28.97333333333332</v>
+        <v>3151274.63283182</v>
       </c>
       <c r="H5" t="n">
-        <v>28.51666666666668</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>28.1</v>
+        <v>29.8</v>
       </c>
       <c r="C6" t="n">
-        <v>28.3</v>
+        <v>29.6</v>
       </c>
       <c r="D6" t="n">
-        <v>28.3</v>
+        <v>29.8</v>
       </c>
       <c r="E6" t="n">
-        <v>28.1</v>
+        <v>29</v>
       </c>
       <c r="F6" t="n">
-        <v>5277.0462</v>
+        <v>361076.2527</v>
       </c>
       <c r="G6" t="n">
-        <v>28.90666666666665</v>
+        <v>2790198.38013182</v>
       </c>
       <c r="H6" t="n">
-        <v>28.53666666666668</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>28.6</v>
+        <v>29.6</v>
       </c>
       <c r="D7" t="n">
-        <v>28.6</v>
+        <v>29.6</v>
       </c>
       <c r="E7" t="n">
-        <v>28.6</v>
+        <v>27.5</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>280211.1429</v>
       </c>
       <c r="G7" t="n">
-        <v>28.83999999999999</v>
+        <v>2790198.38013182</v>
       </c>
       <c r="H7" t="n">
-        <v>28.56500000000001</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28</v>
+        <v>29.5</v>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>29.8</v>
       </c>
       <c r="D8" t="n">
-        <v>28</v>
+        <v>29.8</v>
       </c>
       <c r="E8" t="n">
-        <v>28</v>
+        <v>29.5</v>
       </c>
       <c r="F8" t="n">
-        <v>3008.2163</v>
+        <v>415845.4026</v>
       </c>
       <c r="G8" t="n">
-        <v>28.75999999999999</v>
+        <v>3206043.78273182</v>
       </c>
       <c r="H8" t="n">
-        <v>28.58500000000001</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.9</v>
+        <v>28.8</v>
       </c>
       <c r="C9" t="n">
-        <v>28</v>
+        <v>29.8</v>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>29.8</v>
       </c>
       <c r="E9" t="n">
-        <v>27.9</v>
+        <v>28.7</v>
       </c>
       <c r="F9" t="n">
-        <v>270.8249</v>
+        <v>706153.3897000001</v>
       </c>
       <c r="G9" t="n">
-        <v>28.69999999999999</v>
+        <v>3206043.78273182</v>
       </c>
       <c r="H9" t="n">
-        <v>28.61833333333334</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.9</v>
+        <v>29.7</v>
       </c>
       <c r="C10" t="n">
-        <v>27.9</v>
+        <v>29.7</v>
       </c>
       <c r="D10" t="n">
-        <v>27.9</v>
+        <v>29.7</v>
       </c>
       <c r="E10" t="n">
-        <v>27.9</v>
+        <v>29.7</v>
       </c>
       <c r="F10" t="n">
-        <v>4355.198</v>
+        <v>54576.7003</v>
       </c>
       <c r="G10" t="n">
-        <v>28.62666666666665</v>
+        <v>3151467.08243182</v>
       </c>
       <c r="H10" t="n">
-        <v>28.63333333333334</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27.8</v>
+        <v>29.1</v>
       </c>
       <c r="C11" t="n">
-        <v>28</v>
+        <v>29.1</v>
       </c>
       <c r="D11" t="n">
-        <v>28</v>
+        <v>29.1</v>
       </c>
       <c r="E11" t="n">
-        <v>27.7</v>
+        <v>29.1</v>
       </c>
       <c r="F11" t="n">
-        <v>38439.7858</v>
+        <v>19525.0971</v>
       </c>
       <c r="G11" t="n">
-        <v>28.56666666666666</v>
+        <v>3131941.98533182</v>
       </c>
       <c r="H11" t="n">
-        <v>28.64666666666668</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>27.8</v>
+        <v>29.1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.8</v>
+        <v>29.7</v>
       </c>
       <c r="D12" t="n">
-        <v>27.8</v>
+        <v>29.7</v>
       </c>
       <c r="E12" t="n">
-        <v>27.8</v>
+        <v>29</v>
       </c>
       <c r="F12" t="n">
-        <v>72053.5961</v>
+        <v>706909.2486</v>
       </c>
       <c r="G12" t="n">
-        <v>28.49333333333333</v>
+        <v>3838851.23393182</v>
       </c>
       <c r="H12" t="n">
-        <v>28.65500000000001</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27.6</v>
+        <v>28.5</v>
       </c>
       <c r="C13" t="n">
-        <v>27.6</v>
+        <v>28.4</v>
       </c>
       <c r="D13" t="n">
-        <v>27.6</v>
+        <v>28.5</v>
       </c>
       <c r="E13" t="n">
-        <v>27.6</v>
+        <v>28.4</v>
       </c>
       <c r="F13" t="n">
-        <v>1671.4815</v>
+        <v>10749.2228</v>
       </c>
       <c r="G13" t="n">
-        <v>28.36666666666666</v>
+        <v>3828102.01113182</v>
       </c>
       <c r="H13" t="n">
-        <v>28.65666666666668</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.5</v>
+        <v>29.5</v>
       </c>
       <c r="C14" t="n">
-        <v>27.8</v>
+        <v>29.7</v>
       </c>
       <c r="D14" t="n">
-        <v>27.8</v>
+        <v>29.7</v>
       </c>
       <c r="E14" t="n">
-        <v>27.5</v>
+        <v>29.5</v>
       </c>
       <c r="F14" t="n">
-        <v>2096.7127</v>
+        <v>293052.5589</v>
       </c>
       <c r="G14" t="n">
-        <v>28.25999999999999</v>
+        <v>4121154.57003182</v>
       </c>
       <c r="H14" t="n">
-        <v>28.66000000000001</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27.8</v>
+        <v>28.8</v>
       </c>
       <c r="C15" t="n">
-        <v>27.8</v>
+        <v>28.8</v>
       </c>
       <c r="D15" t="n">
-        <v>27.8</v>
+        <v>29.7</v>
       </c>
       <c r="E15" t="n">
-        <v>27.8</v>
+        <v>28.7</v>
       </c>
       <c r="F15" t="n">
-        <v>47</v>
+        <v>221889.8468</v>
       </c>
       <c r="G15" t="n">
-        <v>28.18666666666666</v>
+        <v>3899264.72323182</v>
       </c>
       <c r="H15" t="n">
-        <v>28.67833333333334</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>27.6</v>
+        <v>28.9</v>
       </c>
       <c r="C16" t="n">
-        <v>27.6</v>
+        <v>29.3</v>
       </c>
       <c r="D16" t="n">
-        <v>27.6</v>
+        <v>29.6</v>
       </c>
       <c r="E16" t="n">
-        <v>27.6</v>
+        <v>28.8</v>
       </c>
       <c r="F16" t="n">
-        <v>1613.4815</v>
+        <v>156058.3309</v>
       </c>
       <c r="G16" t="n">
-        <v>28.06666666666667</v>
+        <v>4055323.05413182</v>
       </c>
       <c r="H16" t="n">
-        <v>28.69333333333334</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27.6</v>
+        <v>29.3</v>
       </c>
       <c r="C17" t="n">
-        <v>27.6</v>
+        <v>29.3</v>
       </c>
       <c r="D17" t="n">
-        <v>27.6</v>
+        <v>29.7</v>
       </c>
       <c r="E17" t="n">
-        <v>27.6</v>
+        <v>29.3</v>
       </c>
       <c r="F17" t="n">
-        <v>4132.3492</v>
+        <v>191961.522</v>
       </c>
       <c r="G17" t="n">
-        <v>28.00666666666667</v>
+        <v>4055323.05413182</v>
       </c>
       <c r="H17" t="n">
-        <v>28.70833333333334</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>27.8</v>
+        <v>29.6</v>
       </c>
       <c r="C18" t="n">
-        <v>27.8</v>
+        <v>29.6</v>
       </c>
       <c r="D18" t="n">
-        <v>27.8</v>
+        <v>29.7</v>
       </c>
       <c r="E18" t="n">
-        <v>27.8</v>
+        <v>29.6</v>
       </c>
       <c r="F18" t="n">
-        <v>11</v>
+        <v>71471.9932</v>
       </c>
       <c r="G18" t="n">
-        <v>27.96</v>
+        <v>4126795.04733182</v>
       </c>
       <c r="H18" t="n">
-        <v>28.71833333333334</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>27.8</v>
+        <v>29.3</v>
       </c>
       <c r="C19" t="n">
-        <v>27.8</v>
+        <v>29.3</v>
       </c>
       <c r="D19" t="n">
-        <v>27.8</v>
+        <v>29.3</v>
       </c>
       <c r="E19" t="n">
-        <v>27.8</v>
+        <v>29.3</v>
       </c>
       <c r="F19" t="n">
-        <v>5814.964</v>
+        <v>1204.6668</v>
       </c>
       <c r="G19" t="n">
-        <v>27.94666666666667</v>
+        <v>4125590.38053182</v>
       </c>
       <c r="H19" t="n">
-        <v>28.73166666666667</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27.5</v>
+        <v>29.3</v>
       </c>
       <c r="C20" t="n">
-        <v>27.8</v>
+        <v>29.3</v>
       </c>
       <c r="D20" t="n">
-        <v>27.8</v>
+        <v>29.3</v>
       </c>
       <c r="E20" t="n">
-        <v>27.5</v>
+        <v>29.3</v>
       </c>
       <c r="F20" t="n">
-        <v>540.4498</v>
+        <v>4049.1099</v>
       </c>
       <c r="G20" t="n">
-        <v>27.89333333333333</v>
+        <v>4125590.38053182</v>
       </c>
       <c r="H20" t="n">
-        <v>28.75166666666667</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27.8</v>
+        <v>28.9</v>
       </c>
       <c r="C21" t="n">
-        <v>28.6</v>
+        <v>29.6</v>
       </c>
       <c r="D21" t="n">
-        <v>28.6</v>
+        <v>29.6</v>
       </c>
       <c r="E21" t="n">
-        <v>27.8</v>
+        <v>28.9</v>
       </c>
       <c r="F21" t="n">
-        <v>983.21678321</v>
+        <v>340278.948</v>
       </c>
       <c r="G21" t="n">
-        <v>27.91333333333334</v>
+        <v>4465869.32853182</v>
       </c>
       <c r="H21" t="n">
-        <v>28.77333333333333</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>27.5</v>
+        <v>29</v>
       </c>
       <c r="C22" t="n">
-        <v>27.3</v>
+        <v>29.2</v>
       </c>
       <c r="D22" t="n">
-        <v>27.5</v>
+        <v>29.2</v>
       </c>
       <c r="E22" t="n">
-        <v>27.3</v>
+        <v>28.9</v>
       </c>
       <c r="F22" t="n">
-        <v>28256.0736</v>
+        <v>17931.9108</v>
       </c>
       <c r="G22" t="n">
-        <v>27.82666666666667</v>
+        <v>4447937.417731821</v>
       </c>
       <c r="H22" t="n">
-        <v>28.76833333333333</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27.7</v>
+        <v>29</v>
       </c>
       <c r="C23" t="n">
-        <v>27.7</v>
+        <v>28.9</v>
       </c>
       <c r="D23" t="n">
-        <v>27.7</v>
+        <v>29</v>
       </c>
       <c r="E23" t="n">
-        <v>27.7</v>
+        <v>28.9</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>2789.6178</v>
       </c>
       <c r="G23" t="n">
-        <v>27.80666666666667</v>
+        <v>4445147.79993182</v>
       </c>
       <c r="H23" t="n">
-        <v>28.77</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="C24" t="n">
-        <v>28.3</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>28.3</v>
+        <v>29</v>
       </c>
       <c r="E24" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>30949.623</v>
       </c>
       <c r="G24" t="n">
-        <v>27.82666666666667</v>
+        <v>4476097.42293182</v>
       </c>
       <c r="H24" t="n">
-        <v>28.78</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>27.5</v>
+        <v>28.6</v>
       </c>
       <c r="C25" t="n">
-        <v>28.2</v>
+        <v>28.9</v>
       </c>
       <c r="D25" t="n">
-        <v>28.2</v>
+        <v>28.9</v>
       </c>
       <c r="E25" t="n">
-        <v>27.3</v>
+        <v>28.5</v>
       </c>
       <c r="F25" t="n">
-        <v>51828.5707</v>
+        <v>29478.8686</v>
       </c>
       <c r="G25" t="n">
-        <v>27.84666666666667</v>
+        <v>4446618.55433182</v>
       </c>
       <c r="H25" t="n">
-        <v>28.78833333333334</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>27.6</v>
+        <v>28.6</v>
       </c>
       <c r="C26" t="n">
-        <v>27.6</v>
+        <v>28.9</v>
       </c>
       <c r="D26" t="n">
-        <v>27.6</v>
+        <v>28.9</v>
       </c>
       <c r="E26" t="n">
-        <v>27.6</v>
+        <v>28.5</v>
       </c>
       <c r="F26" t="n">
-        <v>2082.4772</v>
+        <v>8679.2665</v>
       </c>
       <c r="G26" t="n">
-        <v>27.82</v>
+        <v>4446618.55433182</v>
       </c>
       <c r="H26" t="n">
-        <v>28.78666666666667</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>27.6</v>
+        <v>28.5</v>
       </c>
       <c r="C27" t="n">
-        <v>27.6</v>
+        <v>29.5</v>
       </c>
       <c r="D27" t="n">
-        <v>27.6</v>
+        <v>29.5</v>
       </c>
       <c r="E27" t="n">
-        <v>27.6</v>
+        <v>28.5</v>
       </c>
       <c r="F27" t="n">
-        <v>917.5228</v>
+        <v>26480.7132</v>
       </c>
       <c r="G27" t="n">
-        <v>27.80666666666667</v>
+        <v>4473099.267531821</v>
       </c>
       <c r="H27" t="n">
-        <v>28.785</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>27.3</v>
+        <v>29.4</v>
       </c>
       <c r="C28" t="n">
-        <v>27.3</v>
+        <v>29.4</v>
       </c>
       <c r="D28" t="n">
-        <v>27.3</v>
+        <v>29.4</v>
       </c>
       <c r="E28" t="n">
-        <v>27.3</v>
+        <v>29.4</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>9493.2312</v>
       </c>
       <c r="G28" t="n">
-        <v>27.78666666666667</v>
+        <v>4463606.03633182</v>
       </c>
       <c r="H28" t="n">
-        <v>28.75</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27.4</v>
+        <v>28.9</v>
       </c>
       <c r="C29" t="n">
-        <v>26.6</v>
+        <v>28.9</v>
       </c>
       <c r="D29" t="n">
-        <v>27.4</v>
+        <v>28.9</v>
       </c>
       <c r="E29" t="n">
-        <v>26.6</v>
+        <v>28.9</v>
       </c>
       <c r="F29" t="n">
-        <v>248260.9812</v>
+        <v>18.2197</v>
       </c>
       <c r="G29" t="n">
-        <v>27.70666666666667</v>
+        <v>4463587.81663182</v>
       </c>
       <c r="H29" t="n">
-        <v>28.70333333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>27.3</v>
+        <v>28.7</v>
       </c>
       <c r="C30" t="n">
-        <v>27.3</v>
+        <v>29.4</v>
       </c>
       <c r="D30" t="n">
-        <v>27.3</v>
+        <v>29.4</v>
       </c>
       <c r="E30" t="n">
-        <v>27.3</v>
+        <v>28.6</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>4066.8893</v>
       </c>
       <c r="G30" t="n">
-        <v>27.67333333333334</v>
+        <v>4467654.70593182</v>
       </c>
       <c r="H30" t="n">
-        <v>28.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>27.1</v>
+        <v>28.7</v>
       </c>
       <c r="C31" t="n">
-        <v>26.7</v>
+        <v>28.5</v>
       </c>
       <c r="D31" t="n">
-        <v>27.1</v>
+        <v>29.2</v>
       </c>
       <c r="E31" t="n">
-        <v>26.7</v>
+        <v>28.5</v>
       </c>
       <c r="F31" t="n">
-        <v>13799.9862</v>
+        <v>48993.2445</v>
       </c>
       <c r="G31" t="n">
-        <v>27.61333333333334</v>
+        <v>4418661.46143182</v>
       </c>
       <c r="H31" t="n">
-        <v>28.61499999999999</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>26.9</v>
+        <v>29.1</v>
       </c>
       <c r="C32" t="n">
-        <v>26.7</v>
+        <v>28.5</v>
       </c>
       <c r="D32" t="n">
-        <v>27.3</v>
+        <v>29.1</v>
       </c>
       <c r="E32" t="n">
-        <v>26.7</v>
+        <v>28.5</v>
       </c>
       <c r="F32" t="n">
-        <v>7037.1287</v>
+        <v>29069.7728</v>
       </c>
       <c r="G32" t="n">
-        <v>27.55333333333333</v>
+        <v>4418661.46143182</v>
       </c>
       <c r="H32" t="n">
-        <v>28.56333333333333</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>26.7</v>
+        <v>28.3</v>
       </c>
       <c r="C33" t="n">
-        <v>26.9</v>
+        <v>28</v>
       </c>
       <c r="D33" t="n">
-        <v>27.1</v>
+        <v>28.3</v>
       </c>
       <c r="E33" t="n">
-        <v>26.7</v>
+        <v>28</v>
       </c>
       <c r="F33" t="n">
-        <v>15502.2939</v>
+        <v>1860.571</v>
       </c>
       <c r="G33" t="n">
-        <v>27.49333333333333</v>
+        <v>4416800.890431819</v>
       </c>
       <c r="H33" t="n">
-        <v>28.515</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>26.7</v>
+        <v>27.8</v>
       </c>
       <c r="C34" t="n">
-        <v>27</v>
+        <v>28.6</v>
       </c>
       <c r="D34" t="n">
-        <v>27</v>
+        <v>28.6</v>
       </c>
       <c r="E34" t="n">
-        <v>26.7</v>
+        <v>27.8</v>
       </c>
       <c r="F34" t="n">
-        <v>3809.9863</v>
+        <v>8516.968000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>27.44</v>
+        <v>4425317.85843182</v>
       </c>
       <c r="H34" t="n">
-        <v>28.46833333333333</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>26.9</v>
+        <v>28.1</v>
       </c>
       <c r="C35" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E35" t="n">
         <v>28.1</v>
       </c>
-      <c r="D35" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="E35" t="n">
-        <v>26.9</v>
-      </c>
       <c r="F35" t="n">
-        <v>308482.332</v>
+        <v>5277.0462</v>
       </c>
       <c r="G35" t="n">
-        <v>27.46</v>
+        <v>4420040.81223182</v>
       </c>
       <c r="H35" t="n">
-        <v>28.44</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>28.1</v>
+        <v>28.6</v>
       </c>
       <c r="C36" t="n">
-        <v>28.1</v>
+        <v>28.6</v>
       </c>
       <c r="D36" t="n">
-        <v>28.1</v>
+        <v>28.6</v>
       </c>
       <c r="E36" t="n">
-        <v>28.1</v>
+        <v>28.6</v>
       </c>
       <c r="F36" t="n">
-        <v>42835.8932</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>27.42666666666667</v>
+        <v>4420050.81223182</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41166666666667</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1771,33 +1661,30 @@
         <v>28</v>
       </c>
       <c r="C37" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="D37" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="E37" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="F37" t="n">
-        <v>6358.5073</v>
+        <v>3008.2163</v>
       </c>
       <c r="G37" t="n">
-        <v>27.48666666666666</v>
+        <v>4417042.59593182</v>
       </c>
       <c r="H37" t="n">
-        <v>28.38833333333333</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="C38" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="D38" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="E38" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="F38" t="n">
-        <v>52.1428</v>
+        <v>270.8249</v>
       </c>
       <c r="G38" t="n">
-        <v>27.52</v>
+        <v>4417042.59593182</v>
       </c>
       <c r="H38" t="n">
-        <v>28.365</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="C39" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="D39" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="E39" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="F39" t="n">
-        <v>16458.6822</v>
+        <v>4355.198</v>
       </c>
       <c r="G39" t="n">
-        <v>27.44666666666666</v>
+        <v>4412687.39793182</v>
       </c>
       <c r="H39" t="n">
-        <v>28.32166666666667</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="C40" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="D40" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="E40" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F40" t="n">
-        <v>14688.7681</v>
+        <v>38439.7858</v>
       </c>
       <c r="G40" t="n">
-        <v>27.40666666666666</v>
+        <v>4451127.18373182</v>
       </c>
       <c r="H40" t="n">
-        <v>28.285</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="C41" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="D41" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="E41" t="n">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="F41" t="n">
-        <v>45.97</v>
+        <v>72053.5961</v>
       </c>
       <c r="G41" t="n">
-        <v>27.44</v>
+        <v>4379073.58763182</v>
       </c>
       <c r="H41" t="n">
-        <v>28.25833333333333</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+        <v>28</v>
+      </c>
+      <c r="K41" t="n">
+        <v>28</v>
+      </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1837,41 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>27</v>
+        <v>27.6</v>
       </c>
       <c r="C42" t="n">
-        <v>27</v>
+        <v>27.6</v>
       </c>
       <c r="D42" t="n">
-        <v>27</v>
+        <v>27.6</v>
       </c>
       <c r="E42" t="n">
-        <v>27</v>
+        <v>27.6</v>
       </c>
       <c r="F42" t="n">
-        <v>20000</v>
+        <v>1671.4815</v>
       </c>
       <c r="G42" t="n">
-        <v>27.4</v>
+        <v>4377402.10613182</v>
       </c>
       <c r="H42" t="n">
-        <v>28.22333333333334</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K42" t="n">
+        <v>28</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1880,41 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="C43" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="D43" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="E43" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>2096.7127</v>
       </c>
       <c r="G43" t="n">
-        <v>27.4</v>
+        <v>4379498.81883182</v>
       </c>
       <c r="H43" t="n">
-        <v>28.18333333333333</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="K43" t="n">
+        <v>28</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1923,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C44" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="D44" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E44" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="G44" t="n">
-        <v>27.46666666666666</v>
+        <v>4379498.81883182</v>
       </c>
       <c r="H44" t="n">
-        <v>28.17</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>28</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2075,33 +1967,36 @@
         <v>27.6</v>
       </c>
       <c r="C45" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="D45" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="E45" t="n">
         <v>27.6</v>
       </c>
       <c r="F45" t="n">
-        <v>392.8571</v>
+        <v>1613.4815</v>
       </c>
       <c r="G45" t="n">
-        <v>27.51333333333333</v>
+        <v>4377885.33733182</v>
       </c>
       <c r="H45" t="n">
-        <v>28.14166666666666</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>28</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2005,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C46" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D46" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E46" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F46" t="n">
-        <v>12748.072</v>
+        <v>4132.3492</v>
       </c>
       <c r="G46" t="n">
-        <v>27.57999999999999</v>
+        <v>4377885.33733182</v>
       </c>
       <c r="H46" t="n">
-        <v>28.12333333333333</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>28</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2160,24 +2058,27 @@
         <v>27.8</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G47" t="n">
-        <v>27.65333333333333</v>
+        <v>4377896.33733182</v>
       </c>
       <c r="H47" t="n">
-        <v>28.09833333333333</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>28</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2087,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C48" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D48" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E48" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F48" t="n">
-        <v>1152.5736</v>
+        <v>5814.964</v>
       </c>
       <c r="G48" t="n">
-        <v>27.70666666666666</v>
+        <v>4377896.33733182</v>
       </c>
       <c r="H48" t="n">
-        <v>28.07166666666667</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>28</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2128,41 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="C49" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="D49" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="E49" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="F49" t="n">
-        <v>442</v>
+        <v>540.4498</v>
       </c>
       <c r="G49" t="n">
-        <v>27.77333333333333</v>
+        <v>4377896.33733182</v>
       </c>
       <c r="H49" t="n">
-        <v>28.045</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K49" t="n">
+        <v>28</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2171,41 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="C50" t="n">
-        <v>28.1</v>
+        <v>28.6</v>
       </c>
       <c r="D50" t="n">
-        <v>28.1</v>
+        <v>28.6</v>
       </c>
       <c r="E50" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="F50" t="n">
-        <v>22673.9093</v>
+        <v>983.21678321</v>
       </c>
       <c r="G50" t="n">
-        <v>27.77333333333333</v>
+        <v>4378879.55411503</v>
       </c>
       <c r="H50" t="n">
-        <v>28.025</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K50" t="n">
+        <v>28</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2214,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>28.2</v>
+        <v>27.5</v>
       </c>
       <c r="C51" t="n">
-        <v>29.1</v>
+        <v>27.3</v>
       </c>
       <c r="D51" t="n">
-        <v>29.6</v>
+        <v>27.5</v>
       </c>
       <c r="E51" t="n">
-        <v>28.2</v>
+        <v>27.3</v>
       </c>
       <c r="F51" t="n">
-        <v>83923.245</v>
+        <v>28256.0736</v>
       </c>
       <c r="G51" t="n">
-        <v>27.84</v>
+        <v>4350623.48051503</v>
       </c>
       <c r="H51" t="n">
-        <v>28.02166666666666</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>28</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2255,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>28.5</v>
+        <v>27.7</v>
       </c>
       <c r="C52" t="n">
-        <v>29.6</v>
+        <v>27.7</v>
       </c>
       <c r="D52" t="n">
-        <v>29.6</v>
+        <v>27.7</v>
       </c>
       <c r="E52" t="n">
-        <v>28.5</v>
+        <v>27.7</v>
       </c>
       <c r="F52" t="n">
-        <v>1284.3592</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>27.93333333333333</v>
+        <v>4350633.48051503</v>
       </c>
       <c r="H52" t="n">
-        <v>28.02166666666666</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>28</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2296,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="C53" t="n">
-        <v>29.4</v>
+        <v>28.3</v>
       </c>
       <c r="D53" t="n">
-        <v>29.4</v>
+        <v>28.3</v>
       </c>
       <c r="E53" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="F53" t="n">
-        <v>1316.3512</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>28.01333333333333</v>
+        <v>4350643.48051503</v>
       </c>
       <c r="H53" t="n">
-        <v>28.025</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>28</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2337,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>29.5</v>
+        <v>27.5</v>
       </c>
       <c r="C54" t="n">
-        <v>29.5</v>
+        <v>28.2</v>
       </c>
       <c r="D54" t="n">
-        <v>29.5</v>
+        <v>28.2</v>
       </c>
       <c r="E54" t="n">
-        <v>29.5</v>
+        <v>27.3</v>
       </c>
       <c r="F54" t="n">
-        <v>16001.9321</v>
+        <v>51828.5707</v>
       </c>
       <c r="G54" t="n">
-        <v>28.16666666666667</v>
+        <v>4298814.90981503</v>
       </c>
       <c r="H54" t="n">
-        <v>28.035</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>28</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2378,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="C55" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="D55" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="E55" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="F55" t="n">
-        <v>13650.7057</v>
+        <v>2082.4772</v>
       </c>
       <c r="G55" t="n">
-        <v>28.23333333333333</v>
+        <v>4296732.432615031</v>
       </c>
       <c r="H55" t="n">
-        <v>28.02833333333333</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>28</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2419,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="C56" t="n">
-        <v>29.3</v>
+        <v>27.6</v>
       </c>
       <c r="D56" t="n">
-        <v>29.4</v>
+        <v>27.6</v>
       </c>
       <c r="E56" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="F56" t="n">
-        <v>26278.2847</v>
+        <v>917.5228</v>
       </c>
       <c r="G56" t="n">
-        <v>28.31333333333333</v>
+        <v>4296732.432615031</v>
       </c>
       <c r="H56" t="n">
-        <v>28.03499999999999</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>28</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2460,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>29.3</v>
+        <v>27.3</v>
       </c>
       <c r="C57" t="n">
-        <v>29.5</v>
+        <v>27.3</v>
       </c>
       <c r="D57" t="n">
-        <v>29.5</v>
+        <v>27.3</v>
       </c>
       <c r="E57" t="n">
-        <v>29.3</v>
+        <v>27.3</v>
       </c>
       <c r="F57" t="n">
-        <v>65605.7038</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>28.48</v>
+        <v>4296722.432615031</v>
       </c>
       <c r="H57" t="n">
-        <v>28.04499999999999</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>28</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2501,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>28.3</v>
+        <v>27.4</v>
       </c>
       <c r="C58" t="n">
-        <v>27.9</v>
+        <v>26.6</v>
       </c>
       <c r="D58" t="n">
-        <v>28.3</v>
+        <v>27.4</v>
       </c>
       <c r="E58" t="n">
-        <v>27.9</v>
+        <v>26.6</v>
       </c>
       <c r="F58" t="n">
-        <v>40845.1435</v>
+        <v>248260.9812</v>
       </c>
       <c r="G58" t="n">
-        <v>28.52</v>
+        <v>4048461.451415031</v>
       </c>
       <c r="H58" t="n">
-        <v>28.01833333333333</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>28</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2542,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="C59" t="n">
-        <v>28.6</v>
+        <v>27.3</v>
       </c>
       <c r="D59" t="n">
-        <v>29.3</v>
+        <v>27.3</v>
       </c>
       <c r="E59" t="n">
         <v>27.3</v>
       </c>
       <c r="F59" t="n">
-        <v>41147.4683</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>28.58666666666666</v>
+        <v>4048471.451415031</v>
       </c>
       <c r="H59" t="n">
-        <v>28.00499999999999</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>28</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2583,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>28.6</v>
+        <v>27.1</v>
       </c>
       <c r="C60" t="n">
-        <v>27.8</v>
+        <v>26.7</v>
       </c>
       <c r="D60" t="n">
-        <v>28.6</v>
+        <v>27.1</v>
       </c>
       <c r="E60" t="n">
-        <v>27.8</v>
+        <v>26.7</v>
       </c>
       <c r="F60" t="n">
-        <v>17092.2837</v>
+        <v>13799.9862</v>
       </c>
       <c r="G60" t="n">
-        <v>28.57333333333333</v>
+        <v>4034671.465215031</v>
       </c>
       <c r="H60" t="n">
-        <v>27.98666666666666</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>28</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2624,41 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>28.5</v>
+        <v>26.9</v>
       </c>
       <c r="C61" t="n">
-        <v>28.5</v>
+        <v>26.7</v>
       </c>
       <c r="D61" t="n">
-        <v>28.5</v>
+        <v>27.3</v>
       </c>
       <c r="E61" t="n">
-        <v>28.5</v>
+        <v>26.7</v>
       </c>
       <c r="F61" t="n">
-        <v>11</v>
+        <v>7037.1287</v>
       </c>
       <c r="G61" t="n">
-        <v>28.62666666666667</v>
+        <v>4034671.465215031</v>
       </c>
       <c r="H61" t="n">
-        <v>27.97166666666665</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K61" t="n">
+        <v>28</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2667,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>28</v>
+        <v>26.7</v>
       </c>
       <c r="C62" t="n">
-        <v>28.5</v>
+        <v>26.9</v>
       </c>
       <c r="D62" t="n">
-        <v>28.5</v>
+        <v>27.1</v>
       </c>
       <c r="E62" t="n">
-        <v>28</v>
+        <v>26.7</v>
       </c>
       <c r="F62" t="n">
-        <v>30516.0825</v>
+        <v>15502.2939</v>
       </c>
       <c r="G62" t="n">
-        <v>28.67333333333333</v>
+        <v>4050173.759115031</v>
       </c>
       <c r="H62" t="n">
-        <v>27.97166666666665</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>28</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2708,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>27.7</v>
+        <v>26.7</v>
       </c>
       <c r="C63" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="D63" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="E63" t="n">
-        <v>27.6</v>
+        <v>26.7</v>
       </c>
       <c r="F63" t="n">
-        <v>13963.8671</v>
+        <v>3809.9863</v>
       </c>
       <c r="G63" t="n">
-        <v>28.66666666666667</v>
+        <v>4053983.745415031</v>
       </c>
       <c r="H63" t="n">
-        <v>27.95666666666665</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>28</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2749,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>27.6</v>
+        <v>26.9</v>
       </c>
       <c r="C64" t="n">
-        <v>27.6</v>
+        <v>28.1</v>
       </c>
       <c r="D64" t="n">
-        <v>27.6</v>
+        <v>28.2</v>
       </c>
       <c r="E64" t="n">
-        <v>27.6</v>
+        <v>26.9</v>
       </c>
       <c r="F64" t="n">
-        <v>31907.5937</v>
+        <v>308482.332</v>
       </c>
       <c r="G64" t="n">
-        <v>28.64</v>
+        <v>4362466.07741503</v>
       </c>
       <c r="H64" t="n">
-        <v>27.94999999999999</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>28</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2790,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="C65" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="D65" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="E65" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="F65" t="n">
-        <v>28.8642</v>
+        <v>42835.8932</v>
       </c>
       <c r="G65" t="n">
-        <v>28.63333333333333</v>
+        <v>4362466.07741503</v>
       </c>
       <c r="H65" t="n">
-        <v>27.93999999999999</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>28</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2831,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="C66" t="n">
-        <v>28.6</v>
+        <v>28.2</v>
       </c>
       <c r="D66" t="n">
-        <v>28.6</v>
+        <v>28.2</v>
       </c>
       <c r="E66" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="F66" t="n">
-        <v>1486.9565</v>
+        <v>6358.5073</v>
       </c>
       <c r="G66" t="n">
-        <v>28.6</v>
+        <v>4368824.58471503</v>
       </c>
       <c r="H66" t="n">
-        <v>27.94499999999999</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>28</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2872,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="C67" t="n">
-        <v>27.6</v>
+        <v>28.2</v>
       </c>
       <c r="D67" t="n">
-        <v>27.6</v>
+        <v>28.2</v>
       </c>
       <c r="E67" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="F67" t="n">
-        <v>5441.2619</v>
+        <v>52.1428</v>
       </c>
       <c r="G67" t="n">
-        <v>28.46666666666667</v>
+        <v>4368824.58471503</v>
       </c>
       <c r="H67" t="n">
-        <v>27.92833333333332</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>28</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2913,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="C68" t="n">
-        <v>28.6</v>
+        <v>27.2</v>
       </c>
       <c r="D68" t="n">
-        <v>28.6</v>
+        <v>27.2</v>
       </c>
       <c r="E68" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F68" t="n">
-        <v>31861.0096</v>
+        <v>16458.6822</v>
       </c>
       <c r="G68" t="n">
-        <v>28.41333333333334</v>
+        <v>4352365.90251503</v>
       </c>
       <c r="H68" t="n">
-        <v>27.93833333333332</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>28</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2954,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>28.7</v>
+        <v>28.1</v>
       </c>
       <c r="C69" t="n">
-        <v>28.7</v>
+        <v>27.6</v>
       </c>
       <c r="D69" t="n">
-        <v>28.7</v>
+        <v>28.1</v>
       </c>
       <c r="E69" t="n">
-        <v>28.7</v>
+        <v>27.5</v>
       </c>
       <c r="F69" t="n">
-        <v>11</v>
+        <v>14688.7681</v>
       </c>
       <c r="G69" t="n">
-        <v>28.36</v>
+        <v>4367054.67061503</v>
       </c>
       <c r="H69" t="n">
-        <v>27.94999999999999</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>28</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2995,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="C70" t="n">
-        <v>28.6</v>
+        <v>28.1</v>
       </c>
       <c r="D70" t="n">
-        <v>28.6</v>
+        <v>28.1</v>
       </c>
       <c r="E70" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F70" t="n">
-        <v>3325.1577</v>
+        <v>45.97</v>
       </c>
       <c r="G70" t="n">
-        <v>28.36</v>
+        <v>4367100.64061503</v>
       </c>
       <c r="H70" t="n">
-        <v>27.96166666666665</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>28</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +3036,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="C71" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="D71" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="E71" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="F71" t="n">
-        <v>598.8111</v>
+        <v>20000</v>
       </c>
       <c r="G71" t="n">
-        <v>28.31333333333334</v>
+        <v>4347100.64061503</v>
       </c>
       <c r="H71" t="n">
-        <v>27.97166666666665</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>28</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +3077,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="C72" t="n">
-        <v>28.5</v>
+        <v>27.3</v>
       </c>
       <c r="D72" t="n">
-        <v>28.5</v>
+        <v>27.3</v>
       </c>
       <c r="E72" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="F72" t="n">
-        <v>2974.968</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>28.24666666666667</v>
+        <v>4347110.64061503</v>
       </c>
       <c r="H72" t="n">
-        <v>27.98333333333331</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>28</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +3118,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="C73" t="n">
-        <v>28.1</v>
+        <v>27.6</v>
       </c>
       <c r="D73" t="n">
-        <v>28.1</v>
+        <v>27.6</v>
       </c>
       <c r="E73" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="F73" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>28.26000000000001</v>
+        <v>4347120.64061503</v>
       </c>
       <c r="H73" t="n">
-        <v>27.99166666666665</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>28</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +3159,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="C74" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="D74" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="E74" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="F74" t="n">
-        <v>1381.9813</v>
+        <v>392.8571</v>
       </c>
       <c r="G74" t="n">
-        <v>28.21333333333333</v>
+        <v>4347513.49771503</v>
       </c>
       <c r="H74" t="n">
-        <v>27.99333333333332</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>28</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3200,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>28</v>
+        <v>27.4</v>
       </c>
       <c r="C75" t="n">
-        <v>28.2</v>
+        <v>27.7</v>
       </c>
       <c r="D75" t="n">
-        <v>28.2</v>
+        <v>27.7</v>
       </c>
       <c r="E75" t="n">
-        <v>28</v>
+        <v>27.4</v>
       </c>
       <c r="F75" t="n">
-        <v>21</v>
+        <v>12748.072</v>
       </c>
       <c r="G75" t="n">
-        <v>28.24</v>
+        <v>4334765.42571503</v>
       </c>
       <c r="H75" t="n">
-        <v>27.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>28</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3241,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="C76" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="D76" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="E76" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="F76" t="n">
         <v>10</v>
       </c>
       <c r="G76" t="n">
-        <v>28.22666666666667</v>
+        <v>4334775.42571503</v>
       </c>
       <c r="H76" t="n">
-        <v>28.01166666666665</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>28</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3282,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="C77" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="D77" t="n">
-        <v>28.2</v>
+        <v>27.7</v>
       </c>
       <c r="E77" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="F77" t="n">
-        <v>4293.9013</v>
+        <v>1152.5736</v>
       </c>
       <c r="G77" t="n">
-        <v>28.18666666666667</v>
+        <v>4333622.85211503</v>
       </c>
       <c r="H77" t="n">
-        <v>28.01666666666666</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>28</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3323,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C78" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="D78" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="E78" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="F78" t="n">
-        <v>34270.1896</v>
+        <v>442</v>
       </c>
       <c r="G78" t="n">
-        <v>28.19333333333333</v>
+        <v>4334064.85211503</v>
       </c>
       <c r="H78" t="n">
-        <v>28.01499999999999</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>28</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3364,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="C79" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="D79" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="E79" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="F79" t="n">
-        <v>44394.1552</v>
+        <v>22673.9093</v>
       </c>
       <c r="G79" t="n">
-        <v>28.23333333333333</v>
+        <v>4356738.761415031</v>
       </c>
       <c r="H79" t="n">
-        <v>28.02166666666666</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>28</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3405,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="C80" t="n">
-        <v>28.3</v>
+        <v>29.1</v>
       </c>
       <c r="D80" t="n">
-        <v>28.3</v>
+        <v>29.6</v>
       </c>
       <c r="E80" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>83923.245</v>
       </c>
       <c r="G80" t="n">
-        <v>28.25333333333333</v>
+        <v>4440662.006415031</v>
       </c>
       <c r="H80" t="n">
-        <v>28.02999999999999</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>28</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3446,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>27.9</v>
+        <v>28.5</v>
       </c>
       <c r="C81" t="n">
-        <v>27.9</v>
+        <v>29.6</v>
       </c>
       <c r="D81" t="n">
-        <v>27.9</v>
+        <v>29.6</v>
       </c>
       <c r="E81" t="n">
-        <v>27.9</v>
+        <v>28.5</v>
       </c>
       <c r="F81" t="n">
-        <v>2824.5874</v>
+        <v>1284.3592</v>
       </c>
       <c r="G81" t="n">
-        <v>28.20666666666666</v>
+        <v>4441946.365615031</v>
       </c>
       <c r="H81" t="n">
-        <v>28.01833333333333</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>28</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,37 +3487,40 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>27.8</v>
+        <v>28.5</v>
       </c>
       <c r="C82" t="n">
-        <v>27.8</v>
+        <v>29.4</v>
       </c>
       <c r="D82" t="n">
-        <v>27.8</v>
+        <v>29.4</v>
       </c>
       <c r="E82" t="n">
-        <v>27.8</v>
+        <v>28.5</v>
       </c>
       <c r="F82" t="n">
-        <v>7954.8972</v>
+        <v>1316.3512</v>
       </c>
       <c r="G82" t="n">
-        <v>28.21999999999999</v>
+        <v>4440630.01441503</v>
       </c>
       <c r="H82" t="n">
-        <v>28.02666666666666</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>28</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>1.045</v>
       </c>
     </row>
     <row r="83">
@@ -3516,36 +3528,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>27.8</v>
+        <v>29.5</v>
       </c>
       <c r="C83" t="n">
-        <v>28.2</v>
+        <v>29.5</v>
       </c>
       <c r="D83" t="n">
-        <v>28.2</v>
+        <v>29.5</v>
       </c>
       <c r="E83" t="n">
-        <v>27.7</v>
+        <v>29.5</v>
       </c>
       <c r="F83" t="n">
-        <v>13114.6062</v>
+        <v>16001.9321</v>
       </c>
       <c r="G83" t="n">
-        <v>28.19333333333332</v>
+        <v>4456631.94651503</v>
       </c>
       <c r="H83" t="n">
-        <v>28.03499999999999</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3563,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>27.7</v>
+        <v>28.6</v>
       </c>
       <c r="C84" t="n">
-        <v>28.1</v>
+        <v>28.6</v>
       </c>
       <c r="D84" t="n">
-        <v>28.1</v>
+        <v>28.6</v>
       </c>
       <c r="E84" t="n">
-        <v>27.7</v>
+        <v>28.6</v>
       </c>
       <c r="F84" t="n">
-        <v>34004.1239</v>
+        <v>13650.7057</v>
       </c>
       <c r="G84" t="n">
-        <v>28.15333333333333</v>
+        <v>4442981.24081503</v>
       </c>
       <c r="H84" t="n">
-        <v>28.03166666666666</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3598,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27.7</v>
+        <v>28.6</v>
       </c>
       <c r="C85" t="n">
-        <v>28</v>
+        <v>29.3</v>
       </c>
       <c r="D85" t="n">
-        <v>28</v>
+        <v>29.4</v>
       </c>
       <c r="E85" t="n">
-        <v>27.5</v>
+        <v>28.6</v>
       </c>
       <c r="F85" t="n">
-        <v>160011</v>
+        <v>26278.2847</v>
       </c>
       <c r="G85" t="n">
-        <v>28.11333333333333</v>
+        <v>4469259.52551503</v>
       </c>
       <c r="H85" t="n">
-        <v>28.02833333333333</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3633,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>27.5</v>
+        <v>29.3</v>
       </c>
       <c r="C86" t="n">
-        <v>27.5</v>
+        <v>29.5</v>
       </c>
       <c r="D86" t="n">
-        <v>27.5</v>
+        <v>29.5</v>
       </c>
       <c r="E86" t="n">
-        <v>27.5</v>
+        <v>29.3</v>
       </c>
       <c r="F86" t="n">
-        <v>5344.2333</v>
+        <v>65605.7038</v>
       </c>
       <c r="G86" t="n">
-        <v>28.03999999999999</v>
+        <v>4534865.22931503</v>
       </c>
       <c r="H86" t="n">
-        <v>28.02666666666666</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3668,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>27.8</v>
+        <v>28.3</v>
       </c>
       <c r="C87" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="D87" t="n">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
       <c r="E87" t="n">
-        <v>27.4</v>
+        <v>27.9</v>
       </c>
       <c r="F87" t="n">
-        <v>452</v>
+        <v>40845.1435</v>
       </c>
       <c r="G87" t="n">
-        <v>28.01333333333332</v>
+        <v>4494020.08581503</v>
       </c>
       <c r="H87" t="n">
-        <v>28.03499999999999</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3703,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="C88" t="n">
-        <v>27</v>
+        <v>28.6</v>
       </c>
       <c r="D88" t="n">
-        <v>27.9</v>
+        <v>29.3</v>
       </c>
       <c r="E88" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="F88" t="n">
-        <v>30139.32199068</v>
+        <v>41147.4683</v>
       </c>
       <c r="G88" t="n">
-        <v>27.93999999999999</v>
+        <v>4535167.55411503</v>
       </c>
       <c r="H88" t="n">
-        <v>28.02999999999999</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3738,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>27</v>
+        <v>28.6</v>
       </c>
       <c r="C89" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="D89" t="n">
-        <v>27.9</v>
+        <v>28.6</v>
       </c>
       <c r="E89" t="n">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="F89" t="n">
-        <v>10020</v>
+        <v>17092.2837</v>
       </c>
       <c r="G89" t="n">
-        <v>27.93999999999999</v>
+        <v>4518075.27041503</v>
       </c>
       <c r="H89" t="n">
-        <v>28.05166666666667</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3773,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>27.8</v>
+        <v>28.5</v>
       </c>
       <c r="C90" t="n">
-        <v>27.8</v>
+        <v>28.5</v>
       </c>
       <c r="D90" t="n">
-        <v>27.8</v>
+        <v>28.5</v>
       </c>
       <c r="E90" t="n">
-        <v>27.8</v>
+        <v>28.5</v>
       </c>
       <c r="F90" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G90" t="n">
-        <v>27.91333333333332</v>
+        <v>4518086.27041503</v>
       </c>
       <c r="H90" t="n">
-        <v>28.06</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3808,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="C91" t="n">
-        <v>27.9</v>
+        <v>28.5</v>
       </c>
       <c r="D91" t="n">
-        <v>27.9</v>
+        <v>28.5</v>
       </c>
       <c r="E91" t="n">
-        <v>26.7</v>
+        <v>28</v>
       </c>
       <c r="F91" t="n">
-        <v>80</v>
+        <v>30516.0825</v>
       </c>
       <c r="G91" t="n">
-        <v>27.88666666666666</v>
+        <v>4518086.27041503</v>
       </c>
       <c r="H91" t="n">
-        <v>28.08</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3843,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>26.8</v>
+        <v>27.7</v>
       </c>
       <c r="C92" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="D92" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="E92" t="n">
-        <v>26.8</v>
+        <v>27.6</v>
       </c>
       <c r="F92" t="n">
-        <v>40010</v>
+        <v>13963.8671</v>
       </c>
       <c r="G92" t="n">
-        <v>27.88666666666666</v>
+        <v>4504122.40331503</v>
       </c>
       <c r="H92" t="n">
-        <v>28.1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3878,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>26.8</v>
+        <v>27.6</v>
       </c>
       <c r="C93" t="n">
-        <v>26.3</v>
+        <v>27.6</v>
       </c>
       <c r="D93" t="n">
-        <v>26.8</v>
+        <v>27.6</v>
       </c>
       <c r="E93" t="n">
-        <v>26.3</v>
+        <v>27.6</v>
       </c>
       <c r="F93" t="n">
-        <v>199200.8637</v>
+        <v>31907.5937</v>
       </c>
       <c r="G93" t="n">
-        <v>27.79333333333333</v>
+        <v>4504122.40331503</v>
       </c>
       <c r="H93" t="n">
-        <v>28.09</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3913,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>26.4</v>
+        <v>27.9</v>
       </c>
       <c r="C94" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="D94" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="E94" t="n">
-        <v>26.4</v>
+        <v>27.9</v>
       </c>
       <c r="F94" t="n">
-        <v>3467.7132</v>
+        <v>28.8642</v>
       </c>
       <c r="G94" t="n">
-        <v>27.75999999999999</v>
+        <v>4504151.26751503</v>
       </c>
       <c r="H94" t="n">
-        <v>28.10166666666667</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3948,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C95" t="n">
-        <v>27.4</v>
+        <v>28.6</v>
       </c>
       <c r="D95" t="n">
-        <v>27.4</v>
+        <v>28.6</v>
       </c>
       <c r="E95" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F95" t="n">
-        <v>6094.27</v>
+        <v>1486.9565</v>
       </c>
       <c r="G95" t="n">
-        <v>27.69999999999999</v>
+        <v>4505638.22401503</v>
       </c>
       <c r="H95" t="n">
-        <v>28.09</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3983,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>26.4</v>
+        <v>27.6</v>
       </c>
       <c r="C96" t="n">
-        <v>26</v>
+        <v>27.6</v>
       </c>
       <c r="D96" t="n">
-        <v>26.4</v>
+        <v>27.6</v>
       </c>
       <c r="E96" t="n">
-        <v>26</v>
+        <v>27.6</v>
       </c>
       <c r="F96" t="n">
-        <v>160115.8836</v>
+        <v>5441.2619</v>
       </c>
       <c r="G96" t="n">
-        <v>27.57333333333332</v>
+        <v>4500196.96211503</v>
       </c>
       <c r="H96" t="n">
-        <v>28.055</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +4018,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="C97" t="n">
-        <v>26.9</v>
+        <v>28.6</v>
       </c>
       <c r="D97" t="n">
-        <v>27.3</v>
+        <v>28.6</v>
       </c>
       <c r="E97" t="n">
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="F97" t="n">
-        <v>213721.6489</v>
+        <v>31861.0096</v>
       </c>
       <c r="G97" t="n">
-        <v>27.51333333333332</v>
+        <v>4532057.97171503</v>
       </c>
       <c r="H97" t="n">
-        <v>28.03333333333334</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +4053,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>26.1</v>
+        <v>28.7</v>
       </c>
       <c r="C98" t="n">
-        <v>27.2</v>
+        <v>28.7</v>
       </c>
       <c r="D98" t="n">
-        <v>27.2</v>
+        <v>28.7</v>
       </c>
       <c r="E98" t="n">
-        <v>26.1</v>
+        <v>28.7</v>
       </c>
       <c r="F98" t="n">
-        <v>4607.2653</v>
+        <v>11</v>
       </c>
       <c r="G98" t="n">
-        <v>27.44666666666665</v>
+        <v>4532068.97171503</v>
       </c>
       <c r="H98" t="n">
-        <v>28.01666666666667</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +4088,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>26.3</v>
+        <v>28</v>
       </c>
       <c r="C99" t="n">
-        <v>27.2</v>
+        <v>28.6</v>
       </c>
       <c r="D99" t="n">
-        <v>27.2</v>
+        <v>28.6</v>
       </c>
       <c r="E99" t="n">
-        <v>26.3</v>
+        <v>28</v>
       </c>
       <c r="F99" t="n">
-        <v>11177.5563</v>
+        <v>3325.1577</v>
       </c>
       <c r="G99" t="n">
-        <v>27.38666666666665</v>
+        <v>4528743.81401503</v>
       </c>
       <c r="H99" t="n">
-        <v>28.01666666666667</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +4123,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>26.3</v>
+        <v>28.6</v>
       </c>
       <c r="C100" t="n">
-        <v>26.3</v>
+        <v>28.6</v>
       </c>
       <c r="D100" t="n">
-        <v>26.3</v>
+        <v>28.6</v>
       </c>
       <c r="E100" t="n">
-        <v>26.3</v>
+        <v>28.6</v>
       </c>
       <c r="F100" t="n">
-        <v>11728.8442</v>
+        <v>598.8111</v>
       </c>
       <c r="G100" t="n">
-        <v>27.27333333333332</v>
+        <v>4528743.81401503</v>
       </c>
       <c r="H100" t="n">
-        <v>27.995</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +4158,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>26.4</v>
+        <v>27.8</v>
       </c>
       <c r="C101" t="n">
-        <v>26.3</v>
+        <v>28.5</v>
       </c>
       <c r="D101" t="n">
-        <v>26.4</v>
+        <v>28.5</v>
       </c>
       <c r="E101" t="n">
-        <v>26.3</v>
+        <v>27.8</v>
       </c>
       <c r="F101" t="n">
-        <v>5104.3689</v>
+        <v>2974.968</v>
       </c>
       <c r="G101" t="n">
-        <v>27.19333333333332</v>
+        <v>4525768.84601503</v>
       </c>
       <c r="H101" t="n">
-        <v>27.96500000000001</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,40 +4193,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>26.6</v>
+        <v>27.8</v>
       </c>
       <c r="C102" t="n">
-        <v>27</v>
+        <v>28.1</v>
       </c>
       <c r="D102" t="n">
-        <v>27</v>
+        <v>28.1</v>
       </c>
       <c r="E102" t="n">
-        <v>26.6</v>
+        <v>27.8</v>
       </c>
       <c r="F102" t="n">
         <v>22</v>
       </c>
       <c r="G102" t="n">
-        <v>27.11999999999999</v>
+        <v>4525746.84601503</v>
       </c>
       <c r="H102" t="n">
-        <v>27.96500000000001</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L102" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4280,44 +4228,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>26.5</v>
+        <v>27.9</v>
       </c>
       <c r="C103" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="D103" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="E103" t="n">
-        <v>26.5</v>
+        <v>27.9</v>
       </c>
       <c r="F103" t="n">
-        <v>7347</v>
+        <v>1381.9813</v>
       </c>
       <c r="G103" t="n">
-        <v>27.13333333333332</v>
+        <v>4524364.864715029</v>
       </c>
       <c r="H103" t="n">
-        <v>27.96333333333334</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>27</v>
-      </c>
-      <c r="L103" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4326,42 +4263,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>26.9</v>
+        <v>28</v>
       </c>
       <c r="C104" t="n">
-        <v>26.9</v>
+        <v>28.2</v>
       </c>
       <c r="D104" t="n">
-        <v>26.9</v>
+        <v>28.2</v>
       </c>
       <c r="E104" t="n">
-        <v>26.9</v>
+        <v>28</v>
       </c>
       <c r="F104" t="n">
-        <v>6281</v>
+        <v>21</v>
       </c>
       <c r="G104" t="n">
-        <v>27.06666666666665</v>
+        <v>4524385.864715029</v>
       </c>
       <c r="H104" t="n">
-        <v>27.95166666666668</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4370,36 +4298,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>26.6</v>
+        <v>28.3</v>
       </c>
       <c r="C105" t="n">
-        <v>26.5</v>
+        <v>28.3</v>
       </c>
       <c r="D105" t="n">
-        <v>26.6</v>
+        <v>28.3</v>
       </c>
       <c r="E105" t="n">
-        <v>26.5</v>
+        <v>28.3</v>
       </c>
       <c r="F105" t="n">
-        <v>32662.1649</v>
+        <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>26.97999999999998</v>
+        <v>4524395.864715029</v>
       </c>
       <c r="H105" t="n">
-        <v>27.92666666666668</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4408,36 +4333,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>26.7</v>
+        <v>27.9</v>
       </c>
       <c r="C106" t="n">
-        <v>26.7</v>
+        <v>27.9</v>
       </c>
       <c r="D106" t="n">
-        <v>26.7</v>
+        <v>28.2</v>
       </c>
       <c r="E106" t="n">
-        <v>26.7</v>
+        <v>27.9</v>
       </c>
       <c r="F106" t="n">
-        <v>2288</v>
+        <v>4293.9013</v>
       </c>
       <c r="G106" t="n">
-        <v>26.89999999999998</v>
+        <v>4520101.963415029</v>
       </c>
       <c r="H106" t="n">
-        <v>27.91000000000001</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4446,36 +4368,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>26.6</v>
+        <v>27.8</v>
       </c>
       <c r="C107" t="n">
-        <v>26.6</v>
+        <v>27.7</v>
       </c>
       <c r="D107" t="n">
-        <v>26.6</v>
+        <v>27.8</v>
       </c>
       <c r="E107" t="n">
-        <v>26.6</v>
+        <v>27.7</v>
       </c>
       <c r="F107" t="n">
-        <v>4623.5831</v>
+        <v>34270.1896</v>
       </c>
       <c r="G107" t="n">
-        <v>26.81333333333332</v>
+        <v>4485831.773815029</v>
       </c>
       <c r="H107" t="n">
-        <v>27.89000000000001</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4484,36 +4403,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>26.4</v>
+        <v>27.8</v>
       </c>
       <c r="C108" t="n">
-        <v>26.3</v>
+        <v>28.2</v>
       </c>
       <c r="D108" t="n">
-        <v>26.4</v>
+        <v>28.2</v>
       </c>
       <c r="E108" t="n">
-        <v>26.3</v>
+        <v>27.8</v>
       </c>
       <c r="F108" t="n">
-        <v>11139.6374</v>
+        <v>44394.1552</v>
       </c>
       <c r="G108" t="n">
-        <v>26.81333333333332</v>
+        <v>4530225.929015029</v>
       </c>
       <c r="H108" t="n">
-        <v>27.86666666666667</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4522,36 +4438,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>26.3</v>
+        <v>28.3</v>
       </c>
       <c r="C109" t="n">
-        <v>26.3</v>
+        <v>28.3</v>
       </c>
       <c r="D109" t="n">
-        <v>26.3</v>
+        <v>28.3</v>
       </c>
       <c r="E109" t="n">
-        <v>26.3</v>
+        <v>28.3</v>
       </c>
       <c r="F109" t="n">
-        <v>837.9124</v>
+        <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>26.71999999999999</v>
+        <v>4530235.929015029</v>
       </c>
       <c r="H109" t="n">
-        <v>27.83833333333334</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4560,36 +4473,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="C110" t="n">
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="D110" t="n">
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="E110" t="n">
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="F110" t="n">
-        <v>11</v>
+        <v>2824.5874</v>
       </c>
       <c r="G110" t="n">
-        <v>26.68666666666666</v>
+        <v>4527411.34161503</v>
       </c>
       <c r="H110" t="n">
-        <v>27.81833333333334</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4598,42 +4508,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>26.3</v>
+        <v>27.8</v>
       </c>
       <c r="C111" t="n">
-        <v>26.9</v>
+        <v>27.8</v>
       </c>
       <c r="D111" t="n">
-        <v>26.9</v>
+        <v>27.8</v>
       </c>
       <c r="E111" t="n">
-        <v>26.2</v>
+        <v>27.8</v>
       </c>
       <c r="F111" t="n">
-        <v>4832.9573</v>
+        <v>7954.8972</v>
       </c>
       <c r="G111" t="n">
-        <v>26.74666666666666</v>
+        <v>4519456.44441503</v>
       </c>
       <c r="H111" t="n">
-        <v>27.78166666666668</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4642,42 +4543,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>26.2</v>
+        <v>27.8</v>
       </c>
       <c r="C112" t="n">
-        <v>26.1</v>
+        <v>28.2</v>
       </c>
       <c r="D112" t="n">
-        <v>26.2</v>
+        <v>28.2</v>
       </c>
       <c r="E112" t="n">
-        <v>26.1</v>
+        <v>27.7</v>
       </c>
       <c r="F112" t="n">
-        <v>29222.2723</v>
+        <v>13114.6062</v>
       </c>
       <c r="G112" t="n">
-        <v>26.69333333333332</v>
+        <v>4532571.05061503</v>
       </c>
       <c r="H112" t="n">
-        <v>27.72333333333335</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4686,42 +4578,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>26.1</v>
+        <v>27.7</v>
       </c>
       <c r="C113" t="n">
-        <v>26.7</v>
+        <v>28.1</v>
       </c>
       <c r="D113" t="n">
-        <v>26.7</v>
+        <v>28.1</v>
       </c>
       <c r="E113" t="n">
-        <v>25.9</v>
+        <v>27.7</v>
       </c>
       <c r="F113" t="n">
-        <v>29233.2723</v>
+        <v>34004.1239</v>
       </c>
       <c r="G113" t="n">
-        <v>26.65999999999999</v>
+        <v>4498566.92671503</v>
       </c>
       <c r="H113" t="n">
-        <v>27.67833333333335</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="n">
-        <v>26.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4730,42 +4613,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>26.6</v>
+        <v>27.7</v>
       </c>
       <c r="C114" t="n">
-        <v>27.1</v>
+        <v>28</v>
       </c>
       <c r="D114" t="n">
-        <v>27.1</v>
+        <v>28</v>
       </c>
       <c r="E114" t="n">
-        <v>26.6</v>
+        <v>27.5</v>
       </c>
       <c r="F114" t="n">
-        <v>47856.9107</v>
+        <v>160011</v>
       </c>
       <c r="G114" t="n">
-        <v>26.65333333333333</v>
+        <v>4338555.92671503</v>
       </c>
       <c r="H114" t="n">
-        <v>27.63833333333334</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4774,42 +4648,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>26.4</v>
+        <v>27.5</v>
       </c>
       <c r="C115" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="D115" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="E115" t="n">
-        <v>26.4</v>
+        <v>27.5</v>
       </c>
       <c r="F115" t="n">
-        <v>5724.409</v>
+        <v>5344.2333</v>
       </c>
       <c r="G115" t="n">
-        <v>26.69333333333332</v>
+        <v>4333211.69341503</v>
       </c>
       <c r="H115" t="n">
-        <v>27.61000000000001</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="n">
-        <v>27.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4818,42 +4683,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>26.4</v>
+        <v>27.8</v>
       </c>
       <c r="C116" t="n">
-        <v>26.4</v>
+        <v>28.1</v>
       </c>
       <c r="D116" t="n">
-        <v>26.4</v>
+        <v>28.1</v>
       </c>
       <c r="E116" t="n">
-        <v>26.4</v>
+        <v>27.4</v>
       </c>
       <c r="F116" t="n">
-        <v>17351.8087</v>
+        <v>452</v>
       </c>
       <c r="G116" t="n">
-        <v>26.69999999999999</v>
+        <v>4333663.69341503</v>
       </c>
       <c r="H116" t="n">
-        <v>27.56166666666668</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4862,42 +4718,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>26.5</v>
+        <v>27.2</v>
       </c>
       <c r="C117" t="n">
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="D117" t="n">
-        <v>26.5</v>
+        <v>27.9</v>
       </c>
       <c r="E117" t="n">
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="F117" t="n">
-        <v>11</v>
+        <v>30139.32199068</v>
       </c>
       <c r="G117" t="n">
-        <v>26.66666666666665</v>
+        <v>4303524.37142435</v>
       </c>
       <c r="H117" t="n">
-        <v>27.51166666666668</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4906,42 +4753,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="C118" t="n">
-        <v>26.7</v>
+        <v>27.9</v>
       </c>
       <c r="D118" t="n">
-        <v>26.7</v>
+        <v>27.9</v>
       </c>
       <c r="E118" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="F118" t="n">
-        <v>22</v>
+        <v>10020</v>
       </c>
       <c r="G118" t="n">
-        <v>26.63333333333332</v>
+        <v>4313544.37142435</v>
       </c>
       <c r="H118" t="n">
-        <v>27.49166666666668</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4950,42 +4788,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>26.7</v>
+        <v>27.8</v>
       </c>
       <c r="C119" t="n">
-        <v>26.6</v>
+        <v>27.8</v>
       </c>
       <c r="D119" t="n">
-        <v>26.7</v>
+        <v>27.8</v>
       </c>
       <c r="E119" t="n">
-        <v>26.1</v>
+        <v>27.8</v>
       </c>
       <c r="F119" t="n">
-        <v>10528.9406</v>
+        <v>34</v>
       </c>
       <c r="G119" t="n">
-        <v>26.61333333333333</v>
+        <v>4313510.37142435</v>
       </c>
       <c r="H119" t="n">
-        <v>27.45833333333335</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4994,42 +4823,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>26.2</v>
+        <v>27.9</v>
       </c>
       <c r="C120" t="n">
-        <v>26.2</v>
+        <v>27.9</v>
       </c>
       <c r="D120" t="n">
-        <v>26.2</v>
+        <v>27.9</v>
       </c>
       <c r="E120" t="n">
-        <v>26.2</v>
+        <v>26.7</v>
       </c>
       <c r="F120" t="n">
-        <v>3098</v>
+        <v>80</v>
       </c>
       <c r="G120" t="n">
-        <v>26.59333333333332</v>
+        <v>4313590.37142435</v>
       </c>
       <c r="H120" t="n">
-        <v>27.43166666666668</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="n">
-        <v>26.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,42 +4858,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="C121" t="n">
-        <v>26.4</v>
+        <v>27.9</v>
       </c>
       <c r="D121" t="n">
-        <v>26.4</v>
+        <v>27.9</v>
       </c>
       <c r="E121" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="F121" t="n">
-        <v>11</v>
+        <v>40010</v>
       </c>
       <c r="G121" t="n">
-        <v>26.57333333333332</v>
+        <v>4313590.37142435</v>
       </c>
       <c r="H121" t="n">
-        <v>27.39666666666669</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5082,40 +4893,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="C122" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="D122" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="E122" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="F122" t="n">
-        <v>10</v>
+        <v>199200.8637</v>
       </c>
       <c r="G122" t="n">
-        <v>26.57999999999999</v>
+        <v>4114389.50772435</v>
       </c>
       <c r="H122" t="n">
-        <v>27.36666666666668</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5124,42 +4928,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="C123" t="n">
-        <v>27.1</v>
+        <v>27.7</v>
       </c>
       <c r="D123" t="n">
-        <v>27.1</v>
+        <v>27.7</v>
       </c>
       <c r="E123" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="F123" t="n">
-        <v>18133.686</v>
+        <v>3467.7132</v>
       </c>
       <c r="G123" t="n">
-        <v>26.63333333333332</v>
+        <v>4117857.22092435</v>
       </c>
       <c r="H123" t="n">
-        <v>27.35833333333335</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>26.3</v>
       </c>
       <c r="K123" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5168,40 +4967,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="C124" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="D124" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="E124" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="F124" t="n">
-        <v>3584.2294</v>
+        <v>6094.27</v>
       </c>
       <c r="G124" t="n">
-        <v>26.62666666666665</v>
+        <v>4111762.95092435</v>
       </c>
       <c r="H124" t="n">
-        <v>27.33500000000002</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5210,42 +5008,41 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="C125" t="n">
+        <v>26</v>
+      </c>
+      <c r="D125" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E125" t="n">
+        <v>26</v>
+      </c>
+      <c r="F125" t="n">
+        <v>160115.8836</v>
+      </c>
+      <c r="G125" t="n">
+        <v>3951647.06732435</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K125" t="n">
         <v>26.3</v>
       </c>
-      <c r="D125" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="E125" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F125" t="n">
-        <v>3077.373</v>
-      </c>
-      <c r="G125" t="n">
-        <v>26.58666666666666</v>
-      </c>
-      <c r="H125" t="n">
-        <v>27.30666666666669</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5254,42 +5051,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>26.6</v>
+        <v>27.3</v>
       </c>
       <c r="C126" t="n">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="D126" t="n">
-        <v>26.6</v>
+        <v>27.3</v>
       </c>
       <c r="E126" t="n">
-        <v>26.6</v>
+        <v>26</v>
       </c>
       <c r="F126" t="n">
-        <v>10</v>
+        <v>213721.6489</v>
       </c>
       <c r="G126" t="n">
-        <v>26.56666666666666</v>
+        <v>4165368.71622435</v>
       </c>
       <c r="H126" t="n">
-        <v>27.27333333333335</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
         <v>26.3</v>
       </c>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5298,42 +5092,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="C127" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="D127" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="E127" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="F127" t="n">
-        <v>19951.572</v>
+        <v>4607.2653</v>
       </c>
       <c r="G127" t="n">
-        <v>26.61333333333333</v>
+        <v>4169975.98152435</v>
       </c>
       <c r="H127" t="n">
-        <v>27.26000000000002</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5342,42 +5133,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>26.8</v>
+        <v>26.3</v>
       </c>
       <c r="C128" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="D128" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="E128" t="n">
-        <v>26.8</v>
+        <v>26.3</v>
       </c>
       <c r="F128" t="n">
-        <v>12746.2922</v>
+        <v>11177.5563</v>
       </c>
       <c r="G128" t="n">
-        <v>26.61999999999999</v>
+        <v>4169975.98152435</v>
       </c>
       <c r="H128" t="n">
-        <v>27.23000000000002</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5386,42 +5174,1236 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C129" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D129" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E129" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F129" t="n">
+        <v>11728.8442</v>
+      </c>
+      <c r="G129" t="n">
+        <v>4158247.13732435</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C130" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D130" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E130" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F130" t="n">
+        <v>5104.3689</v>
+      </c>
+      <c r="G130" t="n">
+        <v>4158247.13732435</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K130" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C131" t="n">
+        <v>27</v>
+      </c>
+      <c r="D131" t="n">
+        <v>27</v>
+      </c>
+      <c r="E131" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F131" t="n">
+        <v>22</v>
+      </c>
+      <c r="G131" t="n">
+        <v>4158269.13732435</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K131" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D132" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E132" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>7347</v>
+      </c>
+      <c r="G132" t="n">
+        <v>4165616.13732435</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
         <v>26.9</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C133" t="n">
         <v>26.9</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D133" t="n">
         <v>26.9</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E133" t="n">
         <v>26.9</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F133" t="n">
+        <v>6281</v>
+      </c>
+      <c r="G133" t="n">
+        <v>4159335.13732435</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C134" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D134" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E134" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>32662.1649</v>
+      </c>
+      <c r="G134" t="n">
+        <v>4126672.97242435</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C135" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D135" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E135" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2288</v>
+      </c>
+      <c r="G135" t="n">
+        <v>4128960.97242435</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C136" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D136" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E136" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F136" t="n">
+        <v>4623.5831</v>
+      </c>
+      <c r="G136" t="n">
+        <v>4124337.38932435</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C137" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D137" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E137" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F137" t="n">
+        <v>11139.6374</v>
+      </c>
+      <c r="G137" t="n">
+        <v>4113197.75192435</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C138" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D138" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E138" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F138" t="n">
+        <v>837.9124</v>
+      </c>
+      <c r="G138" t="n">
+        <v>4113197.75192435</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C139" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D139" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E139" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F139" t="n">
+        <v>11</v>
+      </c>
+      <c r="G139" t="n">
+        <v>4113208.75192435</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C140" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D140" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E140" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4832.9573</v>
+      </c>
+      <c r="G140" t="n">
+        <v>4113208.75192435</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C141" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E141" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>29222.2723</v>
+      </c>
+      <c r="G141" t="n">
+        <v>4083986.47962435</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D142" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E142" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F142" t="n">
+        <v>29233.2723</v>
+      </c>
+      <c r="G142" t="n">
+        <v>4113219.75192435</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C143" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E143" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F143" t="n">
+        <v>47856.9107</v>
+      </c>
+      <c r="G143" t="n">
+        <v>4161076.66262435</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K143" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C144" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D144" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E144" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F144" t="n">
+        <v>5724.409</v>
+      </c>
+      <c r="G144" t="n">
+        <v>4155352.25362435</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C145" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="D145" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E145" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F145" t="n">
+        <v>17351.8087</v>
+      </c>
+      <c r="G145" t="n">
+        <v>4138000.44492435</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C146" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D146" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>11</v>
+      </c>
+      <c r="G146" t="n">
+        <v>4138011.44492435</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C147" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D147" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E147" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F147" t="n">
+        <v>22</v>
+      </c>
+      <c r="G147" t="n">
+        <v>4138033.44492435</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C148" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E148" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F148" t="n">
+        <v>10528.9406</v>
+      </c>
+      <c r="G148" t="n">
+        <v>4127504.50432435</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C149" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E149" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3098</v>
+      </c>
+      <c r="G149" t="n">
+        <v>4124406.50432435</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C150" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="D150" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E150" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F150" t="n">
+        <v>11</v>
+      </c>
+      <c r="G150" t="n">
+        <v>4124417.50432435</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C151" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D151" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E151" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F151" t="n">
+        <v>10</v>
+      </c>
+      <c r="G151" t="n">
+        <v>4124427.50432435</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C152" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D152" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E152" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>18133.686</v>
+      </c>
+      <c r="G152" t="n">
+        <v>4142561.19032435</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C153" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D153" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E153" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F153" t="n">
+        <v>3584.2294</v>
+      </c>
+      <c r="G153" t="n">
+        <v>4138976.96092435</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C154" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D154" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E154" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F154" t="n">
+        <v>3077.373</v>
+      </c>
+      <c r="G154" t="n">
+        <v>4142054.33392435</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C155" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D155" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E155" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F155" t="n">
+        <v>10</v>
+      </c>
+      <c r="G155" t="n">
+        <v>4142064.33392435</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C156" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D156" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E156" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F156" t="n">
+        <v>19951.572</v>
+      </c>
+      <c r="G156" t="n">
+        <v>4162015.90592435</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C157" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D157" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E157" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F157" t="n">
+        <v>12746.2922</v>
+      </c>
+      <c r="G157" t="n">
+        <v>4162015.90592435</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C158" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D158" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E158" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F158" t="n">
         <v>10192.8456</v>
       </c>
-      <c r="G129" t="n">
-        <v>26.60666666666666</v>
-      </c>
-      <c r="H129" t="n">
-        <v>27.20000000000002</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="G158" t="n">
+        <v>4172208.751524351</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-31 BackTest CHR.xlsx
+++ b/BackTest/2019-10-31 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M158"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29.8</v>
+        <v>27.8</v>
       </c>
       <c r="C2" t="n">
-        <v>29.8</v>
+        <v>27.8</v>
       </c>
       <c r="D2" t="n">
-        <v>29.8</v>
+        <v>27.8</v>
       </c>
       <c r="E2" t="n">
-        <v>29.8</v>
+        <v>27.8</v>
       </c>
       <c r="F2" t="n">
-        <v>329985.46293757</v>
+        <v>47</v>
       </c>
       <c r="G2" t="n">
-        <v>3151274.63283182</v>
+        <v>27.73333333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29.8</v>
+        <v>27.6</v>
       </c>
       <c r="C3" t="n">
-        <v>29.8</v>
+        <v>27.6</v>
       </c>
       <c r="D3" t="n">
-        <v>29.8</v>
+        <v>27.6</v>
       </c>
       <c r="E3" t="n">
-        <v>29.8</v>
+        <v>27.6</v>
       </c>
       <c r="F3" t="n">
-        <v>253707.9194</v>
+        <v>1613.4815</v>
       </c>
       <c r="G3" t="n">
-        <v>3151274.63283182</v>
+        <v>27.73333333333335</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29.8</v>
+        <v>27.6</v>
       </c>
       <c r="C4" t="n">
-        <v>29.8</v>
+        <v>27.6</v>
       </c>
       <c r="D4" t="n">
-        <v>29.8</v>
+        <v>27.6</v>
       </c>
       <c r="E4" t="n">
-        <v>29.8</v>
+        <v>27.6</v>
       </c>
       <c r="F4" t="n">
-        <v>833364.70086243</v>
+        <v>4132.3492</v>
       </c>
       <c r="G4" t="n">
-        <v>3151274.63283182</v>
+        <v>27.66666666666668</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>29.8</v>
+        <v>27.8</v>
       </c>
       <c r="C5" t="n">
-        <v>29.8</v>
+        <v>27.8</v>
       </c>
       <c r="D5" t="n">
-        <v>29.8</v>
+        <v>27.8</v>
       </c>
       <c r="E5" t="n">
-        <v>29.8</v>
+        <v>27.8</v>
       </c>
       <c r="F5" t="n">
-        <v>820714.19973757</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>3151274.63283182</v>
+        <v>27.66666666666668</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>29.8</v>
+        <v>27.8</v>
       </c>
       <c r="C6" t="n">
-        <v>29.6</v>
+        <v>27.8</v>
       </c>
       <c r="D6" t="n">
-        <v>29.8</v>
+        <v>27.8</v>
       </c>
       <c r="E6" t="n">
-        <v>29</v>
+        <v>27.8</v>
       </c>
       <c r="F6" t="n">
-        <v>361076.2527</v>
+        <v>5814.964</v>
       </c>
       <c r="G6" t="n">
-        <v>2790198.38013182</v>
+        <v>27.73333333333335</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>29</v>
+        <v>27.5</v>
       </c>
       <c r="C7" t="n">
-        <v>29.6</v>
+        <v>27.8</v>
       </c>
       <c r="D7" t="n">
-        <v>29.6</v>
+        <v>27.8</v>
       </c>
       <c r="E7" t="n">
         <v>27.5</v>
       </c>
       <c r="F7" t="n">
-        <v>280211.1429</v>
+        <v>540.4498</v>
       </c>
       <c r="G7" t="n">
-        <v>2790198.38013182</v>
+        <v>27.80000000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.5</v>
+        <v>27.8</v>
       </c>
       <c r="C8" t="n">
-        <v>29.8</v>
+        <v>28.6</v>
       </c>
       <c r="D8" t="n">
-        <v>29.8</v>
+        <v>28.6</v>
       </c>
       <c r="E8" t="n">
-        <v>29.5</v>
+        <v>27.8</v>
       </c>
       <c r="F8" t="n">
-        <v>415845.4026</v>
+        <v>983.21678321</v>
       </c>
       <c r="G8" t="n">
-        <v>3206043.78273182</v>
+        <v>28.06666666666668</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.8</v>
+        <v>27.5</v>
       </c>
       <c r="C9" t="n">
-        <v>29.8</v>
+        <v>27.3</v>
       </c>
       <c r="D9" t="n">
-        <v>29.8</v>
+        <v>27.5</v>
       </c>
       <c r="E9" t="n">
-        <v>28.7</v>
+        <v>27.3</v>
       </c>
       <c r="F9" t="n">
-        <v>706153.3897000001</v>
+        <v>28256.0736</v>
       </c>
       <c r="G9" t="n">
-        <v>3206043.78273182</v>
+        <v>27.90000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29.7</v>
+        <v>27.7</v>
       </c>
       <c r="C10" t="n">
-        <v>29.7</v>
+        <v>27.7</v>
       </c>
       <c r="D10" t="n">
-        <v>29.7</v>
+        <v>27.7</v>
       </c>
       <c r="E10" t="n">
-        <v>29.7</v>
+        <v>27.7</v>
       </c>
       <c r="F10" t="n">
-        <v>54576.7003</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>3151467.08243182</v>
+        <v>27.86666666666668</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>29.1</v>
+        <v>28.3</v>
       </c>
       <c r="C11" t="n">
-        <v>29.1</v>
+        <v>28.3</v>
       </c>
       <c r="D11" t="n">
-        <v>29.1</v>
+        <v>28.3</v>
       </c>
       <c r="E11" t="n">
-        <v>29.1</v>
+        <v>28.3</v>
       </c>
       <c r="F11" t="n">
-        <v>19525.0971</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>3131941.98533182</v>
+        <v>27.76666666666668</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>29.1</v>
+        <v>27.5</v>
       </c>
       <c r="C12" t="n">
-        <v>29.7</v>
+        <v>28.2</v>
       </c>
       <c r="D12" t="n">
-        <v>29.7</v>
+        <v>28.2</v>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>27.3</v>
       </c>
       <c r="F12" t="n">
-        <v>706909.2486</v>
+        <v>51828.5707</v>
       </c>
       <c r="G12" t="n">
-        <v>3838851.23393182</v>
+        <v>28.06666666666668</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>28.5</v>
+        <v>27.6</v>
       </c>
       <c r="C13" t="n">
-        <v>28.4</v>
+        <v>27.6</v>
       </c>
       <c r="D13" t="n">
-        <v>28.5</v>
+        <v>27.6</v>
       </c>
       <c r="E13" t="n">
-        <v>28.4</v>
+        <v>27.6</v>
       </c>
       <c r="F13" t="n">
-        <v>10749.2228</v>
+        <v>2082.4772</v>
       </c>
       <c r="G13" t="n">
-        <v>3828102.01113182</v>
+        <v>28.03333333333335</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29.5</v>
+        <v>27.6</v>
       </c>
       <c r="C14" t="n">
-        <v>29.7</v>
+        <v>27.6</v>
       </c>
       <c r="D14" t="n">
-        <v>29.7</v>
+        <v>27.6</v>
       </c>
       <c r="E14" t="n">
-        <v>29.5</v>
+        <v>27.6</v>
       </c>
       <c r="F14" t="n">
-        <v>293052.5589</v>
+        <v>917.5228</v>
       </c>
       <c r="G14" t="n">
-        <v>4121154.57003182</v>
+        <v>27.80000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>28.8</v>
+        <v>27.3</v>
       </c>
       <c r="C15" t="n">
-        <v>28.8</v>
+        <v>27.3</v>
       </c>
       <c r="D15" t="n">
-        <v>29.7</v>
+        <v>27.3</v>
       </c>
       <c r="E15" t="n">
-        <v>28.7</v>
+        <v>27.3</v>
       </c>
       <c r="F15" t="n">
-        <v>221889.8468</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>3899264.72323182</v>
+        <v>27.50000000000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>28.9</v>
+        <v>27.4</v>
       </c>
       <c r="C16" t="n">
-        <v>29.3</v>
+        <v>26.6</v>
       </c>
       <c r="D16" t="n">
-        <v>29.6</v>
+        <v>27.4</v>
       </c>
       <c r="E16" t="n">
-        <v>28.8</v>
+        <v>26.6</v>
       </c>
       <c r="F16" t="n">
-        <v>156058.3309</v>
+        <v>248260.9812</v>
       </c>
       <c r="G16" t="n">
-        <v>4055323.05413182</v>
+        <v>27.16666666666669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>29.3</v>
+        <v>27.3</v>
       </c>
       <c r="C17" t="n">
-        <v>29.3</v>
+        <v>27.3</v>
       </c>
       <c r="D17" t="n">
-        <v>29.7</v>
+        <v>27.3</v>
       </c>
       <c r="E17" t="n">
-        <v>29.3</v>
+        <v>27.3</v>
       </c>
       <c r="F17" t="n">
-        <v>191961.522</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>4055323.05413182</v>
+        <v>27.06666666666668</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>29.6</v>
+        <v>27.1</v>
       </c>
       <c r="C18" t="n">
-        <v>29.6</v>
+        <v>26.7</v>
       </c>
       <c r="D18" t="n">
-        <v>29.7</v>
+        <v>27.1</v>
       </c>
       <c r="E18" t="n">
-        <v>29.6</v>
+        <v>26.7</v>
       </c>
       <c r="F18" t="n">
-        <v>71471.9932</v>
+        <v>13799.9862</v>
       </c>
       <c r="G18" t="n">
-        <v>4126795.04733182</v>
+        <v>26.86666666666668</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>29.3</v>
+        <v>26.9</v>
       </c>
       <c r="C19" t="n">
-        <v>29.3</v>
+        <v>26.7</v>
       </c>
       <c r="D19" t="n">
-        <v>29.3</v>
+        <v>27.3</v>
       </c>
       <c r="E19" t="n">
-        <v>29.3</v>
+        <v>26.7</v>
       </c>
       <c r="F19" t="n">
-        <v>1204.6668</v>
+        <v>7037.1287</v>
       </c>
       <c r="G19" t="n">
-        <v>4125590.38053182</v>
+        <v>26.90000000000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>29.3</v>
+        <v>26.7</v>
       </c>
       <c r="C20" t="n">
-        <v>29.3</v>
+        <v>26.9</v>
       </c>
       <c r="D20" t="n">
-        <v>29.3</v>
+        <v>27.1</v>
       </c>
       <c r="E20" t="n">
-        <v>29.3</v>
+        <v>26.7</v>
       </c>
       <c r="F20" t="n">
-        <v>4049.1099</v>
+        <v>15502.2939</v>
       </c>
       <c r="G20" t="n">
-        <v>4125590.38053182</v>
+        <v>26.76666666666668</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>28.9</v>
+        <v>26.7</v>
       </c>
       <c r="C21" t="n">
-        <v>29.6</v>
+        <v>27</v>
       </c>
       <c r="D21" t="n">
-        <v>29.6</v>
+        <v>27</v>
       </c>
       <c r="E21" t="n">
-        <v>28.9</v>
+        <v>26.7</v>
       </c>
       <c r="F21" t="n">
-        <v>340278.948</v>
+        <v>3809.9863</v>
       </c>
       <c r="G21" t="n">
-        <v>4465869.32853182</v>
+        <v>26.86666666666668</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>29</v>
+        <v>26.9</v>
       </c>
       <c r="C22" t="n">
-        <v>29.2</v>
+        <v>28.1</v>
       </c>
       <c r="D22" t="n">
-        <v>29.2</v>
+        <v>28.2</v>
       </c>
       <c r="E22" t="n">
-        <v>28.9</v>
+        <v>26.9</v>
       </c>
       <c r="F22" t="n">
-        <v>17931.9108</v>
+        <v>308482.332</v>
       </c>
       <c r="G22" t="n">
-        <v>4447937.417731821</v>
+        <v>27.33333333333335</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>29</v>
+        <v>28.1</v>
       </c>
       <c r="C23" t="n">
-        <v>28.9</v>
+        <v>28.1</v>
       </c>
       <c r="D23" t="n">
-        <v>29</v>
+        <v>28.1</v>
       </c>
       <c r="E23" t="n">
-        <v>28.9</v>
+        <v>28.1</v>
       </c>
       <c r="F23" t="n">
-        <v>2789.6178</v>
+        <v>42835.8932</v>
       </c>
       <c r="G23" t="n">
-        <v>4445147.79993182</v>
+        <v>27.73333333333335</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>29</v>
+        <v>28.2</v>
       </c>
       <c r="D24" t="n">
-        <v>29</v>
+        <v>28.2</v>
       </c>
       <c r="E24" t="n">
-        <v>28.6</v>
+        <v>27.8</v>
       </c>
       <c r="F24" t="n">
-        <v>30949.623</v>
+        <v>6358.5073</v>
       </c>
       <c r="G24" t="n">
-        <v>4476097.42293182</v>
+        <v>28.13333333333335</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="C25" t="n">
-        <v>28.9</v>
+        <v>28.2</v>
       </c>
       <c r="D25" t="n">
-        <v>28.9</v>
+        <v>28.2</v>
       </c>
       <c r="E25" t="n">
-        <v>28.5</v>
+        <v>28</v>
       </c>
       <c r="F25" t="n">
-        <v>29478.8686</v>
+        <v>52.1428</v>
       </c>
       <c r="G25" t="n">
-        <v>4446618.55433182</v>
+        <v>28.16666666666669</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>28.6</v>
+        <v>27.2</v>
       </c>
       <c r="C26" t="n">
-        <v>28.9</v>
+        <v>27.2</v>
       </c>
       <c r="D26" t="n">
-        <v>28.9</v>
+        <v>27.2</v>
       </c>
       <c r="E26" t="n">
-        <v>28.5</v>
+        <v>27.2</v>
       </c>
       <c r="F26" t="n">
-        <v>8679.2665</v>
+        <v>16458.6822</v>
       </c>
       <c r="G26" t="n">
-        <v>4446618.55433182</v>
+        <v>27.86666666666668</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>28.5</v>
+        <v>28.1</v>
       </c>
       <c r="C27" t="n">
-        <v>29.5</v>
+        <v>27.6</v>
       </c>
       <c r="D27" t="n">
-        <v>29.5</v>
+        <v>28.1</v>
       </c>
       <c r="E27" t="n">
-        <v>28.5</v>
+        <v>27.5</v>
       </c>
       <c r="F27" t="n">
-        <v>26480.7132</v>
+        <v>14688.7681</v>
       </c>
       <c r="G27" t="n">
-        <v>4473099.267531821</v>
+        <v>27.66666666666668</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>29.4</v>
+        <v>28.1</v>
       </c>
       <c r="C28" t="n">
-        <v>29.4</v>
+        <v>28.1</v>
       </c>
       <c r="D28" t="n">
-        <v>29.4</v>
+        <v>28.1</v>
       </c>
       <c r="E28" t="n">
-        <v>29.4</v>
+        <v>27</v>
       </c>
       <c r="F28" t="n">
-        <v>9493.2312</v>
+        <v>45.97</v>
       </c>
       <c r="G28" t="n">
-        <v>4463606.03633182</v>
+        <v>27.63333333333335</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>28.9</v>
+        <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>28.9</v>
+        <v>27</v>
       </c>
       <c r="D29" t="n">
-        <v>28.9</v>
+        <v>27</v>
       </c>
       <c r="E29" t="n">
-        <v>28.9</v>
+        <v>27</v>
       </c>
       <c r="F29" t="n">
-        <v>18.2197</v>
+        <v>20000</v>
       </c>
       <c r="G29" t="n">
-        <v>4463587.81663182</v>
+        <v>27.56666666666668</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>28.7</v>
+        <v>27.3</v>
       </c>
       <c r="C30" t="n">
-        <v>29.4</v>
+        <v>27.3</v>
       </c>
       <c r="D30" t="n">
-        <v>29.4</v>
+        <v>27.3</v>
       </c>
       <c r="E30" t="n">
-        <v>28.6</v>
+        <v>27.3</v>
       </c>
       <c r="F30" t="n">
-        <v>4066.8893</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>4467654.70593182</v>
+        <v>27.46666666666668</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>28.7</v>
+        <v>27.6</v>
       </c>
       <c r="C31" t="n">
-        <v>28.5</v>
+        <v>27.6</v>
       </c>
       <c r="D31" t="n">
-        <v>29.2</v>
+        <v>27.6</v>
       </c>
       <c r="E31" t="n">
-        <v>28.5</v>
+        <v>27.6</v>
       </c>
       <c r="F31" t="n">
-        <v>48993.2445</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>4418661.46143182</v>
+        <v>27.30000000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>29.1</v>
+        <v>27.6</v>
       </c>
       <c r="C32" t="n">
-        <v>28.5</v>
+        <v>28</v>
       </c>
       <c r="D32" t="n">
-        <v>29.1</v>
+        <v>28</v>
       </c>
       <c r="E32" t="n">
-        <v>28.5</v>
+        <v>27.6</v>
       </c>
       <c r="F32" t="n">
-        <v>29069.7728</v>
+        <v>392.8571</v>
       </c>
       <c r="G32" t="n">
-        <v>4418661.46143182</v>
+        <v>27.63333333333334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>28.3</v>
+        <v>27.4</v>
       </c>
       <c r="C33" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="D33" t="n">
-        <v>28.3</v>
+        <v>27.7</v>
       </c>
       <c r="E33" t="n">
-        <v>28</v>
+        <v>27.4</v>
       </c>
       <c r="F33" t="n">
-        <v>1860.571</v>
+        <v>12748.072</v>
       </c>
       <c r="G33" t="n">
-        <v>4416800.890431819</v>
+        <v>27.76666666666668</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1556,19 +1593,19 @@
         <v>27.8</v>
       </c>
       <c r="C34" t="n">
-        <v>28.6</v>
+        <v>27.8</v>
       </c>
       <c r="D34" t="n">
-        <v>28.6</v>
+        <v>27.8</v>
       </c>
       <c r="E34" t="n">
         <v>27.8</v>
       </c>
       <c r="F34" t="n">
-        <v>8516.968000000001</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>4425317.85843182</v>
+        <v>27.83333333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="C35" t="n">
-        <v>28.3</v>
+        <v>27.7</v>
       </c>
       <c r="D35" t="n">
-        <v>28.3</v>
+        <v>27.7</v>
       </c>
       <c r="E35" t="n">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="F35" t="n">
-        <v>5277.0462</v>
+        <v>1152.5736</v>
       </c>
       <c r="G35" t="n">
-        <v>4420040.81223182</v>
+        <v>27.73333333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>28.6</v>
+        <v>27.9</v>
       </c>
       <c r="C36" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="D36" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="E36" t="n">
-        <v>28.6</v>
+        <v>27.9</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>442</v>
       </c>
       <c r="G36" t="n">
-        <v>4420050.81223182</v>
+        <v>27.83333333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1661,19 +1701,19 @@
         <v>28</v>
       </c>
       <c r="C37" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="D37" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="E37" t="n">
         <v>28</v>
       </c>
       <c r="F37" t="n">
-        <v>3008.2163</v>
+        <v>22673.9093</v>
       </c>
       <c r="G37" t="n">
-        <v>4417042.59593182</v>
+        <v>27.93333333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>27.9</v>
+        <v>28.2</v>
       </c>
       <c r="C38" t="n">
-        <v>28</v>
+        <v>29.1</v>
       </c>
       <c r="D38" t="n">
-        <v>28</v>
+        <v>29.6</v>
       </c>
       <c r="E38" t="n">
-        <v>27.9</v>
+        <v>28.2</v>
       </c>
       <c r="F38" t="n">
-        <v>270.8249</v>
+        <v>83923.245</v>
       </c>
       <c r="G38" t="n">
-        <v>4417042.59593182</v>
+        <v>28.40000000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>27.9</v>
+        <v>28.5</v>
       </c>
       <c r="C39" t="n">
-        <v>27.9</v>
+        <v>29.6</v>
       </c>
       <c r="D39" t="n">
-        <v>27.9</v>
+        <v>29.6</v>
       </c>
       <c r="E39" t="n">
-        <v>27.9</v>
+        <v>28.5</v>
       </c>
       <c r="F39" t="n">
-        <v>4355.198</v>
+        <v>1284.3592</v>
       </c>
       <c r="G39" t="n">
-        <v>4412687.39793182</v>
+        <v>28.93333333333335</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>27.8</v>
+        <v>28.5</v>
       </c>
       <c r="C40" t="n">
-        <v>28</v>
+        <v>29.4</v>
       </c>
       <c r="D40" t="n">
-        <v>28</v>
+        <v>29.4</v>
       </c>
       <c r="E40" t="n">
-        <v>27.7</v>
+        <v>28.5</v>
       </c>
       <c r="F40" t="n">
-        <v>38439.7858</v>
+        <v>1316.3512</v>
       </c>
       <c r="G40" t="n">
-        <v>4451127.18373182</v>
+        <v>29.36666666666668</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,213 +1835,187 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>27.8</v>
+        <v>29.5</v>
       </c>
       <c r="C41" t="n">
-        <v>27.8</v>
+        <v>29.5</v>
       </c>
       <c r="D41" t="n">
-        <v>27.8</v>
+        <v>29.5</v>
       </c>
       <c r="E41" t="n">
-        <v>27.8</v>
+        <v>29.5</v>
       </c>
       <c r="F41" t="n">
-        <v>72053.5961</v>
+        <v>16001.9321</v>
       </c>
       <c r="G41" t="n">
-        <v>4379073.58763182</v>
+        <v>29.50000000000002</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>28</v>
-      </c>
-      <c r="K41" t="n">
-        <v>28</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>27.6</v>
+        <v>28.6</v>
       </c>
       <c r="C42" t="n">
-        <v>27.6</v>
+        <v>28.6</v>
       </c>
       <c r="D42" t="n">
-        <v>27.6</v>
+        <v>28.6</v>
       </c>
       <c r="E42" t="n">
-        <v>27.6</v>
+        <v>28.6</v>
       </c>
       <c r="F42" t="n">
-        <v>1671.4815</v>
+        <v>13650.7057</v>
       </c>
       <c r="G42" t="n">
-        <v>4377402.10613182</v>
+        <v>29.16666666666669</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K42" t="n">
-        <v>28</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>27.5</v>
+        <v>28.6</v>
       </c>
       <c r="C43" t="n">
-        <v>27.8</v>
+        <v>29.3</v>
       </c>
       <c r="D43" t="n">
-        <v>27.8</v>
+        <v>29.4</v>
       </c>
       <c r="E43" t="n">
-        <v>27.5</v>
+        <v>28.6</v>
       </c>
       <c r="F43" t="n">
-        <v>2096.7127</v>
+        <v>26278.2847</v>
       </c>
       <c r="G43" t="n">
-        <v>4379498.81883182</v>
+        <v>29.13333333333335</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K43" t="n">
-        <v>28</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>27.8</v>
+        <v>29.3</v>
       </c>
       <c r="C44" t="n">
-        <v>27.8</v>
+        <v>29.5</v>
       </c>
       <c r="D44" t="n">
-        <v>27.8</v>
+        <v>29.5</v>
       </c>
       <c r="E44" t="n">
-        <v>27.8</v>
+        <v>29.3</v>
       </c>
       <c r="F44" t="n">
-        <v>47</v>
+        <v>65605.7038</v>
       </c>
       <c r="G44" t="n">
-        <v>4379498.81883182</v>
+        <v>29.13333333333335</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>28</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>27.6</v>
+        <v>28.3</v>
       </c>
       <c r="C45" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="D45" t="n">
-        <v>27.6</v>
+        <v>28.3</v>
       </c>
       <c r="E45" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="F45" t="n">
-        <v>1613.4815</v>
+        <v>40845.1435</v>
       </c>
       <c r="G45" t="n">
-        <v>4377885.33733182</v>
+        <v>28.90000000000002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>28</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2008,19 +2025,19 @@
         <v>27.6</v>
       </c>
       <c r="C46" t="n">
-        <v>27.6</v>
+        <v>28.6</v>
       </c>
       <c r="D46" t="n">
-        <v>27.6</v>
+        <v>29.3</v>
       </c>
       <c r="E46" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F46" t="n">
-        <v>4132.3492</v>
+        <v>41147.4683</v>
       </c>
       <c r="G46" t="n">
-        <v>4377885.33733182</v>
+        <v>28.66666666666669</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2029,39 +2046,34 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>28</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>27.8</v>
+        <v>28.6</v>
       </c>
       <c r="C47" t="n">
         <v>27.8</v>
       </c>
       <c r="D47" t="n">
-        <v>27.8</v>
+        <v>28.6</v>
       </c>
       <c r="E47" t="n">
         <v>27.8</v>
       </c>
       <c r="F47" t="n">
-        <v>11</v>
+        <v>17092.2837</v>
       </c>
       <c r="G47" t="n">
-        <v>4377896.33733182</v>
+        <v>28.10000000000002</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2070,39 +2082,34 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>28</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>27.8</v>
+        <v>28.5</v>
       </c>
       <c r="C48" t="n">
-        <v>27.8</v>
+        <v>28.5</v>
       </c>
       <c r="D48" t="n">
-        <v>27.8</v>
+        <v>28.5</v>
       </c>
       <c r="E48" t="n">
-        <v>27.8</v>
+        <v>28.5</v>
       </c>
       <c r="F48" t="n">
-        <v>5814.964</v>
+        <v>11</v>
       </c>
       <c r="G48" t="n">
-        <v>4377896.33733182</v>
+        <v>28.30000000000002</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2111,125 +2118,106 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>28</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="C49" t="n">
-        <v>27.8</v>
+        <v>28.5</v>
       </c>
       <c r="D49" t="n">
-        <v>27.8</v>
+        <v>28.5</v>
       </c>
       <c r="E49" t="n">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="F49" t="n">
-        <v>540.4498</v>
+        <v>30516.0825</v>
       </c>
       <c r="G49" t="n">
-        <v>4377896.33733182</v>
+        <v>28.26666666666669</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K49" t="n">
-        <v>28</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C50" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="D50" t="n">
-        <v>28.6</v>
+        <v>27.7</v>
       </c>
       <c r="E50" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="F50" t="n">
-        <v>983.21678321</v>
+        <v>13963.8671</v>
       </c>
       <c r="G50" t="n">
-        <v>4378879.55411503</v>
+        <v>28.20000000000002</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K50" t="n">
-        <v>28</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C51" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D51" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E51" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F51" t="n">
-        <v>28256.0736</v>
+        <v>31907.5937</v>
       </c>
       <c r="G51" t="n">
-        <v>4350623.48051503</v>
+        <v>27.90000000000002</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,39 +2226,34 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>28</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="C52" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="D52" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="E52" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>28.8642</v>
       </c>
       <c r="G52" t="n">
-        <v>4350633.48051503</v>
+        <v>27.73333333333336</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2279,39 +2262,34 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>28</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>28.3</v>
+        <v>27.6</v>
       </c>
       <c r="C53" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="D53" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="E53" t="n">
-        <v>28.3</v>
+        <v>27.6</v>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>1486.9565</v>
       </c>
       <c r="G53" t="n">
-        <v>4350643.48051503</v>
+        <v>28.06666666666669</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2320,39 +2298,34 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>28</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C54" t="n">
-        <v>28.2</v>
+        <v>27.6</v>
       </c>
       <c r="D54" t="n">
-        <v>28.2</v>
+        <v>27.6</v>
       </c>
       <c r="E54" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F54" t="n">
-        <v>51828.5707</v>
+        <v>5441.2619</v>
       </c>
       <c r="G54" t="n">
-        <v>4298814.90981503</v>
+        <v>28.06666666666669</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2361,17 +2334,12 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>28</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2381,19 +2349,19 @@
         <v>27.6</v>
       </c>
       <c r="C55" t="n">
-        <v>27.6</v>
+        <v>28.6</v>
       </c>
       <c r="D55" t="n">
-        <v>27.6</v>
+        <v>28.6</v>
       </c>
       <c r="E55" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F55" t="n">
-        <v>2082.4772</v>
+        <v>31861.0096</v>
       </c>
       <c r="G55" t="n">
-        <v>4296732.432615031</v>
+        <v>28.26666666666669</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2402,39 +2370,34 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>28</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>27.6</v>
+        <v>28.7</v>
       </c>
       <c r="C56" t="n">
-        <v>27.6</v>
+        <v>28.7</v>
       </c>
       <c r="D56" t="n">
-        <v>27.6</v>
+        <v>28.7</v>
       </c>
       <c r="E56" t="n">
-        <v>27.6</v>
+        <v>28.7</v>
       </c>
       <c r="F56" t="n">
-        <v>917.5228</v>
+        <v>11</v>
       </c>
       <c r="G56" t="n">
-        <v>4296732.432615031</v>
+        <v>28.30000000000002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2443,395 +2406,343 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>28</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="C57" t="n">
-        <v>27.3</v>
+        <v>28.6</v>
       </c>
       <c r="D57" t="n">
-        <v>27.3</v>
+        <v>28.6</v>
       </c>
       <c r="E57" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>3325.1577</v>
       </c>
       <c r="G57" t="n">
-        <v>4296722.432615031</v>
+        <v>28.63333333333335</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>28</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>27.4</v>
+        <v>28.6</v>
       </c>
       <c r="C58" t="n">
-        <v>26.6</v>
+        <v>28.6</v>
       </c>
       <c r="D58" t="n">
-        <v>27.4</v>
+        <v>28.6</v>
       </c>
       <c r="E58" t="n">
-        <v>26.6</v>
+        <v>28.6</v>
       </c>
       <c r="F58" t="n">
-        <v>248260.9812</v>
+        <v>598.8111</v>
       </c>
       <c r="G58" t="n">
-        <v>4048461.451415031</v>
+        <v>28.63333333333335</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>28</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="C59" t="n">
-        <v>27.3</v>
+        <v>28.5</v>
       </c>
       <c r="D59" t="n">
-        <v>27.3</v>
+        <v>28.5</v>
       </c>
       <c r="E59" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>2974.968</v>
       </c>
       <c r="G59" t="n">
-        <v>4048471.451415031</v>
+        <v>28.56666666666669</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>28</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="C60" t="n">
-        <v>26.7</v>
+        <v>28.1</v>
       </c>
       <c r="D60" t="n">
-        <v>27.1</v>
+        <v>28.1</v>
       </c>
       <c r="E60" t="n">
-        <v>26.7</v>
+        <v>27.8</v>
       </c>
       <c r="F60" t="n">
-        <v>13799.9862</v>
+        <v>22</v>
       </c>
       <c r="G60" t="n">
-        <v>4034671.465215031</v>
+        <v>28.40000000000002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>28</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="C61" t="n">
-        <v>26.7</v>
+        <v>27.9</v>
       </c>
       <c r="D61" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="E61" t="n">
-        <v>26.7</v>
+        <v>27.9</v>
       </c>
       <c r="F61" t="n">
-        <v>7037.1287</v>
+        <v>1381.9813</v>
       </c>
       <c r="G61" t="n">
-        <v>4034671.465215031</v>
+        <v>28.1666666666667</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K61" t="n">
-        <v>28</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>26.7</v>
+        <v>28</v>
       </c>
       <c r="C62" t="n">
-        <v>26.9</v>
+        <v>28.2</v>
       </c>
       <c r="D62" t="n">
-        <v>27.1</v>
+        <v>28.2</v>
       </c>
       <c r="E62" t="n">
-        <v>26.7</v>
+        <v>28</v>
       </c>
       <c r="F62" t="n">
-        <v>15502.2939</v>
+        <v>21</v>
       </c>
       <c r="G62" t="n">
-        <v>4050173.759115031</v>
+        <v>28.06666666666669</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>28</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>26.7</v>
+        <v>28.3</v>
       </c>
       <c r="C63" t="n">
-        <v>27</v>
+        <v>28.3</v>
       </c>
       <c r="D63" t="n">
-        <v>27</v>
+        <v>28.3</v>
       </c>
       <c r="E63" t="n">
-        <v>26.7</v>
+        <v>28.3</v>
       </c>
       <c r="F63" t="n">
-        <v>3809.9863</v>
+        <v>10</v>
       </c>
       <c r="G63" t="n">
-        <v>4053983.745415031</v>
+        <v>28.13333333333336</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>28</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="C64" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="D64" t="n">
         <v>28.2</v>
       </c>
       <c r="E64" t="n">
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="F64" t="n">
-        <v>308482.332</v>
+        <v>4293.9013</v>
       </c>
       <c r="G64" t="n">
-        <v>4362466.07741503</v>
+        <v>28.13333333333336</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>28</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="C65" t="n">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="D65" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="E65" t="n">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="F65" t="n">
-        <v>42835.8932</v>
+        <v>34270.1896</v>
       </c>
       <c r="G65" t="n">
-        <v>4362466.07741503</v>
+        <v>27.9666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>28</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="C66" t="n">
         <v>28.2</v>
@@ -2843,480 +2754,420 @@
         <v>27.8</v>
       </c>
       <c r="F66" t="n">
-        <v>6358.5073</v>
+        <v>44394.1552</v>
       </c>
       <c r="G66" t="n">
-        <v>4368824.58471503</v>
+        <v>27.93333333333337</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>28</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="C67" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="D67" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="E67" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="F67" t="n">
-        <v>52.1428</v>
+        <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>4368824.58471503</v>
+        <v>28.0666666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>28</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="C68" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="D68" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="E68" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="F68" t="n">
-        <v>16458.6822</v>
+        <v>2824.5874</v>
       </c>
       <c r="G68" t="n">
-        <v>4352365.90251503</v>
+        <v>28.13333333333337</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>28</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="C69" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="D69" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="E69" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F69" t="n">
-        <v>14688.7681</v>
+        <v>7954.8972</v>
       </c>
       <c r="G69" t="n">
-        <v>4367054.67061503</v>
+        <v>28.00000000000003</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>28</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="C70" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="D70" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="E70" t="n">
-        <v>27</v>
+        <v>27.7</v>
       </c>
       <c r="F70" t="n">
-        <v>45.97</v>
+        <v>13114.6062</v>
       </c>
       <c r="G70" t="n">
-        <v>4367100.64061503</v>
+        <v>27.9666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>28</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>27</v>
+        <v>27.7</v>
       </c>
       <c r="C71" t="n">
-        <v>27</v>
+        <v>28.1</v>
       </c>
       <c r="D71" t="n">
-        <v>27</v>
+        <v>28.1</v>
       </c>
       <c r="E71" t="n">
-        <v>27</v>
+        <v>27.7</v>
       </c>
       <c r="F71" t="n">
-        <v>20000</v>
+        <v>34004.1239</v>
       </c>
       <c r="G71" t="n">
-        <v>4347100.64061503</v>
+        <v>28.03333333333337</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>28</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="C72" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="D72" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="E72" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>160011</v>
       </c>
       <c r="G72" t="n">
-        <v>4347110.64061503</v>
+        <v>28.10000000000004</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>28</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C73" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D73" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E73" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>5344.2333</v>
       </c>
       <c r="G73" t="n">
-        <v>4347120.64061503</v>
+        <v>27.8666666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>28</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C74" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="D74" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="E74" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F74" t="n">
-        <v>392.8571</v>
+        <v>452</v>
       </c>
       <c r="G74" t="n">
-        <v>4347513.49771503</v>
+        <v>27.8666666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>28</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C75" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="D75" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="E75" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="F75" t="n">
-        <v>12748.072</v>
+        <v>30139.32199068</v>
       </c>
       <c r="G75" t="n">
-        <v>4334765.42571503</v>
+        <v>27.53333333333337</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>28</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>27.8</v>
+        <v>27</v>
       </c>
       <c r="C76" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="D76" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E76" t="n">
-        <v>27.8</v>
+        <v>27</v>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>10020</v>
       </c>
       <c r="G76" t="n">
-        <v>4334775.42571503</v>
+        <v>27.6666666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>28</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C77" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D77" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E77" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F77" t="n">
-        <v>1152.5736</v>
+        <v>34</v>
       </c>
       <c r="G77" t="n">
-        <v>4333622.85211503</v>
+        <v>27.5666666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>28</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3326,142 +3177,127 @@
         <v>27.9</v>
       </c>
       <c r="C78" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="D78" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="E78" t="n">
-        <v>27.9</v>
+        <v>26.7</v>
       </c>
       <c r="F78" t="n">
-        <v>442</v>
+        <v>80</v>
       </c>
       <c r="G78" t="n">
-        <v>4334064.85211503</v>
+        <v>27.8666666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>28</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>28</v>
+        <v>26.8</v>
       </c>
       <c r="C79" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="D79" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="E79" t="n">
-        <v>28</v>
+        <v>26.8</v>
       </c>
       <c r="F79" t="n">
-        <v>22673.9093</v>
+        <v>40010</v>
       </c>
       <c r="G79" t="n">
-        <v>4356738.761415031</v>
+        <v>27.8666666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>28</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>28.2</v>
+        <v>26.8</v>
       </c>
       <c r="C80" t="n">
-        <v>29.1</v>
+        <v>26.3</v>
       </c>
       <c r="D80" t="n">
-        <v>29.6</v>
+        <v>26.8</v>
       </c>
       <c r="E80" t="n">
-        <v>28.2</v>
+        <v>26.3</v>
       </c>
       <c r="F80" t="n">
-        <v>83923.245</v>
+        <v>199200.8637</v>
       </c>
       <c r="G80" t="n">
-        <v>4440662.006415031</v>
+        <v>27.3666666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>28</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>28.5</v>
+        <v>26.4</v>
       </c>
       <c r="C81" t="n">
-        <v>29.6</v>
+        <v>27.7</v>
       </c>
       <c r="D81" t="n">
-        <v>29.6</v>
+        <v>27.7</v>
       </c>
       <c r="E81" t="n">
-        <v>28.5</v>
+        <v>26.4</v>
       </c>
       <c r="F81" t="n">
-        <v>1284.3592</v>
+        <v>3467.7132</v>
       </c>
       <c r="G81" t="n">
-        <v>4441946.365615031</v>
+        <v>27.30000000000004</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3470,86 +3306,76 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>28</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>28.5</v>
+        <v>27.4</v>
       </c>
       <c r="C82" t="n">
-        <v>29.4</v>
+        <v>27.4</v>
       </c>
       <c r="D82" t="n">
-        <v>29.4</v>
+        <v>27.4</v>
       </c>
       <c r="E82" t="n">
-        <v>28.5</v>
+        <v>27.4</v>
       </c>
       <c r="F82" t="n">
-        <v>1316.3512</v>
+        <v>6094.27</v>
       </c>
       <c r="G82" t="n">
-        <v>4440630.01441503</v>
+        <v>27.13333333333337</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>28</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>1.045</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>29.5</v>
+        <v>26.4</v>
       </c>
       <c r="C83" t="n">
-        <v>29.5</v>
+        <v>26</v>
       </c>
       <c r="D83" t="n">
-        <v>29.5</v>
+        <v>26.4</v>
       </c>
       <c r="E83" t="n">
-        <v>29.5</v>
+        <v>26</v>
       </c>
       <c r="F83" t="n">
-        <v>16001.9321</v>
+        <v>160115.8836</v>
       </c>
       <c r="G83" t="n">
-        <v>4456631.94651503</v>
+        <v>27.03333333333337</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3557,34 +3383,35 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>28.6</v>
+        <v>27.3</v>
       </c>
       <c r="C84" t="n">
-        <v>28.6</v>
+        <v>26.9</v>
       </c>
       <c r="D84" t="n">
-        <v>28.6</v>
+        <v>27.3</v>
       </c>
       <c r="E84" t="n">
-        <v>28.6</v>
+        <v>26</v>
       </c>
       <c r="F84" t="n">
-        <v>13650.7057</v>
+        <v>213721.6489</v>
       </c>
       <c r="G84" t="n">
-        <v>4442981.24081503</v>
+        <v>26.7666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3592,34 +3419,35 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>28.6</v>
+        <v>26.1</v>
       </c>
       <c r="C85" t="n">
-        <v>29.3</v>
+        <v>27.2</v>
       </c>
       <c r="D85" t="n">
-        <v>29.4</v>
+        <v>27.2</v>
       </c>
       <c r="E85" t="n">
-        <v>28.6</v>
+        <v>26.1</v>
       </c>
       <c r="F85" t="n">
-        <v>26278.2847</v>
+        <v>4607.2653</v>
       </c>
       <c r="G85" t="n">
-        <v>4469259.52551503</v>
+        <v>26.70000000000003</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3627,34 +3455,35 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>29.3</v>
+        <v>26.3</v>
       </c>
       <c r="C86" t="n">
-        <v>29.5</v>
+        <v>27.2</v>
       </c>
       <c r="D86" t="n">
-        <v>29.5</v>
+        <v>27.2</v>
       </c>
       <c r="E86" t="n">
-        <v>29.3</v>
+        <v>26.3</v>
       </c>
       <c r="F86" t="n">
-        <v>65605.7038</v>
+        <v>11177.5563</v>
       </c>
       <c r="G86" t="n">
-        <v>4534865.22931503</v>
+        <v>27.10000000000004</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3662,34 +3491,35 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>28.3</v>
+        <v>26.3</v>
       </c>
       <c r="C87" t="n">
-        <v>27.9</v>
+        <v>26.3</v>
       </c>
       <c r="D87" t="n">
-        <v>28.3</v>
+        <v>26.3</v>
       </c>
       <c r="E87" t="n">
-        <v>27.9</v>
+        <v>26.3</v>
       </c>
       <c r="F87" t="n">
-        <v>40845.1435</v>
+        <v>11728.8442</v>
       </c>
       <c r="G87" t="n">
-        <v>4494020.08581503</v>
+        <v>26.90000000000003</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3697,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="C88" t="n">
-        <v>28.6</v>
+        <v>26.3</v>
       </c>
       <c r="D88" t="n">
-        <v>29.3</v>
+        <v>26.4</v>
       </c>
       <c r="E88" t="n">
-        <v>27.3</v>
+        <v>26.3</v>
       </c>
       <c r="F88" t="n">
-        <v>41147.4683</v>
+        <v>5104.3689</v>
       </c>
       <c r="G88" t="n">
-        <v>4535167.55411503</v>
+        <v>26.60000000000003</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3732,63 +3563,69 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>28.6</v>
+        <v>26.6</v>
       </c>
       <c r="C89" t="n">
-        <v>27.8</v>
+        <v>27</v>
       </c>
       <c r="D89" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="E89" t="n">
-        <v>27.8</v>
+        <v>26.6</v>
       </c>
       <c r="F89" t="n">
-        <v>17092.2837</v>
+        <v>22</v>
       </c>
       <c r="G89" t="n">
-        <v>4518075.27041503</v>
+        <v>26.53333333333336</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K89" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>28.5</v>
+        <v>26.5</v>
       </c>
       <c r="C90" t="n">
-        <v>28.5</v>
+        <v>27.2</v>
       </c>
       <c r="D90" t="n">
-        <v>28.5</v>
+        <v>27.2</v>
       </c>
       <c r="E90" t="n">
-        <v>28.5</v>
+        <v>26.5</v>
       </c>
       <c r="F90" t="n">
-        <v>11</v>
+        <v>7347</v>
       </c>
       <c r="G90" t="n">
-        <v>4518086.27041503</v>
+        <v>26.83333333333337</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3797,33 +3634,40 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>28</v>
+        <v>26.9</v>
       </c>
       <c r="C91" t="n">
-        <v>28.5</v>
+        <v>26.9</v>
       </c>
       <c r="D91" t="n">
-        <v>28.5</v>
+        <v>26.9</v>
       </c>
       <c r="E91" t="n">
-        <v>28</v>
+        <v>26.9</v>
       </c>
       <c r="F91" t="n">
-        <v>30516.0825</v>
+        <v>6281</v>
       </c>
       <c r="G91" t="n">
-        <v>4518086.27041503</v>
+        <v>27.03333333333336</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3832,278 +3676,348 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>27.7</v>
+        <v>26.6</v>
       </c>
       <c r="C92" t="n">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="D92" t="n">
-        <v>27.7</v>
+        <v>26.6</v>
       </c>
       <c r="E92" t="n">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="F92" t="n">
-        <v>13963.8671</v>
+        <v>32662.1649</v>
       </c>
       <c r="G92" t="n">
-        <v>4504122.40331503</v>
+        <v>26.8666666666667</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K92" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>27.6</v>
+        <v>26.7</v>
       </c>
       <c r="C93" t="n">
-        <v>27.6</v>
+        <v>26.7</v>
       </c>
       <c r="D93" t="n">
-        <v>27.6</v>
+        <v>26.7</v>
       </c>
       <c r="E93" t="n">
-        <v>27.6</v>
+        <v>26.7</v>
       </c>
       <c r="F93" t="n">
-        <v>31907.5937</v>
+        <v>2288</v>
       </c>
       <c r="G93" t="n">
-        <v>4504122.40331503</v>
+        <v>26.70000000000003</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>27.9</v>
+        <v>26.6</v>
       </c>
       <c r="C94" t="n">
-        <v>28</v>
+        <v>26.6</v>
       </c>
       <c r="D94" t="n">
-        <v>28</v>
+        <v>26.6</v>
       </c>
       <c r="E94" t="n">
-        <v>27.9</v>
+        <v>26.6</v>
       </c>
       <c r="F94" t="n">
-        <v>28.8642</v>
+        <v>4623.5831</v>
       </c>
       <c r="G94" t="n">
-        <v>4504151.26751503</v>
+        <v>26.60000000000003</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K94" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="C95" t="n">
-        <v>28.6</v>
+        <v>26.3</v>
       </c>
       <c r="D95" t="n">
-        <v>28.6</v>
+        <v>26.4</v>
       </c>
       <c r="E95" t="n">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="F95" t="n">
-        <v>1486.9565</v>
+        <v>11139.6374</v>
       </c>
       <c r="G95" t="n">
-        <v>4505638.22401503</v>
+        <v>26.53333333333336</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="K95" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="C96" t="n">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="D96" t="n">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="E96" t="n">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="F96" t="n">
-        <v>5441.2619</v>
+        <v>837.9124</v>
       </c>
       <c r="G96" t="n">
-        <v>4500196.96211503</v>
+        <v>26.40000000000003</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K96" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>27.6</v>
+        <v>26.9</v>
       </c>
       <c r="C97" t="n">
-        <v>28.6</v>
+        <v>26.9</v>
       </c>
       <c r="D97" t="n">
-        <v>28.6</v>
+        <v>26.9</v>
       </c>
       <c r="E97" t="n">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="F97" t="n">
-        <v>31861.0096</v>
+        <v>11</v>
       </c>
       <c r="G97" t="n">
-        <v>4532057.97171503</v>
+        <v>26.50000000000003</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K97" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>28.7</v>
+        <v>26.3</v>
       </c>
       <c r="C98" t="n">
-        <v>28.7</v>
+        <v>26.9</v>
       </c>
       <c r="D98" t="n">
-        <v>28.7</v>
+        <v>26.9</v>
       </c>
       <c r="E98" t="n">
-        <v>28.7</v>
+        <v>26.2</v>
       </c>
       <c r="F98" t="n">
-        <v>11</v>
+        <v>4832.9573</v>
       </c>
       <c r="G98" t="n">
-        <v>4532068.97171503</v>
+        <v>26.70000000000003</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K98" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>28</v>
+        <v>26.2</v>
       </c>
       <c r="C99" t="n">
-        <v>28.6</v>
+        <v>26.1</v>
       </c>
       <c r="D99" t="n">
-        <v>28.6</v>
+        <v>26.2</v>
       </c>
       <c r="E99" t="n">
-        <v>28</v>
+        <v>26.1</v>
       </c>
       <c r="F99" t="n">
-        <v>3325.1577</v>
+        <v>29222.2723</v>
       </c>
       <c r="G99" t="n">
-        <v>4528743.81401503</v>
+        <v>26.63333333333337</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4112,68 +4026,84 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>28.6</v>
+        <v>26.1</v>
       </c>
       <c r="C100" t="n">
-        <v>28.6</v>
+        <v>26.7</v>
       </c>
       <c r="D100" t="n">
-        <v>28.6</v>
+        <v>26.7</v>
       </c>
       <c r="E100" t="n">
-        <v>28.6</v>
+        <v>25.9</v>
       </c>
       <c r="F100" t="n">
-        <v>598.8111</v>
+        <v>29233.2723</v>
       </c>
       <c r="G100" t="n">
-        <v>4528743.81401503</v>
+        <v>26.5666666666667</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>27.8</v>
+        <v>26.6</v>
       </c>
       <c r="C101" t="n">
-        <v>28.5</v>
+        <v>27.1</v>
       </c>
       <c r="D101" t="n">
-        <v>28.5</v>
+        <v>27.1</v>
       </c>
       <c r="E101" t="n">
-        <v>27.8</v>
+        <v>26.6</v>
       </c>
       <c r="F101" t="n">
-        <v>2974.968</v>
+        <v>47856.9107</v>
       </c>
       <c r="G101" t="n">
-        <v>4525768.84601503</v>
+        <v>26.63333333333336</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4182,68 +4112,84 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>27.8</v>
+        <v>26.4</v>
       </c>
       <c r="C102" t="n">
-        <v>28.1</v>
+        <v>26.9</v>
       </c>
       <c r="D102" t="n">
-        <v>28.1</v>
+        <v>26.9</v>
       </c>
       <c r="E102" t="n">
-        <v>27.8</v>
+        <v>26.4</v>
       </c>
       <c r="F102" t="n">
-        <v>22</v>
+        <v>5724.409</v>
       </c>
       <c r="G102" t="n">
-        <v>4525746.84601503</v>
+        <v>26.90000000000003</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>27.9</v>
+        <v>26.4</v>
       </c>
       <c r="C103" t="n">
-        <v>27.9</v>
+        <v>26.4</v>
       </c>
       <c r="D103" t="n">
-        <v>27.9</v>
+        <v>26.4</v>
       </c>
       <c r="E103" t="n">
-        <v>27.9</v>
+        <v>26.4</v>
       </c>
       <c r="F103" t="n">
-        <v>1381.9813</v>
+        <v>17351.8087</v>
       </c>
       <c r="G103" t="n">
-        <v>4524364.864715029</v>
+        <v>26.80000000000004</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4252,418 +4198,524 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>28</v>
+        <v>26.5</v>
       </c>
       <c r="C104" t="n">
-        <v>28.2</v>
+        <v>26.5</v>
       </c>
       <c r="D104" t="n">
-        <v>28.2</v>
+        <v>26.5</v>
       </c>
       <c r="E104" t="n">
-        <v>28</v>
+        <v>26.5</v>
       </c>
       <c r="F104" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G104" t="n">
-        <v>4524385.864715029</v>
+        <v>26.60000000000003</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="K104" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>28.3</v>
+        <v>26.6</v>
       </c>
       <c r="C105" t="n">
-        <v>28.3</v>
+        <v>26.7</v>
       </c>
       <c r="D105" t="n">
-        <v>28.3</v>
+        <v>26.7</v>
       </c>
       <c r="E105" t="n">
-        <v>28.3</v>
+        <v>26.6</v>
       </c>
       <c r="F105" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G105" t="n">
-        <v>4524395.864715029</v>
+        <v>26.53333333333337</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="K105" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>27.9</v>
+        <v>26.7</v>
       </c>
       <c r="C106" t="n">
-        <v>27.9</v>
+        <v>26.6</v>
       </c>
       <c r="D106" t="n">
-        <v>28.2</v>
+        <v>26.7</v>
       </c>
       <c r="E106" t="n">
-        <v>27.9</v>
+        <v>26.1</v>
       </c>
       <c r="F106" t="n">
-        <v>4293.9013</v>
+        <v>10528.9406</v>
       </c>
       <c r="G106" t="n">
-        <v>4520101.963415029</v>
+        <v>26.60000000000003</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K106" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="C107" t="n">
-        <v>27.7</v>
+        <v>26.2</v>
       </c>
       <c r="D107" t="n">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="E107" t="n">
-        <v>27.7</v>
+        <v>26.2</v>
       </c>
       <c r="F107" t="n">
-        <v>34270.1896</v>
+        <v>3098</v>
       </c>
       <c r="G107" t="n">
-        <v>4485831.773815029</v>
+        <v>26.50000000000003</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="K107" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>27.8</v>
+        <v>26.4</v>
       </c>
       <c r="C108" t="n">
-        <v>28.2</v>
+        <v>26.4</v>
       </c>
       <c r="D108" t="n">
-        <v>28.2</v>
+        <v>26.4</v>
       </c>
       <c r="E108" t="n">
-        <v>27.8</v>
+        <v>26.4</v>
       </c>
       <c r="F108" t="n">
-        <v>44394.1552</v>
+        <v>11</v>
       </c>
       <c r="G108" t="n">
-        <v>4530225.929015029</v>
+        <v>26.40000000000003</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K108" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>28.3</v>
+        <v>26.7</v>
       </c>
       <c r="C109" t="n">
-        <v>28.3</v>
+        <v>26.7</v>
       </c>
       <c r="D109" t="n">
-        <v>28.3</v>
+        <v>26.7</v>
       </c>
       <c r="E109" t="n">
-        <v>28.3</v>
+        <v>26.7</v>
       </c>
       <c r="F109" t="n">
         <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>4530235.929015029</v>
+        <v>26.43333333333337</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="K109" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>27.9</v>
+        <v>26.2</v>
       </c>
       <c r="C110" t="n">
-        <v>27.9</v>
+        <v>27.1</v>
       </c>
       <c r="D110" t="n">
-        <v>27.9</v>
+        <v>27.1</v>
       </c>
       <c r="E110" t="n">
-        <v>27.9</v>
+        <v>26.2</v>
       </c>
       <c r="F110" t="n">
-        <v>2824.5874</v>
+        <v>18133.686</v>
       </c>
       <c r="G110" t="n">
-        <v>4527411.34161503</v>
+        <v>26.73333333333336</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K110" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="C111" t="n">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="D111" t="n">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="E111" t="n">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="F111" t="n">
-        <v>7954.8972</v>
+        <v>3584.2294</v>
       </c>
       <c r="G111" t="n">
-        <v>4519456.44441503</v>
+        <v>26.6666666666667</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="C112" t="n">
-        <v>28.2</v>
+        <v>26.3</v>
       </c>
       <c r="D112" t="n">
-        <v>28.2</v>
+        <v>26.3</v>
       </c>
       <c r="E112" t="n">
-        <v>27.7</v>
+        <v>26.2</v>
       </c>
       <c r="F112" t="n">
-        <v>13114.6062</v>
+        <v>3077.373</v>
       </c>
       <c r="G112" t="n">
-        <v>4532571.05061503</v>
+        <v>26.53333333333336</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K112" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>27.7</v>
+        <v>26.6</v>
       </c>
       <c r="C113" t="n">
-        <v>28.1</v>
+        <v>26.6</v>
       </c>
       <c r="D113" t="n">
-        <v>28.1</v>
+        <v>26.6</v>
       </c>
       <c r="E113" t="n">
-        <v>27.7</v>
+        <v>26.6</v>
       </c>
       <c r="F113" t="n">
-        <v>34004.1239</v>
+        <v>10</v>
       </c>
       <c r="G113" t="n">
-        <v>4498566.92671503</v>
+        <v>26.36666666666669</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K113" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>27.7</v>
+        <v>26.4</v>
       </c>
       <c r="C114" t="n">
-        <v>28</v>
+        <v>26.8</v>
       </c>
       <c r="D114" t="n">
-        <v>28</v>
+        <v>26.8</v>
       </c>
       <c r="E114" t="n">
-        <v>27.5</v>
+        <v>26.4</v>
       </c>
       <c r="F114" t="n">
-        <v>160011</v>
+        <v>19951.572</v>
       </c>
       <c r="G114" t="n">
-        <v>4338555.92671503</v>
+        <v>26.56666666666669</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="K114" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>27.5</v>
+        <v>26.8</v>
       </c>
       <c r="C115" t="n">
-        <v>27.5</v>
+        <v>26.8</v>
       </c>
       <c r="D115" t="n">
-        <v>27.5</v>
+        <v>26.8</v>
       </c>
       <c r="E115" t="n">
-        <v>27.5</v>
+        <v>26.8</v>
       </c>
       <c r="F115" t="n">
-        <v>5344.2333</v>
+        <v>12746.2922</v>
       </c>
       <c r="G115" t="n">
-        <v>4333211.69341503</v>
+        <v>26.73333333333336</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4672,33 +4724,40 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>27.8</v>
+        <v>26.9</v>
       </c>
       <c r="C116" t="n">
-        <v>28.1</v>
+        <v>26.9</v>
       </c>
       <c r="D116" t="n">
-        <v>28.1</v>
+        <v>26.9</v>
       </c>
       <c r="E116" t="n">
-        <v>27.4</v>
+        <v>26.9</v>
       </c>
       <c r="F116" t="n">
-        <v>452</v>
+        <v>10192.8456</v>
       </c>
       <c r="G116" t="n">
-        <v>4333663.69341503</v>
+        <v>26.83333333333336</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4707,1705 +4766,18 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C117" t="n">
-        <v>27</v>
-      </c>
-      <c r="D117" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E117" t="n">
-        <v>27</v>
-      </c>
-      <c r="F117" t="n">
-        <v>30139.32199068</v>
-      </c>
-      <c r="G117" t="n">
-        <v>4303524.37142435</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>27</v>
-      </c>
-      <c r="C118" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D118" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E118" t="n">
-        <v>27</v>
-      </c>
-      <c r="F118" t="n">
-        <v>10020</v>
-      </c>
-      <c r="G118" t="n">
-        <v>4313544.37142435</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C119" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D119" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E119" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F119" t="n">
-        <v>34</v>
-      </c>
-      <c r="G119" t="n">
-        <v>4313510.37142435</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C120" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D120" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E120" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F120" t="n">
-        <v>80</v>
-      </c>
-      <c r="G120" t="n">
-        <v>4313590.37142435</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C121" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D121" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E121" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F121" t="n">
-        <v>40010</v>
-      </c>
-      <c r="G121" t="n">
-        <v>4313590.37142435</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C122" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D122" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E122" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F122" t="n">
-        <v>199200.8637</v>
-      </c>
-      <c r="G122" t="n">
-        <v>4114389.50772435</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C123" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D123" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E123" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F123" t="n">
-        <v>3467.7132</v>
-      </c>
-      <c r="G123" t="n">
-        <v>4117857.22092435</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K123" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C124" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D124" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E124" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F124" t="n">
-        <v>6094.27</v>
-      </c>
-      <c r="G124" t="n">
-        <v>4111762.95092435</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C125" t="n">
-        <v>26</v>
-      </c>
-      <c r="D125" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E125" t="n">
-        <v>26</v>
-      </c>
-      <c r="F125" t="n">
-        <v>160115.8836</v>
-      </c>
-      <c r="G125" t="n">
-        <v>3951647.06732435</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K125" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C126" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D126" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E126" t="n">
-        <v>26</v>
-      </c>
-      <c r="F126" t="n">
-        <v>213721.6489</v>
-      </c>
-      <c r="G126" t="n">
-        <v>4165368.71622435</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="K116" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C127" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D127" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E127" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F127" t="n">
-        <v>4607.2653</v>
-      </c>
-      <c r="G127" t="n">
-        <v>4169975.98152435</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="C128" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D128" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E128" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F128" t="n">
-        <v>11177.5563</v>
-      </c>
-      <c r="G128" t="n">
-        <v>4169975.98152435</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="C129" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D129" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="E129" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F129" t="n">
-        <v>11728.8442</v>
-      </c>
-      <c r="G129" t="n">
-        <v>4158247.13732435</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C130" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D130" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E130" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F130" t="n">
-        <v>5104.3689</v>
-      </c>
-      <c r="G130" t="n">
-        <v>4158247.13732435</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K130" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C131" t="n">
-        <v>27</v>
-      </c>
-      <c r="D131" t="n">
-        <v>27</v>
-      </c>
-      <c r="E131" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F131" t="n">
-        <v>22</v>
-      </c>
-      <c r="G131" t="n">
-        <v>4158269.13732435</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K131" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="C132" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D132" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E132" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F132" t="n">
-        <v>7347</v>
-      </c>
-      <c r="G132" t="n">
-        <v>4165616.13732435</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C133" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D133" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E133" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F133" t="n">
-        <v>6281</v>
-      </c>
-      <c r="G133" t="n">
-        <v>4159335.13732435</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C134" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="D134" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="E134" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F134" t="n">
-        <v>32662.1649</v>
-      </c>
-      <c r="G134" t="n">
-        <v>4126672.97242435</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C135" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D135" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E135" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F135" t="n">
-        <v>2288</v>
-      </c>
-      <c r="G135" t="n">
-        <v>4128960.97242435</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C136" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D136" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="E136" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F136" t="n">
-        <v>4623.5831</v>
-      </c>
-      <c r="G136" t="n">
-        <v>4124337.38932435</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C137" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D137" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E137" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F137" t="n">
-        <v>11139.6374</v>
-      </c>
-      <c r="G137" t="n">
-        <v>4113197.75192435</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="C138" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D138" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="E138" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F138" t="n">
-        <v>837.9124</v>
-      </c>
-      <c r="G138" t="n">
-        <v>4113197.75192435</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C139" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D139" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E139" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F139" t="n">
-        <v>11</v>
-      </c>
-      <c r="G139" t="n">
-        <v>4113208.75192435</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="C140" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D140" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E140" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F140" t="n">
-        <v>4832.9573</v>
-      </c>
-      <c r="G140" t="n">
-        <v>4113208.75192435</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C141" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D141" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E141" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F141" t="n">
-        <v>29222.2723</v>
-      </c>
-      <c r="G141" t="n">
-        <v>4083986.47962435</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C142" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D142" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E142" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F142" t="n">
-        <v>29233.2723</v>
-      </c>
-      <c r="G142" t="n">
-        <v>4113219.75192435</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K142" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C143" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D143" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E143" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F143" t="n">
-        <v>47856.9107</v>
-      </c>
-      <c r="G143" t="n">
-        <v>4161076.66262435</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K143" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C144" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D144" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E144" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F144" t="n">
-        <v>5724.409</v>
-      </c>
-      <c r="G144" t="n">
-        <v>4155352.25362435</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C145" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D145" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E145" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F145" t="n">
-        <v>17351.8087</v>
-      </c>
-      <c r="G145" t="n">
-        <v>4138000.44492435</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="C146" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="D146" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="E146" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F146" t="n">
-        <v>11</v>
-      </c>
-      <c r="G146" t="n">
-        <v>4138011.44492435</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C147" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D147" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E147" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F147" t="n">
-        <v>22</v>
-      </c>
-      <c r="G147" t="n">
-        <v>4138033.44492435</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C148" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D148" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E148" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F148" t="n">
-        <v>10528.9406</v>
-      </c>
-      <c r="G148" t="n">
-        <v>4127504.50432435</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C149" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D149" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E149" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F149" t="n">
-        <v>3098</v>
-      </c>
-      <c r="G149" t="n">
-        <v>4124406.50432435</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C150" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D150" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E150" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F150" t="n">
-        <v>11</v>
-      </c>
-      <c r="G150" t="n">
-        <v>4124417.50432435</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C151" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D151" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E151" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F151" t="n">
-        <v>10</v>
-      </c>
-      <c r="G151" t="n">
-        <v>4124427.50432435</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C152" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D152" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="E152" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F152" t="n">
-        <v>18133.686</v>
-      </c>
-      <c r="G152" t="n">
-        <v>4142561.19032435</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C153" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D153" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E153" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F153" t="n">
-        <v>3584.2294</v>
-      </c>
-      <c r="G153" t="n">
-        <v>4138976.96092435</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C154" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D154" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="E154" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F154" t="n">
-        <v>3077.373</v>
-      </c>
-      <c r="G154" t="n">
-        <v>4142054.33392435</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C155" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D155" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="E155" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F155" t="n">
-        <v>10</v>
-      </c>
-      <c r="G155" t="n">
-        <v>4142064.33392435</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C156" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D156" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E156" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F156" t="n">
-        <v>19951.572</v>
-      </c>
-      <c r="G156" t="n">
-        <v>4162015.90592435</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="C157" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="D157" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="E157" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F157" t="n">
-        <v>12746.2922</v>
-      </c>
-      <c r="G157" t="n">
-        <v>4162015.90592435</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C158" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D158" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E158" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="F158" t="n">
-        <v>10192.8456</v>
-      </c>
-      <c r="G158" t="n">
-        <v>4172208.751524351</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-31 BackTest CHR.xlsx
+++ b/BackTest/2019-10-31 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27.8</v>
+        <v>26.1</v>
       </c>
       <c r="C2" t="n">
-        <v>27.8</v>
+        <v>26.1</v>
       </c>
       <c r="D2" t="n">
-        <v>27.8</v>
+        <v>26.1</v>
       </c>
       <c r="E2" t="n">
-        <v>27.8</v>
+        <v>26.1</v>
       </c>
       <c r="F2" t="n">
-        <v>47</v>
+        <v>9386.6592</v>
       </c>
       <c r="G2" t="n">
-        <v>27.73333333333334</v>
+        <v>-65216.85516817998</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,32 +474,38 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="C3" t="n">
-        <v>27.6</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="E3" t="n">
-        <v>27.6</v>
+        <v>26</v>
       </c>
       <c r="F3" t="n">
-        <v>1613.4815</v>
+        <v>35000</v>
       </c>
       <c r="G3" t="n">
-        <v>27.73333333333335</v>
+        <v>-100216.85516818</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>26.1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -510,32 +516,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.6</v>
+        <v>27.1</v>
       </c>
       <c r="C4" t="n">
-        <v>27.6</v>
+        <v>27.1</v>
       </c>
       <c r="D4" t="n">
-        <v>27.6</v>
+        <v>27.1</v>
       </c>
       <c r="E4" t="n">
-        <v>27.6</v>
+        <v>27.1</v>
       </c>
       <c r="F4" t="n">
-        <v>4132.3492</v>
+        <v>14.8708</v>
       </c>
       <c r="G4" t="n">
-        <v>27.66666666666668</v>
+        <v>-100201.98436818</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>26</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.8</v>
+        <v>26.1</v>
       </c>
       <c r="C5" t="n">
-        <v>27.8</v>
+        <v>26.9</v>
       </c>
       <c r="D5" t="n">
-        <v>27.8</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>27.8</v>
+        <v>26.1</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>6234.772</v>
       </c>
       <c r="G5" t="n">
-        <v>27.66666666666668</v>
+        <v>-106436.75636818</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.8</v>
+        <v>26.8</v>
       </c>
       <c r="C6" t="n">
-        <v>27.8</v>
+        <v>26.8</v>
       </c>
       <c r="D6" t="n">
-        <v>27.8</v>
+        <v>26.8</v>
       </c>
       <c r="E6" t="n">
-        <v>27.8</v>
+        <v>26.8</v>
       </c>
       <c r="F6" t="n">
-        <v>5814.964</v>
+        <v>22.9141</v>
       </c>
       <c r="G6" t="n">
-        <v>27.73333333333335</v>
+        <v>-106459.67046818</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -607,7 +625,11 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,22 +640,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.5</v>
+        <v>26.1</v>
       </c>
       <c r="C7" t="n">
-        <v>27.8</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>27.8</v>
+        <v>26.1</v>
       </c>
       <c r="E7" t="n">
-        <v>27.5</v>
+        <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>540.4498</v>
+        <v>27299.2843</v>
       </c>
       <c r="G7" t="n">
-        <v>27.80000000000001</v>
+        <v>-133758.95476818</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +665,11 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +680,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.8</v>
+        <v>26.4</v>
       </c>
       <c r="C8" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="E8" t="n">
-        <v>27.8</v>
+        <v>26.4</v>
       </c>
       <c r="F8" t="n">
-        <v>983.21678321</v>
+        <v>45859.2854</v>
       </c>
       <c r="G8" t="n">
-        <v>28.06666666666668</v>
+        <v>-87899.66936817998</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -679,7 +705,11 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +720,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="C9" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D9" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="E9" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F9" t="n">
-        <v>28256.0736</v>
+        <v>97198.4216</v>
       </c>
       <c r="G9" t="n">
-        <v>27.90000000000001</v>
+        <v>9298.752231820021</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -715,7 +745,11 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +760,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="C10" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="D10" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="E10" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>4182.9854</v>
       </c>
       <c r="G10" t="n">
-        <v>27.86666666666668</v>
+        <v>13481.73763182002</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,7 +785,11 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +800,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28.3</v>
+        <v>26.4</v>
       </c>
       <c r="C11" t="n">
-        <v>28.3</v>
+        <v>27.5</v>
       </c>
       <c r="D11" t="n">
-        <v>28.3</v>
+        <v>27.5</v>
       </c>
       <c r="E11" t="n">
-        <v>28.3</v>
+        <v>26.4</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>58.8</v>
       </c>
       <c r="G11" t="n">
-        <v>27.76666666666668</v>
+        <v>13540.53763182002</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -787,7 +825,11 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +840,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C12" t="n">
-        <v>28.2</v>
+        <v>27.6</v>
       </c>
       <c r="D12" t="n">
-        <v>28.2</v>
+        <v>27.6</v>
       </c>
       <c r="E12" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F12" t="n">
-        <v>51828.5707</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>28.06666666666668</v>
+        <v>13550.53763182002</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -823,7 +865,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +880,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27.6</v>
+        <v>26.8</v>
       </c>
       <c r="C13" t="n">
-        <v>27.6</v>
+        <v>26.7</v>
       </c>
       <c r="D13" t="n">
-        <v>27.6</v>
+        <v>26.8</v>
       </c>
       <c r="E13" t="n">
-        <v>27.6</v>
+        <v>26.7</v>
       </c>
       <c r="F13" t="n">
-        <v>2082.4772</v>
+        <v>12771.7032</v>
       </c>
       <c r="G13" t="n">
-        <v>28.03333333333335</v>
+        <v>778.8344318200197</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -859,7 +905,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +920,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C14" t="n">
-        <v>27.6</v>
+        <v>26.7</v>
       </c>
       <c r="D14" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E14" t="n">
-        <v>27.6</v>
+        <v>26.7</v>
       </c>
       <c r="F14" t="n">
-        <v>917.5228</v>
+        <v>20021.2919</v>
       </c>
       <c r="G14" t="n">
-        <v>27.80000000000001</v>
+        <v>778.8344318200197</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -895,7 +945,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +960,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="C15" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="D15" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="E15" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="G15" t="n">
-        <v>27.50000000000001</v>
+        <v>778.8344318200197</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -931,7 +985,11 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1000,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C16" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="D16" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E16" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="F16" t="n">
-        <v>248260.9812</v>
+        <v>28.7132</v>
       </c>
       <c r="G16" t="n">
-        <v>27.16666666666669</v>
+        <v>807.5476318200198</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -967,7 +1025,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1040,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="C17" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="E17" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>200.8401</v>
       </c>
       <c r="G17" t="n">
-        <v>27.06666666666668</v>
+        <v>606.7075318200198</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1003,7 +1065,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1080,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>27.1</v>
+        <v>26.6</v>
       </c>
       <c r="C18" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="D18" t="n">
-        <v>27.1</v>
+        <v>26.6</v>
       </c>
       <c r="E18" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="F18" t="n">
-        <v>13799.9862</v>
+        <v>1700.6199</v>
       </c>
       <c r="G18" t="n">
-        <v>26.86666666666668</v>
+        <v>-1093.91236817998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1039,7 +1105,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1120,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="C19" t="n">
-        <v>26.7</v>
+        <v>27.3</v>
       </c>
       <c r="D19" t="n">
         <v>27.3</v>
       </c>
       <c r="E19" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="F19" t="n">
-        <v>7037.1287</v>
+        <v>81576.9213</v>
       </c>
       <c r="G19" t="n">
-        <v>26.90000000000002</v>
+        <v>80483.00893182002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,7 +1145,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1160,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>26.7</v>
+        <v>27.3</v>
       </c>
       <c r="C20" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="D20" t="n">
-        <v>27.1</v>
+        <v>27.6</v>
       </c>
       <c r="E20" t="n">
-        <v>26.7</v>
+        <v>27.3</v>
       </c>
       <c r="F20" t="n">
-        <v>15502.2939</v>
+        <v>23978.01</v>
       </c>
       <c r="G20" t="n">
-        <v>26.76666666666668</v>
+        <v>104461.01893182</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1111,7 +1185,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>26.7</v>
+        <v>27.6</v>
       </c>
       <c r="C21" t="n">
-        <v>27</v>
+        <v>27.6</v>
       </c>
       <c r="D21" t="n">
-        <v>27</v>
+        <v>27.6</v>
       </c>
       <c r="E21" t="n">
-        <v>26.7</v>
+        <v>27.6</v>
       </c>
       <c r="F21" t="n">
-        <v>3809.9863</v>
+        <v>48436.5027</v>
       </c>
       <c r="G21" t="n">
-        <v>26.86666666666668</v>
+        <v>104461.01893182</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1147,7 +1225,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1240,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>26.9</v>
+        <v>27.7</v>
       </c>
       <c r="C22" t="n">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="D22" t="n">
-        <v>28.2</v>
+        <v>27.7</v>
       </c>
       <c r="E22" t="n">
-        <v>26.9</v>
+        <v>27.7</v>
       </c>
       <c r="F22" t="n">
-        <v>308482.332</v>
+        <v>41132.2821</v>
       </c>
       <c r="G22" t="n">
-        <v>27.33333333333335</v>
+        <v>145593.30103182</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1183,7 +1265,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1280,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="C23" t="n">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="D23" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="E23" t="n">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="F23" t="n">
-        <v>42835.8932</v>
+        <v>45498.1072</v>
       </c>
       <c r="G23" t="n">
-        <v>27.73333333333335</v>
+        <v>145593.30103182</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1219,7 +1305,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1320,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="C24" t="n">
-        <v>28.2</v>
+        <v>27.7</v>
       </c>
       <c r="D24" t="n">
-        <v>28.2</v>
+        <v>27.7</v>
       </c>
       <c r="E24" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F24" t="n">
-        <v>6358.5073</v>
+        <v>808.9747</v>
       </c>
       <c r="G24" t="n">
-        <v>28.13333333333335</v>
+        <v>145593.30103182</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1255,7 +1345,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1360,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="C25" t="n">
-        <v>28.2</v>
+        <v>27.7</v>
       </c>
       <c r="D25" t="n">
-        <v>28.2</v>
+        <v>27.7</v>
       </c>
       <c r="E25" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="F25" t="n">
-        <v>52.1428</v>
+        <v>2503.8626</v>
       </c>
       <c r="G25" t="n">
-        <v>28.16666666666669</v>
+        <v>145593.30103182</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1291,7 +1385,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1400,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="C26" t="n">
-        <v>27.2</v>
+        <v>29.4</v>
       </c>
       <c r="D26" t="n">
-        <v>27.2</v>
+        <v>29.4</v>
       </c>
       <c r="E26" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="F26" t="n">
-        <v>16458.6822</v>
+        <v>832625.2291</v>
       </c>
       <c r="G26" t="n">
-        <v>27.86666666666668</v>
+        <v>978218.53013182</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1327,7 +1425,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1440,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>28.1</v>
+        <v>29.4</v>
       </c>
       <c r="C27" t="n">
-        <v>27.6</v>
+        <v>29.4</v>
       </c>
       <c r="D27" t="n">
-        <v>28.1</v>
+        <v>29.4</v>
       </c>
       <c r="E27" t="n">
-        <v>27.5</v>
+        <v>29.4</v>
       </c>
       <c r="F27" t="n">
-        <v>14688.7681</v>
+        <v>1081347.7208</v>
       </c>
       <c r="G27" t="n">
-        <v>27.66666666666668</v>
+        <v>978218.53013182</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1363,7 +1465,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1480,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>28.1</v>
+        <v>29.4</v>
       </c>
       <c r="C28" t="n">
-        <v>28.1</v>
+        <v>29.5</v>
       </c>
       <c r="D28" t="n">
-        <v>28.1</v>
+        <v>29.8</v>
       </c>
       <c r="E28" t="n">
-        <v>27</v>
+        <v>29.4</v>
       </c>
       <c r="F28" t="n">
-        <v>45.97</v>
+        <v>1066355.801</v>
       </c>
       <c r="G28" t="n">
-        <v>27.63333333333335</v>
+        <v>2044574.33113182</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1399,7 +1505,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1520,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27</v>
+        <v>29.5</v>
       </c>
       <c r="C29" t="n">
-        <v>27</v>
+        <v>29.8</v>
       </c>
       <c r="D29" t="n">
-        <v>27</v>
+        <v>29.8</v>
       </c>
       <c r="E29" t="n">
-        <v>27</v>
+        <v>29.5</v>
       </c>
       <c r="F29" t="n">
-        <v>20000</v>
+        <v>1106700.3017</v>
       </c>
       <c r="G29" t="n">
-        <v>27.56666666666668</v>
+        <v>3151274.63283182</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1435,7 +1545,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1560,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>27.3</v>
+        <v>29.8</v>
       </c>
       <c r="C30" t="n">
-        <v>27.3</v>
+        <v>29.8</v>
       </c>
       <c r="D30" t="n">
-        <v>27.3</v>
+        <v>29.8</v>
       </c>
       <c r="E30" t="n">
-        <v>27.3</v>
+        <v>29.8</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>1110710.2012</v>
       </c>
       <c r="G30" t="n">
-        <v>27.46666666666668</v>
+        <v>3151274.63283182</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1471,7 +1585,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1600,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>27.6</v>
+        <v>29.8</v>
       </c>
       <c r="C31" t="n">
-        <v>27.6</v>
+        <v>29.8</v>
       </c>
       <c r="D31" t="n">
-        <v>27.6</v>
+        <v>29.8</v>
       </c>
       <c r="E31" t="n">
-        <v>27.6</v>
+        <v>29.8</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>329985.46293757</v>
       </c>
       <c r="G31" t="n">
-        <v>27.30000000000001</v>
+        <v>3151274.63283182</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1507,7 +1625,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1640,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>27.6</v>
+        <v>29.8</v>
       </c>
       <c r="C32" t="n">
-        <v>28</v>
+        <v>29.8</v>
       </c>
       <c r="D32" t="n">
-        <v>28</v>
+        <v>29.8</v>
       </c>
       <c r="E32" t="n">
-        <v>27.6</v>
+        <v>29.8</v>
       </c>
       <c r="F32" t="n">
-        <v>392.8571</v>
+        <v>253707.9194</v>
       </c>
       <c r="G32" t="n">
-        <v>27.63333333333334</v>
+        <v>3151274.63283182</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1543,7 +1665,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1680,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>27.4</v>
+        <v>29.8</v>
       </c>
       <c r="C33" t="n">
-        <v>27.7</v>
+        <v>29.8</v>
       </c>
       <c r="D33" t="n">
-        <v>27.7</v>
+        <v>29.8</v>
       </c>
       <c r="E33" t="n">
-        <v>27.4</v>
+        <v>29.8</v>
       </c>
       <c r="F33" t="n">
-        <v>12748.072</v>
+        <v>833364.70086243</v>
       </c>
       <c r="G33" t="n">
-        <v>27.76666666666668</v>
+        <v>3151274.63283182</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1579,7 +1705,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1720,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>27.8</v>
+        <v>29.8</v>
       </c>
       <c r="C34" t="n">
-        <v>27.8</v>
+        <v>29.8</v>
       </c>
       <c r="D34" t="n">
-        <v>27.8</v>
+        <v>29.8</v>
       </c>
       <c r="E34" t="n">
-        <v>27.8</v>
+        <v>29.8</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>820714.19973757</v>
       </c>
       <c r="G34" t="n">
-        <v>27.83333333333334</v>
+        <v>3151274.63283182</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1615,7 +1745,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1760,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>27.7</v>
+        <v>29.8</v>
       </c>
       <c r="C35" t="n">
-        <v>27.7</v>
+        <v>29.6</v>
       </c>
       <c r="D35" t="n">
-        <v>27.7</v>
+        <v>29.8</v>
       </c>
       <c r="E35" t="n">
-        <v>27.7</v>
+        <v>29</v>
       </c>
       <c r="F35" t="n">
-        <v>1152.5736</v>
+        <v>361076.2527</v>
       </c>
       <c r="G35" t="n">
-        <v>27.73333333333334</v>
+        <v>2790198.38013182</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1651,7 +1785,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1800,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>27.9</v>
+        <v>29</v>
       </c>
       <c r="C36" t="n">
-        <v>28</v>
+        <v>29.6</v>
       </c>
       <c r="D36" t="n">
-        <v>28</v>
+        <v>29.6</v>
       </c>
       <c r="E36" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="F36" t="n">
-        <v>442</v>
+        <v>280211.1429</v>
       </c>
       <c r="G36" t="n">
-        <v>27.83333333333334</v>
+        <v>2790198.38013182</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1687,7 +1825,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1840,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>28</v>
+        <v>29.5</v>
       </c>
       <c r="C37" t="n">
-        <v>28.1</v>
+        <v>29.8</v>
       </c>
       <c r="D37" t="n">
-        <v>28.1</v>
+        <v>29.8</v>
       </c>
       <c r="E37" t="n">
-        <v>28</v>
+        <v>29.5</v>
       </c>
       <c r="F37" t="n">
-        <v>22673.9093</v>
+        <v>415845.4026</v>
       </c>
       <c r="G37" t="n">
-        <v>27.93333333333334</v>
+        <v>3206043.78273182</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1723,7 +1865,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1880,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>28.2</v>
+        <v>28.8</v>
       </c>
       <c r="C38" t="n">
-        <v>29.1</v>
+        <v>29.8</v>
       </c>
       <c r="D38" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="E38" t="n">
-        <v>28.2</v>
+        <v>28.7</v>
       </c>
       <c r="F38" t="n">
-        <v>83923.245</v>
+        <v>706153.3897000001</v>
       </c>
       <c r="G38" t="n">
-        <v>28.40000000000001</v>
+        <v>3206043.78273182</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1759,7 +1905,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1920,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>28.5</v>
+        <v>29.7</v>
       </c>
       <c r="C39" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="D39" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="E39" t="n">
-        <v>28.5</v>
+        <v>29.7</v>
       </c>
       <c r="F39" t="n">
-        <v>1284.3592</v>
+        <v>54576.7003</v>
       </c>
       <c r="G39" t="n">
-        <v>28.93333333333335</v>
+        <v>3151467.08243182</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1795,7 +1945,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +1960,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>28.5</v>
+        <v>29.1</v>
       </c>
       <c r="C40" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="D40" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="E40" t="n">
-        <v>28.5</v>
+        <v>29.1</v>
       </c>
       <c r="F40" t="n">
-        <v>1316.3512</v>
+        <v>19525.0971</v>
       </c>
       <c r="G40" t="n">
-        <v>29.36666666666668</v>
+        <v>3131941.98533182</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1831,7 +1985,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +2000,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>29.5</v>
+        <v>29.1</v>
       </c>
       <c r="C41" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="D41" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="E41" t="n">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="F41" t="n">
-        <v>16001.9321</v>
+        <v>706909.2486</v>
       </c>
       <c r="G41" t="n">
-        <v>29.50000000000002</v>
+        <v>3838851.23393182</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1867,7 +2025,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,22 +2040,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="C42" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="D42" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="E42" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="F42" t="n">
-        <v>13650.7057</v>
+        <v>10749.2228</v>
       </c>
       <c r="G42" t="n">
-        <v>29.16666666666669</v>
+        <v>3828102.01113182</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1903,7 +2065,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,32 +2080,36 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>28.6</v>
+        <v>29.5</v>
       </c>
       <c r="C43" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="D43" t="n">
-        <v>29.4</v>
+        <v>29.7</v>
       </c>
       <c r="E43" t="n">
-        <v>28.6</v>
+        <v>29.5</v>
       </c>
       <c r="F43" t="n">
-        <v>26278.2847</v>
+        <v>293052.5589</v>
       </c>
       <c r="G43" t="n">
-        <v>29.13333333333335</v>
+        <v>4121154.57003182</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,32 +2120,36 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>29.3</v>
+        <v>28.8</v>
       </c>
       <c r="C44" t="n">
-        <v>29.5</v>
+        <v>28.8</v>
       </c>
       <c r="D44" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="E44" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="F44" t="n">
-        <v>65605.7038</v>
+        <v>221889.8468</v>
       </c>
       <c r="G44" t="n">
-        <v>29.13333333333335</v>
+        <v>3899264.72323182</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,32 +2160,36 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>28.3</v>
+        <v>28.9</v>
       </c>
       <c r="C45" t="n">
-        <v>27.9</v>
+        <v>29.3</v>
       </c>
       <c r="D45" t="n">
-        <v>28.3</v>
+        <v>29.6</v>
       </c>
       <c r="E45" t="n">
-        <v>27.9</v>
+        <v>28.8</v>
       </c>
       <c r="F45" t="n">
-        <v>40845.1435</v>
+        <v>156058.3309</v>
       </c>
       <c r="G45" t="n">
-        <v>28.90000000000002</v>
+        <v>4055323.05413182</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +2200,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>27.6</v>
+        <v>29.3</v>
       </c>
       <c r="C46" t="n">
-        <v>28.6</v>
+        <v>29.3</v>
       </c>
       <c r="D46" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E46" t="n">
         <v>29.3</v>
       </c>
-      <c r="E46" t="n">
-        <v>27.3</v>
-      </c>
       <c r="F46" t="n">
-        <v>41147.4683</v>
+        <v>191961.522</v>
       </c>
       <c r="G46" t="n">
-        <v>28.66666666666669</v>
+        <v>4055323.05413182</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2047,7 +2225,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2240,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>28.6</v>
+        <v>29.6</v>
       </c>
       <c r="C47" t="n">
-        <v>27.8</v>
+        <v>29.6</v>
       </c>
       <c r="D47" t="n">
-        <v>28.6</v>
+        <v>29.7</v>
       </c>
       <c r="E47" t="n">
-        <v>27.8</v>
+        <v>29.6</v>
       </c>
       <c r="F47" t="n">
-        <v>17092.2837</v>
+        <v>71471.9932</v>
       </c>
       <c r="G47" t="n">
-        <v>28.10000000000002</v>
+        <v>4126795.04733182</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2083,7 +2265,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,22 +2280,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>28.5</v>
+        <v>29.3</v>
       </c>
       <c r="C48" t="n">
-        <v>28.5</v>
+        <v>29.3</v>
       </c>
       <c r="D48" t="n">
-        <v>28.5</v>
+        <v>29.3</v>
       </c>
       <c r="E48" t="n">
-        <v>28.5</v>
+        <v>29.3</v>
       </c>
       <c r="F48" t="n">
-        <v>11</v>
+        <v>1204.6668</v>
       </c>
       <c r="G48" t="n">
-        <v>28.30000000000002</v>
+        <v>4125590.38053182</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2119,7 +2305,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,35 +2320,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>28</v>
+        <v>29.3</v>
       </c>
       <c r="C49" t="n">
-        <v>28.5</v>
+        <v>29.3</v>
       </c>
       <c r="D49" t="n">
-        <v>28.5</v>
+        <v>29.3</v>
       </c>
       <c r="E49" t="n">
-        <v>28</v>
+        <v>29.3</v>
       </c>
       <c r="F49" t="n">
-        <v>30516.0825</v>
+        <v>4049.1099</v>
       </c>
       <c r="G49" t="n">
-        <v>28.26666666666669</v>
+        <v>4125590.38053182</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -2166,28 +2358,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>27.7</v>
+        <v>28.9</v>
       </c>
       <c r="C50" t="n">
-        <v>27.6</v>
+        <v>29.6</v>
       </c>
       <c r="D50" t="n">
-        <v>27.7</v>
+        <v>29.6</v>
       </c>
       <c r="E50" t="n">
-        <v>27.6</v>
+        <v>28.9</v>
       </c>
       <c r="F50" t="n">
-        <v>13963.8671</v>
+        <v>340278.948</v>
       </c>
       <c r="G50" t="n">
-        <v>28.20000000000002</v>
+        <v>4465869.32853182</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2202,28 +2394,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>27.6</v>
+        <v>29</v>
       </c>
       <c r="C51" t="n">
-        <v>27.6</v>
+        <v>29.2</v>
       </c>
       <c r="D51" t="n">
-        <v>27.6</v>
+        <v>29.2</v>
       </c>
       <c r="E51" t="n">
-        <v>27.6</v>
+        <v>28.9</v>
       </c>
       <c r="F51" t="n">
-        <v>31907.5937</v>
+        <v>17931.9108</v>
       </c>
       <c r="G51" t="n">
-        <v>27.90000000000002</v>
+        <v>4447937.417731821</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2238,22 +2430,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>27.9</v>
+        <v>29</v>
       </c>
       <c r="C52" t="n">
-        <v>28</v>
+        <v>28.9</v>
       </c>
       <c r="D52" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E52" t="n">
-        <v>27.9</v>
+        <v>28.9</v>
       </c>
       <c r="F52" t="n">
-        <v>28.8642</v>
+        <v>2789.6178</v>
       </c>
       <c r="G52" t="n">
-        <v>27.73333333333336</v>
+        <v>4445147.79993182</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,28 +2466,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>27.6</v>
+        <v>28.7</v>
       </c>
       <c r="C53" t="n">
+        <v>29</v>
+      </c>
+      <c r="D53" t="n">
+        <v>29</v>
+      </c>
+      <c r="E53" t="n">
         <v>28.6</v>
       </c>
-      <c r="D53" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E53" t="n">
-        <v>27.6</v>
-      </c>
       <c r="F53" t="n">
-        <v>1486.9565</v>
+        <v>30949.623</v>
       </c>
       <c r="G53" t="n">
-        <v>28.06666666666669</v>
+        <v>4476097.42293182</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2310,22 +2502,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>27.6</v>
+        <v>28.6</v>
       </c>
       <c r="C54" t="n">
-        <v>27.6</v>
+        <v>28.9</v>
       </c>
       <c r="D54" t="n">
-        <v>27.6</v>
+        <v>28.9</v>
       </c>
       <c r="E54" t="n">
-        <v>27.6</v>
+        <v>28.5</v>
       </c>
       <c r="F54" t="n">
-        <v>5441.2619</v>
+        <v>29478.8686</v>
       </c>
       <c r="G54" t="n">
-        <v>28.06666666666669</v>
+        <v>4446618.55433182</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2538,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>27.6</v>
+        <v>28.6</v>
       </c>
       <c r="C55" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="D55" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="E55" t="n">
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
       <c r="F55" t="n">
-        <v>31861.0096</v>
+        <v>8679.2665</v>
       </c>
       <c r="G55" t="n">
-        <v>28.26666666666669</v>
+        <v>4446618.55433182</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2574,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="C56" t="n">
-        <v>28.7</v>
+        <v>29.5</v>
       </c>
       <c r="D56" t="n">
-        <v>28.7</v>
+        <v>29.5</v>
       </c>
       <c r="E56" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="F56" t="n">
-        <v>11</v>
+        <v>26480.7132</v>
       </c>
       <c r="G56" t="n">
-        <v>28.30000000000002</v>
+        <v>4473099.267531821</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,28 +2610,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>28</v>
+        <v>29.4</v>
       </c>
       <c r="C57" t="n">
-        <v>28.6</v>
+        <v>29.4</v>
       </c>
       <c r="D57" t="n">
-        <v>28.6</v>
+        <v>29.4</v>
       </c>
       <c r="E57" t="n">
-        <v>28</v>
+        <v>29.4</v>
       </c>
       <c r="F57" t="n">
-        <v>3325.1577</v>
+        <v>9493.2312</v>
       </c>
       <c r="G57" t="n">
-        <v>28.63333333333335</v>
+        <v>4463606.03633182</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2454,22 +2646,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="C58" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="D58" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="E58" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="F58" t="n">
-        <v>598.8111</v>
+        <v>18.2197</v>
       </c>
       <c r="G58" t="n">
-        <v>28.63333333333335</v>
+        <v>4463587.81663182</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2682,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>27.8</v>
+        <v>28.7</v>
       </c>
       <c r="C59" t="n">
-        <v>28.5</v>
+        <v>29.4</v>
       </c>
       <c r="D59" t="n">
-        <v>28.5</v>
+        <v>29.4</v>
       </c>
       <c r="E59" t="n">
-        <v>27.8</v>
+        <v>28.6</v>
       </c>
       <c r="F59" t="n">
-        <v>2974.968</v>
+        <v>4066.8893</v>
       </c>
       <c r="G59" t="n">
-        <v>28.56666666666669</v>
+        <v>4467654.70593182</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2718,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>27.8</v>
+        <v>28.7</v>
       </c>
       <c r="C60" t="n">
-        <v>28.1</v>
+        <v>28.5</v>
       </c>
       <c r="D60" t="n">
-        <v>28.1</v>
+        <v>29.2</v>
       </c>
       <c r="E60" t="n">
-        <v>27.8</v>
+        <v>28.5</v>
       </c>
       <c r="F60" t="n">
-        <v>22</v>
+        <v>48993.2445</v>
       </c>
       <c r="G60" t="n">
-        <v>28.40000000000002</v>
+        <v>4418661.46143182</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2754,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>27.9</v>
+        <v>29.1</v>
       </c>
       <c r="C61" t="n">
-        <v>27.9</v>
+        <v>28.5</v>
       </c>
       <c r="D61" t="n">
-        <v>27.9</v>
+        <v>29.1</v>
       </c>
       <c r="E61" t="n">
-        <v>27.9</v>
+        <v>28.5</v>
       </c>
       <c r="F61" t="n">
-        <v>1381.9813</v>
+        <v>29069.7728</v>
       </c>
       <c r="G61" t="n">
-        <v>28.1666666666667</v>
+        <v>4418661.46143182</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2790,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C62" t="n">
         <v>28</v>
       </c>
-      <c r="C62" t="n">
-        <v>28.2</v>
-      </c>
       <c r="D62" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="E62" t="n">
         <v>28</v>
       </c>
       <c r="F62" t="n">
-        <v>21</v>
+        <v>1860.571</v>
       </c>
       <c r="G62" t="n">
-        <v>28.06666666666669</v>
+        <v>4416800.890431819</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2826,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="C63" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="D63" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="E63" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>8516.968000000001</v>
       </c>
       <c r="G63" t="n">
-        <v>28.13333333333336</v>
+        <v>4425317.85843182</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,28 +2862,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="C64" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="D64" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="E64" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="F64" t="n">
-        <v>4293.9013</v>
+        <v>5277.0462</v>
       </c>
       <c r="G64" t="n">
-        <v>28.13333333333336</v>
+        <v>4420040.81223182</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2706,28 +2898,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>27.8</v>
+        <v>28.6</v>
       </c>
       <c r="C65" t="n">
-        <v>27.7</v>
+        <v>28.6</v>
       </c>
       <c r="D65" t="n">
-        <v>27.8</v>
+        <v>28.6</v>
       </c>
       <c r="E65" t="n">
-        <v>27.7</v>
+        <v>28.6</v>
       </c>
       <c r="F65" t="n">
-        <v>34270.1896</v>
+        <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>27.9666666666667</v>
+        <v>4420050.81223182</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2742,28 +2934,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="C66" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="D66" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="E66" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="F66" t="n">
-        <v>44394.1552</v>
+        <v>3008.2163</v>
       </c>
       <c r="G66" t="n">
-        <v>27.93333333333337</v>
+        <v>4417042.59593182</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2778,28 +2970,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>28.3</v>
+        <v>27.9</v>
       </c>
       <c r="C67" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="D67" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="E67" t="n">
-        <v>28.3</v>
+        <v>27.9</v>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>270.8249</v>
       </c>
       <c r="G67" t="n">
-        <v>28.0666666666667</v>
+        <v>4417042.59593182</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2826,16 +3018,16 @@
         <v>27.9</v>
       </c>
       <c r="F68" t="n">
-        <v>2824.5874</v>
+        <v>4355.198</v>
       </c>
       <c r="G68" t="n">
-        <v>28.13333333333337</v>
+        <v>4412687.39793182</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2853,25 +3045,25 @@
         <v>27.8</v>
       </c>
       <c r="C69" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="D69" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="E69" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F69" t="n">
-        <v>7954.8972</v>
+        <v>38439.7858</v>
       </c>
       <c r="G69" t="n">
-        <v>28.00000000000003</v>
+        <v>4451127.18373182</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2889,25 +3081,25 @@
         <v>27.8</v>
       </c>
       <c r="C70" t="n">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
       <c r="D70" t="n">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
       <c r="E70" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F70" t="n">
-        <v>13114.6062</v>
+        <v>72053.5961</v>
       </c>
       <c r="G70" t="n">
-        <v>27.9666666666667</v>
+        <v>4379073.58763182</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2922,28 +3114,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C71" t="n">
-        <v>28.1</v>
+        <v>27.6</v>
       </c>
       <c r="D71" t="n">
-        <v>28.1</v>
+        <v>27.6</v>
       </c>
       <c r="E71" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F71" t="n">
-        <v>34004.1239</v>
+        <v>1671.4815</v>
       </c>
       <c r="G71" t="n">
-        <v>28.03333333333337</v>
+        <v>4377402.10613182</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2958,28 +3150,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C72" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="D72" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="E72" t="n">
         <v>27.5</v>
       </c>
       <c r="F72" t="n">
-        <v>160011</v>
+        <v>2096.7127</v>
       </c>
       <c r="G72" t="n">
-        <v>28.10000000000004</v>
+        <v>4379498.81883182</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2994,28 +3186,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="C73" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="D73" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="E73" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F73" t="n">
-        <v>5344.2333</v>
+        <v>47</v>
       </c>
       <c r="G73" t="n">
-        <v>27.8666666666667</v>
+        <v>4379498.81883182</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3030,28 +3222,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="C74" t="n">
-        <v>28.1</v>
+        <v>27.6</v>
       </c>
       <c r="D74" t="n">
-        <v>28.1</v>
+        <v>27.6</v>
       </c>
       <c r="E74" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F74" t="n">
-        <v>452</v>
+        <v>1613.4815</v>
       </c>
       <c r="G74" t="n">
-        <v>27.8666666666667</v>
+        <v>4377885.33733182</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3066,28 +3258,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="C75" t="n">
-        <v>27</v>
+        <v>27.6</v>
       </c>
       <c r="D75" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="E75" t="n">
-        <v>27</v>
+        <v>27.6</v>
       </c>
       <c r="F75" t="n">
-        <v>30139.32199068</v>
+        <v>4132.3492</v>
       </c>
       <c r="G75" t="n">
-        <v>27.53333333333337</v>
+        <v>4377885.33733182</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3102,28 +3294,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="C76" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="D76" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E76" t="n">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="F76" t="n">
-        <v>10020</v>
+        <v>11</v>
       </c>
       <c r="G76" t="n">
-        <v>27.6666666666667</v>
+        <v>4377896.33733182</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3150,16 +3342,16 @@
         <v>27.8</v>
       </c>
       <c r="F77" t="n">
-        <v>34</v>
+        <v>5814.964</v>
       </c>
       <c r="G77" t="n">
-        <v>27.5666666666667</v>
+        <v>4377896.33733182</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3174,28 +3366,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="C78" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="D78" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E78" t="n">
-        <v>26.7</v>
+        <v>27.5</v>
       </c>
       <c r="F78" t="n">
-        <v>80</v>
+        <v>540.4498</v>
       </c>
       <c r="G78" t="n">
-        <v>27.8666666666667</v>
+        <v>4377896.33733182</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3210,28 +3402,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>26.8</v>
+        <v>27.8</v>
       </c>
       <c r="C79" t="n">
-        <v>27.9</v>
+        <v>28.6</v>
       </c>
       <c r="D79" t="n">
-        <v>27.9</v>
+        <v>28.6</v>
       </c>
       <c r="E79" t="n">
-        <v>26.8</v>
+        <v>27.8</v>
       </c>
       <c r="F79" t="n">
-        <v>40010</v>
+        <v>983.21678321</v>
       </c>
       <c r="G79" t="n">
-        <v>27.8666666666667</v>
+        <v>4378879.55411503</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3246,28 +3438,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>26.8</v>
+        <v>27.5</v>
       </c>
       <c r="C80" t="n">
-        <v>26.3</v>
+        <v>27.3</v>
       </c>
       <c r="D80" t="n">
-        <v>26.8</v>
+        <v>27.5</v>
       </c>
       <c r="E80" t="n">
-        <v>26.3</v>
+        <v>27.3</v>
       </c>
       <c r="F80" t="n">
-        <v>199200.8637</v>
+        <v>28256.0736</v>
       </c>
       <c r="G80" t="n">
-        <v>27.3666666666667</v>
+        <v>4350623.48051503</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3282,7 +3474,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>26.4</v>
+        <v>27.7</v>
       </c>
       <c r="C81" t="n">
         <v>27.7</v>
@@ -3291,13 +3483,13 @@
         <v>27.7</v>
       </c>
       <c r="E81" t="n">
-        <v>26.4</v>
+        <v>27.7</v>
       </c>
       <c r="F81" t="n">
-        <v>3467.7132</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>27.30000000000004</v>
+        <v>4350633.48051503</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3510,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>27.4</v>
+        <v>28.3</v>
       </c>
       <c r="C82" t="n">
-        <v>27.4</v>
+        <v>28.3</v>
       </c>
       <c r="D82" t="n">
-        <v>27.4</v>
+        <v>28.3</v>
       </c>
       <c r="E82" t="n">
-        <v>27.4</v>
+        <v>28.3</v>
       </c>
       <c r="F82" t="n">
-        <v>6094.27</v>
+        <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>27.13333333333337</v>
+        <v>4350643.48051503</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3546,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>26.4</v>
+        <v>27.5</v>
       </c>
       <c r="C83" t="n">
-        <v>26</v>
+        <v>28.2</v>
       </c>
       <c r="D83" t="n">
-        <v>26.4</v>
+        <v>28.2</v>
       </c>
       <c r="E83" t="n">
-        <v>26</v>
+        <v>27.3</v>
       </c>
       <c r="F83" t="n">
-        <v>160115.8836</v>
+        <v>51828.5707</v>
       </c>
       <c r="G83" t="n">
-        <v>27.03333333333337</v>
+        <v>4298814.90981503</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3582,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="C84" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="D84" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="E84" t="n">
-        <v>26</v>
+        <v>27.6</v>
       </c>
       <c r="F84" t="n">
-        <v>213721.6489</v>
+        <v>2082.4772</v>
       </c>
       <c r="G84" t="n">
-        <v>26.7666666666667</v>
+        <v>4296732.432615031</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3618,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>26.1</v>
+        <v>27.6</v>
       </c>
       <c r="C85" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="D85" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="E85" t="n">
-        <v>26.1</v>
+        <v>27.6</v>
       </c>
       <c r="F85" t="n">
-        <v>4607.2653</v>
+        <v>917.5228</v>
       </c>
       <c r="G85" t="n">
-        <v>26.70000000000003</v>
+        <v>4296732.432615031</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3654,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>26.3</v>
+        <v>27.3</v>
       </c>
       <c r="C86" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D86" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E86" t="n">
-        <v>26.3</v>
+        <v>27.3</v>
       </c>
       <c r="F86" t="n">
-        <v>11177.5563</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>27.10000000000004</v>
+        <v>4296722.432615031</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3690,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>26.3</v>
+        <v>27.4</v>
       </c>
       <c r="C87" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="D87" t="n">
-        <v>26.3</v>
+        <v>27.4</v>
       </c>
       <c r="E87" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="F87" t="n">
-        <v>11728.8442</v>
+        <v>248260.9812</v>
       </c>
       <c r="G87" t="n">
-        <v>26.90000000000003</v>
+        <v>4048461.451415031</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3726,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="C88" t="n">
-        <v>26.3</v>
+        <v>27.3</v>
       </c>
       <c r="D88" t="n">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="E88" t="n">
-        <v>26.3</v>
+        <v>27.3</v>
       </c>
       <c r="F88" t="n">
-        <v>5104.3689</v>
+        <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>26.60000000000003</v>
+        <v>4048471.451415031</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,35 +3762,31 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>26.6</v>
+        <v>27.1</v>
       </c>
       <c r="C89" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="D89" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="E89" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="F89" t="n">
-        <v>22</v>
+        <v>13799.9862</v>
       </c>
       <c r="G89" t="n">
-        <v>26.53333333333336</v>
+        <v>4034671.465215031</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K89" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
@@ -3610,22 +3798,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="C90" t="n">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="D90" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E90" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="F90" t="n">
-        <v>7347</v>
+        <v>7037.1287</v>
       </c>
       <c r="G90" t="n">
-        <v>26.83333333333337</v>
+        <v>4034671.465215031</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3634,14 +3822,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3652,22 +3834,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="C91" t="n">
         <v>26.9</v>
       </c>
       <c r="D91" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="E91" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="F91" t="n">
-        <v>6281</v>
+        <v>15502.2939</v>
       </c>
       <c r="G91" t="n">
-        <v>27.03333333333336</v>
+        <v>4050173.759115031</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3676,14 +3858,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3694,40 +3870,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="C92" t="n">
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="D92" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="E92" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="F92" t="n">
-        <v>32662.1649</v>
+        <v>3809.9863</v>
       </c>
       <c r="G92" t="n">
-        <v>26.8666666666667</v>
+        <v>4053983.745415031</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K92" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3738,40 +3906,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="C93" t="n">
-        <v>26.7</v>
+        <v>28.1</v>
       </c>
       <c r="D93" t="n">
-        <v>26.7</v>
+        <v>28.2</v>
       </c>
       <c r="E93" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="F93" t="n">
-        <v>2288</v>
+        <v>308482.332</v>
       </c>
       <c r="G93" t="n">
-        <v>26.70000000000003</v>
+        <v>4362466.07741503</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K93" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3782,40 +3942,32 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>26.6</v>
+        <v>28.1</v>
       </c>
       <c r="C94" t="n">
-        <v>26.6</v>
+        <v>28.1</v>
       </c>
       <c r="D94" t="n">
-        <v>26.6</v>
+        <v>28.1</v>
       </c>
       <c r="E94" t="n">
-        <v>26.6</v>
+        <v>28.1</v>
       </c>
       <c r="F94" t="n">
-        <v>4623.5831</v>
+        <v>42835.8932</v>
       </c>
       <c r="G94" t="n">
-        <v>26.60000000000003</v>
+        <v>4362466.07741503</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K94" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3826,40 +3978,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>26.4</v>
+        <v>28</v>
       </c>
       <c r="C95" t="n">
-        <v>26.3</v>
+        <v>28.2</v>
       </c>
       <c r="D95" t="n">
-        <v>26.4</v>
+        <v>28.2</v>
       </c>
       <c r="E95" t="n">
-        <v>26.3</v>
+        <v>27.8</v>
       </c>
       <c r="F95" t="n">
-        <v>11139.6374</v>
+        <v>6358.5073</v>
       </c>
       <c r="G95" t="n">
-        <v>26.53333333333336</v>
+        <v>4368824.58471503</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K95" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3870,40 +4014,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>26.3</v>
+        <v>28</v>
       </c>
       <c r="C96" t="n">
-        <v>26.3</v>
+        <v>28.2</v>
       </c>
       <c r="D96" t="n">
-        <v>26.3</v>
+        <v>28.2</v>
       </c>
       <c r="E96" t="n">
-        <v>26.3</v>
+        <v>28</v>
       </c>
       <c r="F96" t="n">
-        <v>837.9124</v>
+        <v>52.1428</v>
       </c>
       <c r="G96" t="n">
-        <v>26.40000000000003</v>
+        <v>4368824.58471503</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K96" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3914,40 +4050,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="C97" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="D97" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="E97" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="F97" t="n">
-        <v>11</v>
+        <v>16458.6822</v>
       </c>
       <c r="G97" t="n">
-        <v>26.50000000000003</v>
+        <v>4352365.90251503</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K97" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3958,40 +4086,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>26.3</v>
+        <v>28.1</v>
       </c>
       <c r="C98" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="D98" t="n">
-        <v>26.9</v>
+        <v>28.1</v>
       </c>
       <c r="E98" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="F98" t="n">
-        <v>4832.9573</v>
+        <v>14688.7681</v>
       </c>
       <c r="G98" t="n">
-        <v>26.70000000000003</v>
+        <v>4367054.67061503</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K98" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4002,22 +4122,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>26.2</v>
+        <v>28.1</v>
       </c>
       <c r="C99" t="n">
-        <v>26.1</v>
+        <v>28.1</v>
       </c>
       <c r="D99" t="n">
-        <v>26.2</v>
+        <v>28.1</v>
       </c>
       <c r="E99" t="n">
-        <v>26.1</v>
+        <v>27</v>
       </c>
       <c r="F99" t="n">
-        <v>29222.2723</v>
+        <v>45.97</v>
       </c>
       <c r="G99" t="n">
-        <v>26.63333333333337</v>
+        <v>4367100.64061503</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4026,14 +4146,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4044,40 +4158,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>26.1</v>
+        <v>27</v>
       </c>
       <c r="C100" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="D100" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="E100" t="n">
-        <v>25.9</v>
+        <v>27</v>
       </c>
       <c r="F100" t="n">
-        <v>29233.2723</v>
+        <v>20000</v>
       </c>
       <c r="G100" t="n">
-        <v>26.5666666666667</v>
+        <v>4347100.64061503</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K100" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4088,22 +4194,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>26.6</v>
+        <v>27.3</v>
       </c>
       <c r="C101" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="D101" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="E101" t="n">
-        <v>26.6</v>
+        <v>27.3</v>
       </c>
       <c r="F101" t="n">
-        <v>47856.9107</v>
+        <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>26.63333333333336</v>
+        <v>4347110.64061503</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4112,14 +4218,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4130,40 +4230,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>26.4</v>
+        <v>27.6</v>
       </c>
       <c r="C102" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="D102" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="E102" t="n">
-        <v>26.4</v>
+        <v>27.6</v>
       </c>
       <c r="F102" t="n">
-        <v>5724.409</v>
+        <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>26.90000000000003</v>
+        <v>4347120.64061503</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K102" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4174,22 +4266,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>26.4</v>
+        <v>27.6</v>
       </c>
       <c r="C103" t="n">
-        <v>26.4</v>
+        <v>28</v>
       </c>
       <c r="D103" t="n">
-        <v>26.4</v>
+        <v>28</v>
       </c>
       <c r="E103" t="n">
-        <v>26.4</v>
+        <v>27.6</v>
       </c>
       <c r="F103" t="n">
-        <v>17351.8087</v>
+        <v>392.8571</v>
       </c>
       <c r="G103" t="n">
-        <v>26.80000000000004</v>
+        <v>4347513.49771503</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4198,14 +4290,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4216,40 +4302,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>26.5</v>
+        <v>27.4</v>
       </c>
       <c r="C104" t="n">
-        <v>26.5</v>
+        <v>27.7</v>
       </c>
       <c r="D104" t="n">
-        <v>26.5</v>
+        <v>27.7</v>
       </c>
       <c r="E104" t="n">
-        <v>26.5</v>
+        <v>27.4</v>
       </c>
       <c r="F104" t="n">
-        <v>11</v>
+        <v>12748.072</v>
       </c>
       <c r="G104" t="n">
-        <v>26.60000000000003</v>
+        <v>4334765.42571503</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="K104" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4260,40 +4338,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>26.6</v>
+        <v>27.8</v>
       </c>
       <c r="C105" t="n">
-        <v>26.7</v>
+        <v>27.8</v>
       </c>
       <c r="D105" t="n">
-        <v>26.7</v>
+        <v>27.8</v>
       </c>
       <c r="E105" t="n">
-        <v>26.6</v>
+        <v>27.8</v>
       </c>
       <c r="F105" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>26.53333333333337</v>
+        <v>4334775.42571503</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K105" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4304,40 +4374,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>26.7</v>
+        <v>27.7</v>
       </c>
       <c r="C106" t="n">
-        <v>26.6</v>
+        <v>27.7</v>
       </c>
       <c r="D106" t="n">
-        <v>26.7</v>
+        <v>27.7</v>
       </c>
       <c r="E106" t="n">
-        <v>26.1</v>
+        <v>27.7</v>
       </c>
       <c r="F106" t="n">
-        <v>10528.9406</v>
+        <v>1152.5736</v>
       </c>
       <c r="G106" t="n">
-        <v>26.60000000000003</v>
+        <v>4333622.85211503</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K106" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4348,40 +4410,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>26.2</v>
+        <v>27.9</v>
       </c>
       <c r="C107" t="n">
-        <v>26.2</v>
+        <v>28</v>
       </c>
       <c r="D107" t="n">
-        <v>26.2</v>
+        <v>28</v>
       </c>
       <c r="E107" t="n">
-        <v>26.2</v>
+        <v>27.9</v>
       </c>
       <c r="F107" t="n">
-        <v>3098</v>
+        <v>442</v>
       </c>
       <c r="G107" t="n">
-        <v>26.50000000000003</v>
+        <v>4334064.85211503</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K107" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4392,40 +4446,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>26.4</v>
+        <v>28</v>
       </c>
       <c r="C108" t="n">
-        <v>26.4</v>
+        <v>28.1</v>
       </c>
       <c r="D108" t="n">
-        <v>26.4</v>
+        <v>28.1</v>
       </c>
       <c r="E108" t="n">
-        <v>26.4</v>
+        <v>28</v>
       </c>
       <c r="F108" t="n">
-        <v>11</v>
+        <v>22673.9093</v>
       </c>
       <c r="G108" t="n">
-        <v>26.40000000000003</v>
+        <v>4356738.761415031</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K108" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4436,40 +4482,32 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>26.7</v>
+        <v>28.2</v>
       </c>
       <c r="C109" t="n">
-        <v>26.7</v>
+        <v>29.1</v>
       </c>
       <c r="D109" t="n">
-        <v>26.7</v>
+        <v>29.6</v>
       </c>
       <c r="E109" t="n">
-        <v>26.7</v>
+        <v>28.2</v>
       </c>
       <c r="F109" t="n">
-        <v>10</v>
+        <v>83923.245</v>
       </c>
       <c r="G109" t="n">
-        <v>26.43333333333337</v>
+        <v>4440662.006415031</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="K109" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4480,40 +4518,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>26.2</v>
+        <v>28.5</v>
       </c>
       <c r="C110" t="n">
-        <v>27.1</v>
+        <v>29.6</v>
       </c>
       <c r="D110" t="n">
-        <v>27.1</v>
+        <v>29.6</v>
       </c>
       <c r="E110" t="n">
-        <v>26.2</v>
+        <v>28.5</v>
       </c>
       <c r="F110" t="n">
-        <v>18133.686</v>
+        <v>1284.3592</v>
       </c>
       <c r="G110" t="n">
-        <v>26.73333333333336</v>
+        <v>4441946.365615031</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K110" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4524,40 +4554,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>26.2</v>
+        <v>28.5</v>
       </c>
       <c r="C111" t="n">
-        <v>26.2</v>
+        <v>29.4</v>
       </c>
       <c r="D111" t="n">
-        <v>26.2</v>
+        <v>29.4</v>
       </c>
       <c r="E111" t="n">
-        <v>26.2</v>
+        <v>28.5</v>
       </c>
       <c r="F111" t="n">
-        <v>3584.2294</v>
+        <v>1316.3512</v>
       </c>
       <c r="G111" t="n">
-        <v>26.6666666666667</v>
+        <v>4440630.01441503</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K111" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4568,40 +4590,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>26.2</v>
+        <v>29.5</v>
       </c>
       <c r="C112" t="n">
-        <v>26.3</v>
+        <v>29.5</v>
       </c>
       <c r="D112" t="n">
-        <v>26.3</v>
+        <v>29.5</v>
       </c>
       <c r="E112" t="n">
-        <v>26.2</v>
+        <v>29.5</v>
       </c>
       <c r="F112" t="n">
-        <v>3077.373</v>
+        <v>16001.9321</v>
       </c>
       <c r="G112" t="n">
-        <v>26.53333333333336</v>
+        <v>4456631.94651503</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K112" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4612,40 +4626,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>26.6</v>
+        <v>28.6</v>
       </c>
       <c r="C113" t="n">
-        <v>26.6</v>
+        <v>28.6</v>
       </c>
       <c r="D113" t="n">
-        <v>26.6</v>
+        <v>28.6</v>
       </c>
       <c r="E113" t="n">
-        <v>26.6</v>
+        <v>28.6</v>
       </c>
       <c r="F113" t="n">
-        <v>10</v>
+        <v>13650.7057</v>
       </c>
       <c r="G113" t="n">
-        <v>26.36666666666669</v>
+        <v>4442981.24081503</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K113" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4656,40 +4662,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>26.4</v>
+        <v>28.6</v>
       </c>
       <c r="C114" t="n">
-        <v>26.8</v>
+        <v>29.3</v>
       </c>
       <c r="D114" t="n">
-        <v>26.8</v>
+        <v>29.4</v>
       </c>
       <c r="E114" t="n">
-        <v>26.4</v>
+        <v>28.6</v>
       </c>
       <c r="F114" t="n">
-        <v>19951.572</v>
+        <v>26278.2847</v>
       </c>
       <c r="G114" t="n">
-        <v>26.56666666666669</v>
+        <v>4469259.52551503</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K114" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4700,22 +4698,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>26.8</v>
+        <v>29.3</v>
       </c>
       <c r="C115" t="n">
-        <v>26.8</v>
+        <v>29.5</v>
       </c>
       <c r="D115" t="n">
-        <v>26.8</v>
+        <v>29.5</v>
       </c>
       <c r="E115" t="n">
-        <v>26.8</v>
+        <v>29.3</v>
       </c>
       <c r="F115" t="n">
-        <v>12746.2922</v>
+        <v>65605.7038</v>
       </c>
       <c r="G115" t="n">
-        <v>26.73333333333336</v>
+        <v>4534865.22931503</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4724,14 +4722,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4742,42 +4734,2592 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C116" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D116" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E116" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F116" t="n">
+        <v>40845.1435</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4494020.08581503</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C117" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D117" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E117" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F117" t="n">
+        <v>41147.4683</v>
+      </c>
+      <c r="G117" t="n">
+        <v>4535167.55411503</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C118" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D118" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E118" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F118" t="n">
+        <v>17092.2837</v>
+      </c>
+      <c r="G118" t="n">
+        <v>4518075.27041503</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D119" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>11</v>
+      </c>
+      <c r="G119" t="n">
+        <v>4518086.27041503</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>28</v>
+      </c>
+      <c r="C120" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D120" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E120" t="n">
+        <v>28</v>
+      </c>
+      <c r="F120" t="n">
+        <v>30516.0825</v>
+      </c>
+      <c r="G120" t="n">
+        <v>4518086.27041503</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C121" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D121" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E121" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F121" t="n">
+        <v>13963.8671</v>
+      </c>
+      <c r="G121" t="n">
+        <v>4504122.40331503</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C122" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D122" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E122" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F122" t="n">
+        <v>31907.5937</v>
+      </c>
+      <c r="G122" t="n">
+        <v>4504122.40331503</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C123" t="n">
+        <v>28</v>
+      </c>
+      <c r="D123" t="n">
+        <v>28</v>
+      </c>
+      <c r="E123" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F123" t="n">
+        <v>28.8642</v>
+      </c>
+      <c r="G123" t="n">
+        <v>4504151.26751503</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C124" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D124" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E124" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1486.9565</v>
+      </c>
+      <c r="G124" t="n">
+        <v>4505638.22401503</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C125" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D125" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E125" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F125" t="n">
+        <v>5441.2619</v>
+      </c>
+      <c r="G125" t="n">
+        <v>4500196.96211503</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C126" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D126" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E126" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F126" t="n">
+        <v>31861.0096</v>
+      </c>
+      <c r="G126" t="n">
+        <v>4532057.97171503</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C127" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D127" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E127" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F127" t="n">
+        <v>11</v>
+      </c>
+      <c r="G127" t="n">
+        <v>4532068.97171503</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>28</v>
+      </c>
+      <c r="C128" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D128" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E128" t="n">
+        <v>28</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3325.1577</v>
+      </c>
+      <c r="G128" t="n">
+        <v>4528743.81401503</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C129" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D129" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E129" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F129" t="n">
+        <v>598.8111</v>
+      </c>
+      <c r="G129" t="n">
+        <v>4528743.81401503</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C130" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2974.968</v>
+      </c>
+      <c r="G130" t="n">
+        <v>4525768.84601503</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C131" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F131" t="n">
+        <v>22</v>
+      </c>
+      <c r="G131" t="n">
+        <v>4525746.84601503</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C132" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D132" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E132" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1381.9813</v>
+      </c>
+      <c r="G132" t="n">
+        <v>4524364.864715029</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>28</v>
+      </c>
+      <c r="C133" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="D133" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="E133" t="n">
+        <v>28</v>
+      </c>
+      <c r="F133" t="n">
+        <v>21</v>
+      </c>
+      <c r="G133" t="n">
+        <v>4524385.864715029</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C134" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D134" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E134" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F134" t="n">
+        <v>10</v>
+      </c>
+      <c r="G134" t="n">
+        <v>4524395.864715029</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C135" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D135" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="E135" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4293.9013</v>
+      </c>
+      <c r="G135" t="n">
+        <v>4520101.963415029</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C136" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E136" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>34270.1896</v>
+      </c>
+      <c r="G136" t="n">
+        <v>4485831.773815029</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C137" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="D137" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="E137" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F137" t="n">
+        <v>44394.1552</v>
+      </c>
+      <c r="G137" t="n">
+        <v>4530225.929015029</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C138" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D138" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E138" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F138" t="n">
+        <v>10</v>
+      </c>
+      <c r="G138" t="n">
+        <v>4530235.929015029</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C139" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D139" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E139" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2824.5874</v>
+      </c>
+      <c r="G139" t="n">
+        <v>4527411.34161503</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C140" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D140" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E140" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F140" t="n">
+        <v>7954.8972</v>
+      </c>
+      <c r="G140" t="n">
+        <v>4519456.44441503</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C141" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="D141" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="E141" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F141" t="n">
+        <v>13114.6062</v>
+      </c>
+      <c r="G141" t="n">
+        <v>4532571.05061503</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C142" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="E142" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F142" t="n">
+        <v>34004.1239</v>
+      </c>
+      <c r="G142" t="n">
+        <v>4498566.92671503</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C143" t="n">
+        <v>28</v>
+      </c>
+      <c r="D143" t="n">
+        <v>28</v>
+      </c>
+      <c r="E143" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>160011</v>
+      </c>
+      <c r="G143" t="n">
+        <v>4338555.92671503</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>5344.2333</v>
+      </c>
+      <c r="G144" t="n">
+        <v>4333211.69341503</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C145" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="E145" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F145" t="n">
+        <v>452</v>
+      </c>
+      <c r="G145" t="n">
+        <v>4333663.69341503</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C146" t="n">
+        <v>27</v>
+      </c>
+      <c r="D146" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E146" t="n">
+        <v>27</v>
+      </c>
+      <c r="F146" t="n">
+        <v>30139.32199068</v>
+      </c>
+      <c r="G146" t="n">
+        <v>4303524.37142435</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>27</v>
+      </c>
+      <c r="C147" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D147" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E147" t="n">
+        <v>27</v>
+      </c>
+      <c r="F147" t="n">
+        <v>10020</v>
+      </c>
+      <c r="G147" t="n">
+        <v>4313544.37142435</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C148" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D148" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E148" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F148" t="n">
+        <v>34</v>
+      </c>
+      <c r="G148" t="n">
+        <v>4313510.37142435</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C149" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D149" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E149" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F149" t="n">
+        <v>80</v>
+      </c>
+      <c r="G149" t="n">
+        <v>4313590.37142435</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C150" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D150" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E150" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F150" t="n">
+        <v>40010</v>
+      </c>
+      <c r="G150" t="n">
+        <v>4313590.37142435</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C151" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D151" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E151" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F151" t="n">
+        <v>199200.8637</v>
+      </c>
+      <c r="G151" t="n">
+        <v>4114389.50772435</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C152" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D152" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E152" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3467.7132</v>
+      </c>
+      <c r="G152" t="n">
+        <v>4117857.22092435</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C153" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D153" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E153" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F153" t="n">
+        <v>6094.27</v>
+      </c>
+      <c r="G153" t="n">
+        <v>4111762.95092435</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C154" t="n">
+        <v>26</v>
+      </c>
+      <c r="D154" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E154" t="n">
+        <v>26</v>
+      </c>
+      <c r="F154" t="n">
+        <v>160115.8836</v>
+      </c>
+      <c r="G154" t="n">
+        <v>3951647.06732435</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C155" t="n">
         <v>26.9</v>
       </c>
-      <c r="C116" t="n">
+      <c r="D155" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E155" t="n">
+        <v>26</v>
+      </c>
+      <c r="F155" t="n">
+        <v>213721.6489</v>
+      </c>
+      <c r="G155" t="n">
+        <v>4165368.71622435</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D156" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E156" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>4607.2653</v>
+      </c>
+      <c r="G156" t="n">
+        <v>4169975.98152435</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C157" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D157" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E157" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F157" t="n">
+        <v>11177.5563</v>
+      </c>
+      <c r="G157" t="n">
+        <v>4169975.98152435</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C158" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D158" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E158" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>11728.8442</v>
+      </c>
+      <c r="G158" t="n">
+        <v>4158247.13732435</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C159" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D159" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E159" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5104.3689</v>
+      </c>
+      <c r="G159" t="n">
+        <v>4158247.13732435</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C160" t="n">
+        <v>27</v>
+      </c>
+      <c r="D160" t="n">
+        <v>27</v>
+      </c>
+      <c r="E160" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F160" t="n">
+        <v>22</v>
+      </c>
+      <c r="G160" t="n">
+        <v>4158269.13732435</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C161" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D161" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E161" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F161" t="n">
+        <v>7347</v>
+      </c>
+      <c r="G161" t="n">
+        <v>4165616.13732435</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
         <v>26.9</v>
       </c>
-      <c r="D116" t="n">
+      <c r="C162" t="n">
         <v>26.9</v>
       </c>
-      <c r="E116" t="n">
+      <c r="D162" t="n">
         <v>26.9</v>
       </c>
-      <c r="F116" t="n">
+      <c r="E162" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F162" t="n">
+        <v>6281</v>
+      </c>
+      <c r="G162" t="n">
+        <v>4159335.13732435</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C163" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D163" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E163" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>32662.1649</v>
+      </c>
+      <c r="G163" t="n">
+        <v>4126672.97242435</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C164" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D164" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E164" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2288</v>
+      </c>
+      <c r="G164" t="n">
+        <v>4128960.97242435</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C165" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D165" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E165" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F165" t="n">
+        <v>4623.5831</v>
+      </c>
+      <c r="G165" t="n">
+        <v>4124337.38932435</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C166" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D166" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E166" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F166" t="n">
+        <v>11139.6374</v>
+      </c>
+      <c r="G166" t="n">
+        <v>4113197.75192435</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C167" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D167" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E167" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F167" t="n">
+        <v>837.9124</v>
+      </c>
+      <c r="G167" t="n">
+        <v>4113197.75192435</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C168" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D168" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E168" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F168" t="n">
+        <v>11</v>
+      </c>
+      <c r="G168" t="n">
+        <v>4113208.75192435</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C169" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D169" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E169" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F169" t="n">
+        <v>4832.9573</v>
+      </c>
+      <c r="G169" t="n">
+        <v>4113208.75192435</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C170" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E170" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F170" t="n">
+        <v>29222.2723</v>
+      </c>
+      <c r="G170" t="n">
+        <v>4083986.47962435</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D171" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E171" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F171" t="n">
+        <v>29233.2723</v>
+      </c>
+      <c r="G171" t="n">
+        <v>4113219.75192435</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C172" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D172" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E172" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F172" t="n">
+        <v>47856.9107</v>
+      </c>
+      <c r="G172" t="n">
+        <v>4161076.66262435</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C173" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D173" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E173" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F173" t="n">
+        <v>5724.409</v>
+      </c>
+      <c r="G173" t="n">
+        <v>4155352.25362435</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C174" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="D174" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E174" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F174" t="n">
+        <v>17351.8087</v>
+      </c>
+      <c r="G174" t="n">
+        <v>4138000.44492435</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C175" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D175" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E175" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F175" t="n">
+        <v>11</v>
+      </c>
+      <c r="G175" t="n">
+        <v>4138011.44492435</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C176" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D176" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E176" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F176" t="n">
+        <v>22</v>
+      </c>
+      <c r="G176" t="n">
+        <v>4138033.44492435</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C177" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D177" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E177" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F177" t="n">
+        <v>10528.9406</v>
+      </c>
+      <c r="G177" t="n">
+        <v>4127504.50432435</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C178" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D178" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E178" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F178" t="n">
+        <v>3098</v>
+      </c>
+      <c r="G178" t="n">
+        <v>4124406.50432435</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C179" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="D179" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E179" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F179" t="n">
+        <v>11</v>
+      </c>
+      <c r="G179" t="n">
+        <v>4124417.50432435</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C180" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D180" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E180" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F180" t="n">
+        <v>10</v>
+      </c>
+      <c r="G180" t="n">
+        <v>4124427.50432435</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C181" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D181" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E181" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F181" t="n">
+        <v>18133.686</v>
+      </c>
+      <c r="G181" t="n">
+        <v>4142561.19032435</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C182" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D182" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E182" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F182" t="n">
+        <v>3584.2294</v>
+      </c>
+      <c r="G182" t="n">
+        <v>4138976.96092435</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C183" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D183" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E183" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F183" t="n">
+        <v>3077.373</v>
+      </c>
+      <c r="G183" t="n">
+        <v>4142054.33392435</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C184" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D184" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E184" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F184" t="n">
+        <v>10</v>
+      </c>
+      <c r="G184" t="n">
+        <v>4142064.33392435</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C185" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D185" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E185" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F185" t="n">
+        <v>19951.572</v>
+      </c>
+      <c r="G185" t="n">
+        <v>4162015.90592435</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C186" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="D186" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E186" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F186" t="n">
+        <v>12746.2922</v>
+      </c>
+      <c r="G186" t="n">
+        <v>4162015.90592435</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C187" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D187" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E187" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F187" t="n">
         <v>10192.8456</v>
       </c>
-      <c r="G116" t="n">
-        <v>26.83333333333336</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="G187" t="n">
+        <v>4172208.751524351</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-31 BackTest CHR.xlsx
+++ b/BackTest/2019-10-31 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N187"/>
+  <dimension ref="A1:M187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-65216.85516817998</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>-100216.85516818</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>26.1</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,21 @@
         <v>-100201.98436818</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>26</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +562,21 @@
         <v>-106436.75636818</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>27.1</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,20 +603,17 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -658,22 +638,21 @@
         <v>-133758.95476818</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -698,22 +677,21 @@
         <v>-87899.66936817998</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -738,22 +716,21 @@
         <v>9298.752231820021</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -778,22 +755,21 @@
         <v>13481.73763182002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -818,22 +794,21 @@
         <v>13540.53763182002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -858,22 +833,21 @@
         <v>13550.53763182002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -898,22 +872,21 @@
         <v>778.8344318200197</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -938,22 +911,21 @@
         <v>778.8344318200197</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -978,22 +950,21 @@
         <v>778.8344318200197</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1018,22 +989,21 @@
         <v>807.5476318200198</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1058,22 +1028,21 @@
         <v>606.7075318200198</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1100,20 +1069,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1138,22 +1104,21 @@
         <v>80483.00893182002</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>26.6</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1178,22 +1143,21 @@
         <v>104461.01893182</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1220,20 +1184,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1258,22 +1219,21 @@
         <v>145593.30103182</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1300,20 +1260,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1340,20 +1297,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1380,20 +1334,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1420,20 +1371,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1460,20 +1408,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1500,20 +1445,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1540,20 +1482,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1580,20 +1519,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1620,20 +1556,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1660,20 +1593,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1700,20 +1630,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1740,20 +1667,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1780,20 +1704,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1820,20 +1741,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1860,20 +1778,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1900,20 +1815,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1940,20 +1852,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1980,20 +1889,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2020,20 +1926,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2060,20 +1963,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2100,20 +2000,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2140,20 +2037,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2180,20 +2074,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2220,20 +2111,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2260,20 +2148,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2300,20 +2185,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2340,18 +2222,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
       </c>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2378,16 +2259,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2414,16 +2296,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2450,16 +2333,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2486,16 +2370,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2522,16 +2407,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2558,16 +2444,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2594,16 +2481,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2630,16 +2518,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2666,16 +2555,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2702,16 +2592,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2738,16 +2629,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2774,16 +2666,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2810,16 +2703,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2846,16 +2740,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2882,16 +2777,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2918,16 +2814,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2954,16 +2851,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2990,16 +2888,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3026,16 +2925,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3062,16 +2962,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3098,16 +2999,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3132,18 +3034,19 @@
         <v>4377402.10613182</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3168,18 +3071,19 @@
         <v>4379498.81883182</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3204,18 +3108,19 @@
         <v>4379498.81883182</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3242,16 +3147,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3278,16 +3184,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3314,16 +3221,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3350,16 +3258,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3386,16 +3295,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3422,16 +3332,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3458,16 +3369,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3494,16 +3406,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3530,16 +3443,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3566,16 +3480,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3602,16 +3517,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3638,16 +3554,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3674,16 +3591,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3710,16 +3628,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3746,16 +3665,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3782,16 +3702,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3818,16 +3739,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3854,16 +3776,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3890,16 +3813,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3926,16 +3850,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3962,16 +3887,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3998,16 +3924,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4034,16 +3961,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4070,16 +3998,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4104,18 +4033,19 @@
         <v>4367054.67061503</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4142,16 +4072,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4178,16 +4109,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4214,16 +4146,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4250,16 +4183,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4286,16 +4220,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4322,16 +4257,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4358,16 +4294,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4394,16 +4331,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4430,16 +4368,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4466,16 +4405,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4502,16 +4442,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4538,16 +4479,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4574,16 +4516,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4608,18 +4551,17 @@
         <v>4456631.94651503</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4644,18 +4586,15 @@
         <v>4442981.24081503</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4682,16 +4621,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4716,18 +4652,15 @@
         <v>4534865.22931503</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4752,18 +4685,15 @@
         <v>4494020.08581503</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4788,18 +4718,15 @@
         <v>4535167.55411503</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4824,18 +4751,15 @@
         <v>4518075.27041503</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4862,16 +4786,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4896,18 +4817,15 @@
         <v>4518086.27041503</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4932,18 +4850,15 @@
         <v>4504122.40331503</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4970,16 +4885,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5006,16 +4918,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5042,16 +4951,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5076,18 +4982,15 @@
         <v>4500196.96211503</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5112,18 +5015,15 @@
         <v>4532057.97171503</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5148,18 +5048,15 @@
         <v>4532068.97171503</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5184,18 +5081,15 @@
         <v>4528743.81401503</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5220,18 +5114,15 @@
         <v>4528743.81401503</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5256,18 +5147,15 @@
         <v>4525768.84601503</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5292,18 +5180,15 @@
         <v>4525746.84601503</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5328,18 +5213,15 @@
         <v>4524364.864715029</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5366,16 +5248,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5402,16 +5281,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5438,16 +5314,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5474,16 +5347,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5510,16 +5380,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5546,16 +5413,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5582,16 +5446,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5618,16 +5479,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5654,16 +5512,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5690,16 +5545,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5726,16 +5578,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5762,16 +5611,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5798,16 +5644,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5834,16 +5677,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5870,16 +5710,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5906,16 +5743,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5942,16 +5776,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5978,16 +5809,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6014,16 +5842,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6050,16 +5875,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6086,16 +5908,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6122,16 +5941,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6158,16 +5974,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6194,16 +6007,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6230,16 +6040,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6266,16 +6073,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6302,16 +6106,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6338,16 +6139,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6374,16 +6172,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6410,16 +6205,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6446,16 +6238,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6482,16 +6271,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6518,16 +6304,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6554,16 +6337,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6590,16 +6370,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6626,16 +6403,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6662,16 +6436,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6698,16 +6469,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6734,16 +6502,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6770,16 +6535,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6806,16 +6568,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6842,16 +6601,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6878,16 +6634,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6914,16 +6667,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6950,16 +6700,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6986,16 +6733,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7022,16 +6766,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7058,16 +6799,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7094,16 +6832,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7130,16 +6865,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7166,16 +6898,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7202,16 +6931,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7238,16 +6964,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7274,16 +6997,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7310,18 +7030,15 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest CHR.xlsx
+++ b/BackTest/2019-10-31 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-65216.85516817998</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-100216.85516818</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>26.1</v>
@@ -523,7 +523,7 @@
         <v>-100201.98436818</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>26</v>
@@ -562,7 +562,7 @@
         <v>-106436.75636818</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>27.1</v>
@@ -601,9 +601,11 @@
         <v>-106459.67046818</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>26.9</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -638,7 +640,7 @@
         <v>-133758.95476818</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>26.8</v>
@@ -677,7 +679,7 @@
         <v>-87899.66936817998</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>26</v>
@@ -716,7 +718,7 @@
         <v>9298.752231820021</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>27</v>
@@ -755,7 +757,7 @@
         <v>13481.73763182002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>27.2</v>
@@ -794,7 +796,7 @@
         <v>13540.53763182002</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>27.3</v>
@@ -833,7 +835,7 @@
         <v>13550.53763182002</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>27.5</v>
@@ -872,11 +874,9 @@
         <v>778.8344318200197</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -911,7 +911,7 @@
         <v>778.8344318200197</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>26.7</v>
@@ -950,7 +950,7 @@
         <v>778.8344318200197</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>26.7</v>
@@ -989,7 +989,7 @@
         <v>807.5476318200198</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>26.7</v>
@@ -1028,7 +1028,7 @@
         <v>606.7075318200198</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>27.2</v>
@@ -1067,9 +1067,11 @@
         <v>-1093.91236817998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>27</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1104,7 +1106,7 @@
         <v>80483.00893182002</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>26.6</v>
@@ -1143,7 +1145,7 @@
         <v>104461.01893182</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>27.3</v>
@@ -1219,11 +1221,9 @@
         <v>145593.30103182</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -2553,18 +2553,16 @@
         <v>4463587.81663182</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -2594,11 +2592,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2631,11 +2625,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2668,11 +2658,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2701,15 +2687,11 @@
         <v>4416800.890431819</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2738,15 +2720,11 @@
         <v>4425317.85843182</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2775,15 +2753,11 @@
         <v>4420040.81223182</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2812,15 +2786,11 @@
         <v>4420050.81223182</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2849,15 +2819,11 @@
         <v>4417042.59593182</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2890,11 +2856,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2923,15 +2885,11 @@
         <v>4412687.39793182</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2960,15 +2918,11 @@
         <v>4451127.18373182</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2997,15 +2951,11 @@
         <v>4379073.58763182</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3034,15 +2984,11 @@
         <v>4377402.10613182</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3071,15 +3017,11 @@
         <v>4379498.81883182</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3108,15 +3050,11 @@
         <v>4379498.81883182</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3145,15 +3083,11 @@
         <v>4377885.33733182</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3182,15 +3116,11 @@
         <v>4377885.33733182</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3219,15 +3149,11 @@
         <v>4377896.33733182</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3256,15 +3182,11 @@
         <v>4377896.33733182</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3293,15 +3215,11 @@
         <v>4377896.33733182</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3330,15 +3248,11 @@
         <v>4378879.55411503</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3367,15 +3281,11 @@
         <v>4350623.48051503</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3404,15 +3314,11 @@
         <v>4350633.48051503</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3441,15 +3347,11 @@
         <v>4350643.48051503</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3482,11 +3384,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3519,11 +3417,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3552,15 +3446,11 @@
         <v>4296732.432615031</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3589,15 +3479,11 @@
         <v>4296722.432615031</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3630,11 +3516,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3667,11 +3549,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3704,11 +3582,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3741,11 +3615,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3778,11 +3648,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3815,11 +3681,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3852,11 +3714,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3889,11 +3747,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3926,11 +3780,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3963,11 +3813,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4000,11 +3846,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4033,15 +3875,11 @@
         <v>4367054.67061503</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4074,11 +3912,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4111,11 +3945,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4148,11 +3978,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4185,11 +4011,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4222,11 +4044,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4259,11 +4077,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4296,11 +4110,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4333,11 +4143,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4370,11 +4176,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4407,11 +4209,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4242,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4481,11 +4275,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4518,11 +4308,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4551,16 +4337,14 @@
         <v>4456631.94651503</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
       <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
@@ -4586,7 +4370,7 @@
         <v>4442981.24081503</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4652,7 +4436,7 @@
         <v>4534865.22931503</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4685,7 +4469,7 @@
         <v>4494020.08581503</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4718,7 +4502,7 @@
         <v>4535167.55411503</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4751,7 +4535,7 @@
         <v>4518075.27041503</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4817,7 +4601,7 @@
         <v>4518086.27041503</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4850,7 +4634,7 @@
         <v>4504122.40331503</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4949,7 +4733,7 @@
         <v>4505638.22401503</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4982,7 +4766,7 @@
         <v>4500196.96211503</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5015,7 +4799,7 @@
         <v>4532057.97171503</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5048,7 +4832,7 @@
         <v>4532068.97171503</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5081,7 +4865,7 @@
         <v>4528743.81401503</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5114,7 +4898,7 @@
         <v>4528743.81401503</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5147,7 +4931,7 @@
         <v>4525768.84601503</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5180,7 +4964,7 @@
         <v>4525746.84601503</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5213,7 +4997,7 @@
         <v>4524364.864715029</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -7039,6 +6823,6 @@
       <c r="M187" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest CHR.xlsx
+++ b/BackTest/2019-10-31 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-65216.85516817998</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -562,11 +562,9 @@
         <v>-106436.75636818</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>27.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -601,11 +599,9 @@
         <v>-106459.67046818</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -757,11 +753,9 @@
         <v>13481.73763182002</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>27.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -796,11 +790,9 @@
         <v>13540.53763182002</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>27.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -835,11 +827,9 @@
         <v>13550.53763182002</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>27.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -911,11 +901,9 @@
         <v>778.8344318200197</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -950,11 +938,9 @@
         <v>778.8344318200197</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -989,11 +975,9 @@
         <v>807.5476318200198</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1028,11 +1012,9 @@
         <v>606.7075318200198</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>27.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1067,11 +1049,9 @@
         <v>-1093.91236817998</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1106,11 +1086,9 @@
         <v>80483.00893182002</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>26.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1145,11 +1123,9 @@
         <v>104461.01893182</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>27.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -2442,18 +2418,16 @@
         <v>4446618.55433182</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -2483,11 +2457,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2520,11 +2490,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2553,16 +2519,14 @@
         <v>4463587.81663182</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
       <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -2687,7 +2651,7 @@
         <v>4416800.890431819</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2720,7 +2684,7 @@
         <v>4425317.85843182</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2753,7 +2717,7 @@
         <v>4420040.81223182</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2786,7 +2750,7 @@
         <v>4420050.81223182</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2819,7 +2783,7 @@
         <v>4417042.59593182</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2885,7 +2849,7 @@
         <v>4412687.39793182</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2918,7 +2882,7 @@
         <v>4451127.18373182</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2951,7 +2915,7 @@
         <v>4379073.58763182</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2984,7 +2948,7 @@
         <v>4377402.10613182</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3017,7 +2981,7 @@
         <v>4379498.81883182</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3050,7 +3014,7 @@
         <v>4379498.81883182</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3083,7 +3047,7 @@
         <v>4377885.33733182</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3116,7 +3080,7 @@
         <v>4377885.33733182</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3149,7 +3113,7 @@
         <v>4377896.33733182</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3182,7 +3146,7 @@
         <v>4377896.33733182</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3215,7 +3179,7 @@
         <v>4377896.33733182</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3248,7 +3212,7 @@
         <v>4378879.55411503</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3281,7 +3245,7 @@
         <v>4350623.48051503</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3314,7 +3278,7 @@
         <v>4350633.48051503</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3347,7 +3311,7 @@
         <v>4350643.48051503</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3446,7 +3410,7 @@
         <v>4296732.432615031</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3479,7 +3443,7 @@
         <v>4296722.432615031</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -4733,7 +4697,7 @@
         <v>4505638.22401503</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5195,7 +5159,7 @@
         <v>4530235.929015029</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5228,7 +5192,7 @@
         <v>4527411.34161503</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5261,7 +5225,7 @@
         <v>4519456.44441503</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5294,7 +5258,7 @@
         <v>4532571.05061503</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5327,7 +5291,7 @@
         <v>4498566.92671503</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5360,7 +5324,7 @@
         <v>4338555.92671503</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -6823,6 +6787,6 @@
       <c r="M187" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest CHR.xlsx
+++ b/BackTest/2019-10-31 BackTest CHR.xlsx
@@ -451,7 +451,7 @@
         <v>-65216.85516817998</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -562,9 +562,11 @@
         <v>-106436.75636818</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>27.1</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -599,9 +601,11 @@
         <v>-106459.67046818</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>26.9</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -2159,18 +2163,16 @@
         <v>4125590.38053182</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -2196,15 +2198,11 @@
         <v>4125590.38053182</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2237,11 +2235,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2270,15 +2264,11 @@
         <v>4447937.417731821</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2311,11 +2301,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2348,11 +2334,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2385,11 +2367,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2422,12 +2400,10 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
       <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -2453,7 +2429,7 @@
         <v>4473099.267531821</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2486,7 +2462,7 @@
         <v>4463606.03633182</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2519,7 +2495,7 @@
         <v>4463587.81663182</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2552,7 +2528,7 @@
         <v>4467654.70593182</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2585,7 +2561,7 @@
         <v>4418661.46143182</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2618,7 +2594,7 @@
         <v>4418661.46143182</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2651,7 +2627,7 @@
         <v>4416800.890431819</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2684,7 +2660,7 @@
         <v>4425317.85843182</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -5159,7 +5135,7 @@
         <v>4530235.929015029</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5192,7 +5168,7 @@
         <v>4527411.34161503</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5225,7 +5201,7 @@
         <v>4519456.44441503</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5258,7 +5234,7 @@
         <v>4532571.05061503</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5291,7 +5267,7 @@
         <v>4498566.92671503</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5324,7 +5300,7 @@
         <v>4338555.92671503</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>

--- a/BackTest/2019-10-31 BackTest CHR.xlsx
+++ b/BackTest/2019-10-31 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M187"/>
+  <dimension ref="A1:L187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>9386.6592</v>
       </c>
       <c r="G2" t="n">
-        <v>-65216.85516817998</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,21 @@
         <v>35000</v>
       </c>
       <c r="G3" t="n">
-        <v>-100216.85516818</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
         <v>26.1</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +509,21 @@
         <v>14.8708</v>
       </c>
       <c r="G4" t="n">
-        <v>-100201.98436818</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
         <v>26</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +545,19 @@
         <v>6234.772</v>
       </c>
       <c r="G5" t="n">
-        <v>-106436.75636818</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,24 +579,19 @@
         <v>22.9141</v>
       </c>
       <c r="G6" t="n">
-        <v>-106459.67046818</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,24 +613,19 @@
         <v>27299.2843</v>
       </c>
       <c r="G7" t="n">
-        <v>-133758.95476818</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -676,24 +647,19 @@
         <v>45859.2854</v>
       </c>
       <c r="G8" t="n">
-        <v>-87899.66936817998</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>26</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -715,24 +681,19 @@
         <v>97198.4216</v>
       </c>
       <c r="G9" t="n">
-        <v>9298.752231820021</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>27</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -754,22 +715,19 @@
         <v>4182.9854</v>
       </c>
       <c r="G10" t="n">
-        <v>13481.73763182002</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -791,22 +749,19 @@
         <v>58.8</v>
       </c>
       <c r="G11" t="n">
-        <v>13540.53763182002</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -828,22 +783,19 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>13550.53763182002</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -865,22 +817,19 @@
         <v>12771.7032</v>
       </c>
       <c r="G13" t="n">
-        <v>778.8344318200197</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -902,22 +851,19 @@
         <v>20021.2919</v>
       </c>
       <c r="G14" t="n">
-        <v>778.8344318200197</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -939,22 +885,19 @@
         <v>2000</v>
       </c>
       <c r="G15" t="n">
-        <v>778.8344318200197</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -976,22 +919,19 @@
         <v>28.7132</v>
       </c>
       <c r="G16" t="n">
-        <v>807.5476318200198</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1013,22 +953,19 @@
         <v>200.8401</v>
       </c>
       <c r="G17" t="n">
-        <v>606.7075318200198</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1050,22 +987,19 @@
         <v>1700.6199</v>
       </c>
       <c r="G18" t="n">
-        <v>-1093.91236817998</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1087,22 +1021,19 @@
         <v>81576.9213</v>
       </c>
       <c r="G19" t="n">
-        <v>80483.00893182002</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1124,22 +1055,19 @@
         <v>23978.01</v>
       </c>
       <c r="G20" t="n">
-        <v>104461.01893182</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1161,22 +1089,19 @@
         <v>48436.5027</v>
       </c>
       <c r="G21" t="n">
-        <v>104461.01893182</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1198,22 +1123,19 @@
         <v>41132.2821</v>
       </c>
       <c r="G22" t="n">
-        <v>145593.30103182</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1235,22 +1157,19 @@
         <v>45498.1072</v>
       </c>
       <c r="G23" t="n">
-        <v>145593.30103182</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1272,22 +1191,19 @@
         <v>808.9747</v>
       </c>
       <c r="G24" t="n">
-        <v>145593.30103182</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1309,22 +1225,19 @@
         <v>2503.8626</v>
       </c>
       <c r="G25" t="n">
-        <v>145593.30103182</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1346,22 +1259,19 @@
         <v>832625.2291</v>
       </c>
       <c r="G26" t="n">
-        <v>978218.53013182</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1383,22 +1293,19 @@
         <v>1081347.7208</v>
       </c>
       <c r="G27" t="n">
-        <v>978218.53013182</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1420,22 +1327,19 @@
         <v>1066355.801</v>
       </c>
       <c r="G28" t="n">
-        <v>2044574.33113182</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1457,22 +1361,19 @@
         <v>1106700.3017</v>
       </c>
       <c r="G29" t="n">
-        <v>3151274.63283182</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1494,22 +1395,19 @@
         <v>1110710.2012</v>
       </c>
       <c r="G30" t="n">
-        <v>3151274.63283182</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1531,22 +1429,19 @@
         <v>329985.46293757</v>
       </c>
       <c r="G31" t="n">
-        <v>3151274.63283182</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1568,22 +1463,19 @@
         <v>253707.9194</v>
       </c>
       <c r="G32" t="n">
-        <v>3151274.63283182</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1605,22 +1497,19 @@
         <v>833364.70086243</v>
       </c>
       <c r="G33" t="n">
-        <v>3151274.63283182</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1642,22 +1531,19 @@
         <v>820714.19973757</v>
       </c>
       <c r="G34" t="n">
-        <v>3151274.63283182</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1679,22 +1565,17 @@
         <v>361076.2527</v>
       </c>
       <c r="G35" t="n">
-        <v>2790198.38013182</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1716,22 +1597,15 @@
         <v>280211.1429</v>
       </c>
       <c r="G36" t="n">
-        <v>2790198.38013182</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1753,22 +1627,15 @@
         <v>415845.4026</v>
       </c>
       <c r="G37" t="n">
-        <v>3206043.78273182</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1790,22 +1657,15 @@
         <v>706153.3897000001</v>
       </c>
       <c r="G38" t="n">
-        <v>3206043.78273182</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1827,22 +1687,15 @@
         <v>54576.7003</v>
       </c>
       <c r="G39" t="n">
-        <v>3151467.08243182</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1864,22 +1717,15 @@
         <v>19525.0971</v>
       </c>
       <c r="G40" t="n">
-        <v>3131941.98533182</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1901,22 +1747,15 @@
         <v>706909.2486</v>
       </c>
       <c r="G41" t="n">
-        <v>3838851.23393182</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1938,22 +1777,15 @@
         <v>10749.2228</v>
       </c>
       <c r="G42" t="n">
-        <v>3828102.01113182</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1975,22 +1807,15 @@
         <v>293052.5589</v>
       </c>
       <c r="G43" t="n">
-        <v>4121154.57003182</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2012,22 +1837,15 @@
         <v>221889.8468</v>
       </c>
       <c r="G44" t="n">
-        <v>3899264.72323182</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2049,22 +1867,15 @@
         <v>156058.3309</v>
       </c>
       <c r="G45" t="n">
-        <v>4055323.05413182</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2086,22 +1897,15 @@
         <v>191961.522</v>
       </c>
       <c r="G46" t="n">
-        <v>4055323.05413182</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2123,22 +1927,15 @@
         <v>71471.9932</v>
       </c>
       <c r="G47" t="n">
-        <v>4126795.04733182</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2160,20 +1957,15 @@
         <v>1204.6668</v>
       </c>
       <c r="G48" t="n">
-        <v>4125590.38053182</v>
-      </c>
-      <c r="H48" t="n">
         <v>2</v>
       </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K48" t="n">
+        <v>1</v>
       </c>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2195,18 +1987,15 @@
         <v>4049.1099</v>
       </c>
       <c r="G49" t="n">
-        <v>4125590.38053182</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2228,18 +2017,15 @@
         <v>340278.948</v>
       </c>
       <c r="G50" t="n">
-        <v>4465869.32853182</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2261,18 +2047,15 @@
         <v>17931.9108</v>
       </c>
       <c r="G51" t="n">
-        <v>4447937.417731821</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2294,18 +2077,15 @@
         <v>2789.6178</v>
       </c>
       <c r="G52" t="n">
-        <v>4445147.79993182</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2327,18 +2107,15 @@
         <v>30949.623</v>
       </c>
       <c r="G53" t="n">
-        <v>4476097.42293182</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2360,18 +2137,15 @@
         <v>29478.8686</v>
       </c>
       <c r="G54" t="n">
-        <v>4446618.55433182</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2393,18 +2167,15 @@
         <v>8679.2665</v>
       </c>
       <c r="G55" t="n">
-        <v>4446618.55433182</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2426,18 +2197,15 @@
         <v>26480.7132</v>
       </c>
       <c r="G56" t="n">
-        <v>4473099.267531821</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2459,18 +2227,15 @@
         <v>9493.2312</v>
       </c>
       <c r="G57" t="n">
-        <v>4463606.03633182</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2492,18 +2257,15 @@
         <v>18.2197</v>
       </c>
       <c r="G58" t="n">
-        <v>4463587.81663182</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2525,18 +2287,15 @@
         <v>4066.8893</v>
       </c>
       <c r="G59" t="n">
-        <v>4467654.70593182</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2558,18 +2317,15 @@
         <v>48993.2445</v>
       </c>
       <c r="G60" t="n">
-        <v>4418661.46143182</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2591,18 +2347,15 @@
         <v>29069.7728</v>
       </c>
       <c r="G61" t="n">
-        <v>4418661.46143182</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2624,18 +2377,15 @@
         <v>1860.571</v>
       </c>
       <c r="G62" t="n">
-        <v>4416800.890431819</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2657,18 +2407,15 @@
         <v>8516.968000000001</v>
       </c>
       <c r="G63" t="n">
-        <v>4425317.85843182</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,18 +2437,15 @@
         <v>5277.0462</v>
       </c>
       <c r="G64" t="n">
-        <v>4420040.81223182</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2723,18 +2467,15 @@
         <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>4420050.81223182</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2756,18 +2497,15 @@
         <v>3008.2163</v>
       </c>
       <c r="G66" t="n">
-        <v>4417042.59593182</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2789,18 +2527,15 @@
         <v>270.8249</v>
       </c>
       <c r="G67" t="n">
-        <v>4417042.59593182</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2822,18 +2557,15 @@
         <v>4355.198</v>
       </c>
       <c r="G68" t="n">
-        <v>4412687.39793182</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2855,18 +2587,15 @@
         <v>38439.7858</v>
       </c>
       <c r="G69" t="n">
-        <v>4451127.18373182</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2888,18 +2617,15 @@
         <v>72053.5961</v>
       </c>
       <c r="G70" t="n">
-        <v>4379073.58763182</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2921,18 +2647,15 @@
         <v>1671.4815</v>
       </c>
       <c r="G71" t="n">
-        <v>4377402.10613182</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2954,18 +2677,15 @@
         <v>2096.7127</v>
       </c>
       <c r="G72" t="n">
-        <v>4379498.81883182</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2987,18 +2707,15 @@
         <v>47</v>
       </c>
       <c r="G73" t="n">
-        <v>4379498.81883182</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3020,18 +2737,15 @@
         <v>1613.4815</v>
       </c>
       <c r="G74" t="n">
-        <v>4377885.33733182</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3053,18 +2767,15 @@
         <v>4132.3492</v>
       </c>
       <c r="G75" t="n">
-        <v>4377885.33733182</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3086,18 +2797,15 @@
         <v>11</v>
       </c>
       <c r="G76" t="n">
-        <v>4377896.33733182</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3119,18 +2827,15 @@
         <v>5814.964</v>
       </c>
       <c r="G77" t="n">
-        <v>4377896.33733182</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3152,18 +2857,15 @@
         <v>540.4498</v>
       </c>
       <c r="G78" t="n">
-        <v>4377896.33733182</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3185,18 +2887,15 @@
         <v>983.21678321</v>
       </c>
       <c r="G79" t="n">
-        <v>4378879.55411503</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3218,18 +2917,15 @@
         <v>28256.0736</v>
       </c>
       <c r="G80" t="n">
-        <v>4350623.48051503</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3251,18 +2947,15 @@
         <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>4350633.48051503</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3284,18 +2977,15 @@
         <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>4350643.48051503</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3317,18 +3007,15 @@
         <v>51828.5707</v>
       </c>
       <c r="G83" t="n">
-        <v>4298814.90981503</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3350,18 +3037,15 @@
         <v>2082.4772</v>
       </c>
       <c r="G84" t="n">
-        <v>4296732.432615031</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3383,18 +3067,15 @@
         <v>917.5228</v>
       </c>
       <c r="G85" t="n">
-        <v>4296732.432615031</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3416,18 +3097,15 @@
         <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>4296722.432615031</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3449,18 +3127,15 @@
         <v>248260.9812</v>
       </c>
       <c r="G87" t="n">
-        <v>4048461.451415031</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3482,18 +3157,15 @@
         <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>4048471.451415031</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3515,18 +3187,15 @@
         <v>13799.9862</v>
       </c>
       <c r="G89" t="n">
-        <v>4034671.465215031</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3548,18 +3217,15 @@
         <v>7037.1287</v>
       </c>
       <c r="G90" t="n">
-        <v>4034671.465215031</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3581,18 +3247,15 @@
         <v>15502.2939</v>
       </c>
       <c r="G91" t="n">
-        <v>4050173.759115031</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3614,18 +3277,15 @@
         <v>3809.9863</v>
       </c>
       <c r="G92" t="n">
-        <v>4053983.745415031</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3647,18 +3307,15 @@
         <v>308482.332</v>
       </c>
       <c r="G93" t="n">
-        <v>4362466.07741503</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3680,18 +3337,15 @@
         <v>42835.8932</v>
       </c>
       <c r="G94" t="n">
-        <v>4362466.07741503</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3713,18 +3367,15 @@
         <v>6358.5073</v>
       </c>
       <c r="G95" t="n">
-        <v>4368824.58471503</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3746,18 +3397,15 @@
         <v>52.1428</v>
       </c>
       <c r="G96" t="n">
-        <v>4368824.58471503</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3779,18 +3427,15 @@
         <v>16458.6822</v>
       </c>
       <c r="G97" t="n">
-        <v>4352365.90251503</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3812,18 +3457,15 @@
         <v>14688.7681</v>
       </c>
       <c r="G98" t="n">
-        <v>4367054.67061503</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3845,18 +3487,15 @@
         <v>45.97</v>
       </c>
       <c r="G99" t="n">
-        <v>4367100.64061503</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3878,18 +3517,15 @@
         <v>20000</v>
       </c>
       <c r="G100" t="n">
-        <v>4347100.64061503</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3911,18 +3547,15 @@
         <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>4347110.64061503</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3944,18 +3577,15 @@
         <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>4347120.64061503</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3977,18 +3607,15 @@
         <v>392.8571</v>
       </c>
       <c r="G103" t="n">
-        <v>4347513.49771503</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4010,18 +3637,15 @@
         <v>12748.072</v>
       </c>
       <c r="G104" t="n">
-        <v>4334765.42571503</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4043,18 +3667,15 @@
         <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>4334775.42571503</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4076,18 +3697,15 @@
         <v>1152.5736</v>
       </c>
       <c r="G106" t="n">
-        <v>4333622.85211503</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4109,18 +3727,15 @@
         <v>442</v>
       </c>
       <c r="G107" t="n">
-        <v>4334064.85211503</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4142,18 +3757,15 @@
         <v>22673.9093</v>
       </c>
       <c r="G108" t="n">
-        <v>4356738.761415031</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4175,18 +3787,15 @@
         <v>83923.245</v>
       </c>
       <c r="G109" t="n">
-        <v>4440662.006415031</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4208,18 +3817,15 @@
         <v>1284.3592</v>
       </c>
       <c r="G110" t="n">
-        <v>4441946.365615031</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4241,18 +3847,15 @@
         <v>1316.3512</v>
       </c>
       <c r="G111" t="n">
-        <v>4440630.01441503</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4274,18 +3877,15 @@
         <v>16001.9321</v>
       </c>
       <c r="G112" t="n">
-        <v>4456631.94651503</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4307,18 +3907,15 @@
         <v>13650.7057</v>
       </c>
       <c r="G113" t="n">
-        <v>4442981.24081503</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4340,18 +3937,15 @@
         <v>26278.2847</v>
       </c>
       <c r="G114" t="n">
-        <v>4469259.52551503</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4373,18 +3967,15 @@
         <v>65605.7038</v>
       </c>
       <c r="G115" t="n">
-        <v>4534865.22931503</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4406,18 +3997,15 @@
         <v>40845.1435</v>
       </c>
       <c r="G116" t="n">
-        <v>4494020.08581503</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4439,18 +4027,15 @@
         <v>41147.4683</v>
       </c>
       <c r="G117" t="n">
-        <v>4535167.55411503</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4472,18 +4057,15 @@
         <v>17092.2837</v>
       </c>
       <c r="G118" t="n">
-        <v>4518075.27041503</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4505,18 +4087,15 @@
         <v>11</v>
       </c>
       <c r="G119" t="n">
-        <v>4518086.27041503</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4538,18 +4117,15 @@
         <v>30516.0825</v>
       </c>
       <c r="G120" t="n">
-        <v>4518086.27041503</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4571,18 +4147,15 @@
         <v>13963.8671</v>
       </c>
       <c r="G121" t="n">
-        <v>4504122.40331503</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4604,18 +4177,15 @@
         <v>31907.5937</v>
       </c>
       <c r="G122" t="n">
-        <v>4504122.40331503</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4637,18 +4207,15 @@
         <v>28.8642</v>
       </c>
       <c r="G123" t="n">
-        <v>4504151.26751503</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4670,18 +4237,15 @@
         <v>1486.9565</v>
       </c>
       <c r="G124" t="n">
-        <v>4505638.22401503</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4703,18 +4267,15 @@
         <v>5441.2619</v>
       </c>
       <c r="G125" t="n">
-        <v>4500196.96211503</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4736,18 +4297,15 @@
         <v>31861.0096</v>
       </c>
       <c r="G126" t="n">
-        <v>4532057.97171503</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4769,18 +4327,15 @@
         <v>11</v>
       </c>
       <c r="G127" t="n">
-        <v>4532068.97171503</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4802,18 +4357,15 @@
         <v>3325.1577</v>
       </c>
       <c r="G128" t="n">
-        <v>4528743.81401503</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4835,18 +4387,15 @@
         <v>598.8111</v>
       </c>
       <c r="G129" t="n">
-        <v>4528743.81401503</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4868,18 +4417,15 @@
         <v>2974.968</v>
       </c>
       <c r="G130" t="n">
-        <v>4525768.84601503</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4901,18 +4447,15 @@
         <v>22</v>
       </c>
       <c r="G131" t="n">
-        <v>4525746.84601503</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4934,18 +4477,15 @@
         <v>1381.9813</v>
       </c>
       <c r="G132" t="n">
-        <v>4524364.864715029</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4967,18 +4507,15 @@
         <v>21</v>
       </c>
       <c r="G133" t="n">
-        <v>4524385.864715029</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5000,18 +4537,15 @@
         <v>10</v>
       </c>
       <c r="G134" t="n">
-        <v>4524395.864715029</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5033,18 +4567,15 @@
         <v>4293.9013</v>
       </c>
       <c r="G135" t="n">
-        <v>4520101.963415029</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5066,18 +4597,15 @@
         <v>34270.1896</v>
       </c>
       <c r="G136" t="n">
-        <v>4485831.773815029</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5099,18 +4627,15 @@
         <v>44394.1552</v>
       </c>
       <c r="G137" t="n">
-        <v>4530225.929015029</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5132,18 +4657,15 @@
         <v>10</v>
       </c>
       <c r="G138" t="n">
-        <v>4530235.929015029</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5165,18 +4687,15 @@
         <v>2824.5874</v>
       </c>
       <c r="G139" t="n">
-        <v>4527411.34161503</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5198,18 +4717,15 @@
         <v>7954.8972</v>
       </c>
       <c r="G140" t="n">
-        <v>4519456.44441503</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5231,18 +4747,15 @@
         <v>13114.6062</v>
       </c>
       <c r="G141" t="n">
-        <v>4532571.05061503</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5264,18 +4777,15 @@
         <v>34004.1239</v>
       </c>
       <c r="G142" t="n">
-        <v>4498566.92671503</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5297,18 +4807,15 @@
         <v>160011</v>
       </c>
       <c r="G143" t="n">
-        <v>4338555.92671503</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5330,18 +4837,15 @@
         <v>5344.2333</v>
       </c>
       <c r="G144" t="n">
-        <v>4333211.69341503</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5363,18 +4867,15 @@
         <v>452</v>
       </c>
       <c r="G145" t="n">
-        <v>4333663.69341503</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5396,18 +4897,15 @@
         <v>30139.32199068</v>
       </c>
       <c r="G146" t="n">
-        <v>4303524.37142435</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5429,18 +4927,15 @@
         <v>10020</v>
       </c>
       <c r="G147" t="n">
-        <v>4313544.37142435</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5462,18 +4957,15 @@
         <v>34</v>
       </c>
       <c r="G148" t="n">
-        <v>4313510.37142435</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5495,18 +4987,15 @@
         <v>80</v>
       </c>
       <c r="G149" t="n">
-        <v>4313590.37142435</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5528,18 +5017,15 @@
         <v>40010</v>
       </c>
       <c r="G150" t="n">
-        <v>4313590.37142435</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5561,18 +5047,15 @@
         <v>199200.8637</v>
       </c>
       <c r="G151" t="n">
-        <v>4114389.50772435</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5594,18 +5077,15 @@
         <v>3467.7132</v>
       </c>
       <c r="G152" t="n">
-        <v>4117857.22092435</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5627,18 +5107,15 @@
         <v>6094.27</v>
       </c>
       <c r="G153" t="n">
-        <v>4111762.95092435</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5660,18 +5137,15 @@
         <v>160115.8836</v>
       </c>
       <c r="G154" t="n">
-        <v>3951647.06732435</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5693,18 +5167,15 @@
         <v>213721.6489</v>
       </c>
       <c r="G155" t="n">
-        <v>4165368.71622435</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5726,18 +5197,15 @@
         <v>4607.2653</v>
       </c>
       <c r="G156" t="n">
-        <v>4169975.98152435</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5759,18 +5227,15 @@
         <v>11177.5563</v>
       </c>
       <c r="G157" t="n">
-        <v>4169975.98152435</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5792,18 +5257,15 @@
         <v>11728.8442</v>
       </c>
       <c r="G158" t="n">
-        <v>4158247.13732435</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5825,18 +5287,15 @@
         <v>5104.3689</v>
       </c>
       <c r="G159" t="n">
-        <v>4158247.13732435</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5858,18 +5317,15 @@
         <v>22</v>
       </c>
       <c r="G160" t="n">
-        <v>4158269.13732435</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5891,18 +5347,15 @@
         <v>7347</v>
       </c>
       <c r="G161" t="n">
-        <v>4165616.13732435</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5924,18 +5377,15 @@
         <v>6281</v>
       </c>
       <c r="G162" t="n">
-        <v>4159335.13732435</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5957,18 +5407,15 @@
         <v>32662.1649</v>
       </c>
       <c r="G163" t="n">
-        <v>4126672.97242435</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5990,18 +5437,15 @@
         <v>2288</v>
       </c>
       <c r="G164" t="n">
-        <v>4128960.97242435</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6023,18 +5467,15 @@
         <v>4623.5831</v>
       </c>
       <c r="G165" t="n">
-        <v>4124337.38932435</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6056,18 +5497,15 @@
         <v>11139.6374</v>
       </c>
       <c r="G166" t="n">
-        <v>4113197.75192435</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6089,18 +5527,15 @@
         <v>837.9124</v>
       </c>
       <c r="G167" t="n">
-        <v>4113197.75192435</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6122,18 +5557,15 @@
         <v>11</v>
       </c>
       <c r="G168" t="n">
-        <v>4113208.75192435</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6155,18 +5587,15 @@
         <v>4832.9573</v>
       </c>
       <c r="G169" t="n">
-        <v>4113208.75192435</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6188,18 +5617,15 @@
         <v>29222.2723</v>
       </c>
       <c r="G170" t="n">
-        <v>4083986.47962435</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6221,18 +5647,15 @@
         <v>29233.2723</v>
       </c>
       <c r="G171" t="n">
-        <v>4113219.75192435</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6254,18 +5677,15 @@
         <v>47856.9107</v>
       </c>
       <c r="G172" t="n">
-        <v>4161076.66262435</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6287,18 +5707,15 @@
         <v>5724.409</v>
       </c>
       <c r="G173" t="n">
-        <v>4155352.25362435</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6320,18 +5737,15 @@
         <v>17351.8087</v>
       </c>
       <c r="G174" t="n">
-        <v>4138000.44492435</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6353,18 +5767,15 @@
         <v>11</v>
       </c>
       <c r="G175" t="n">
-        <v>4138011.44492435</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6386,18 +5797,15 @@
         <v>22</v>
       </c>
       <c r="G176" t="n">
-        <v>4138033.44492435</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6419,18 +5827,15 @@
         <v>10528.9406</v>
       </c>
       <c r="G177" t="n">
-        <v>4127504.50432435</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6452,18 +5857,15 @@
         <v>3098</v>
       </c>
       <c r="G178" t="n">
-        <v>4124406.50432435</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6485,18 +5887,15 @@
         <v>11</v>
       </c>
       <c r="G179" t="n">
-        <v>4124417.50432435</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6518,18 +5917,15 @@
         <v>10</v>
       </c>
       <c r="G180" t="n">
-        <v>4124427.50432435</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6551,18 +5947,15 @@
         <v>18133.686</v>
       </c>
       <c r="G181" t="n">
-        <v>4142561.19032435</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6584,18 +5977,15 @@
         <v>3584.2294</v>
       </c>
       <c r="G182" t="n">
-        <v>4138976.96092435</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6617,18 +6007,15 @@
         <v>3077.373</v>
       </c>
       <c r="G183" t="n">
-        <v>4142054.33392435</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6650,18 +6037,15 @@
         <v>10</v>
       </c>
       <c r="G184" t="n">
-        <v>4142064.33392435</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6683,18 +6067,15 @@
         <v>19951.572</v>
       </c>
       <c r="G185" t="n">
-        <v>4162015.90592435</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6716,18 +6097,15 @@
         <v>12746.2922</v>
       </c>
       <c r="G186" t="n">
-        <v>4162015.90592435</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6749,18 +6127,15 @@
         <v>10192.8456</v>
       </c>
       <c r="G187" t="n">
-        <v>4172208.751524351</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
